--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21EC67A-E3D7-4801-9AE3-19958C14DC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122C1122-3D5F-40C8-BA04-3BD10C51852D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" firstSheet="20" activeTab="25" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" firstSheet="20" activeTab="24" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_SchoolGo" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="748">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10871,10 +10871,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{SA03}{MI03}{KI03}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{MI03}{KI03}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -11024,6 +11020,25 @@
   </si>
   <si>
     <t>C06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA07}{MI03}{KI01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA03}{MI03}{KI01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{MI03}{KI01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround_BandRoomAyaka</t>
+  </si>
+  <si>
+    <t>{SA00}{MI03}{KI11}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11116,12 +11131,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -11254,7 +11275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11289,9 +11310,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11360,11 +11378,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13374,7 +13404,7 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -13564,7 +13594,7 @@
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
@@ -13581,7 +13611,7 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G10" t="s">
@@ -13941,7 +13971,7 @@
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G31" t="s">
@@ -13964,7 +13994,7 @@
       <c r="E32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="22" t="s">
         <v>24</v>
       </c>
       <c r="G32" t="s">
@@ -14090,7 +14120,7 @@
       <c r="E38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>59</v>
       </c>
       <c r="G38" t="s">
@@ -14110,7 +14140,7 @@
       <c r="E39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="24" t="s">
         <v>60</v>
       </c>
       <c r="G39" t="s">
@@ -14130,7 +14160,7 @@
       <c r="E40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="23" t="s">
         <v>61</v>
       </c>
       <c r="G40" t="s">
@@ -14150,7 +14180,7 @@
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="23" t="s">
         <v>62</v>
       </c>
       <c r="G41" t="s">
@@ -14170,7 +14200,7 @@
       <c r="E42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="20" t="s">
         <v>63</v>
       </c>
       <c r="G42" t="s">
@@ -14190,7 +14220,7 @@
       <c r="E43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="20" t="s">
         <v>64</v>
       </c>
       <c r="G43" t="s">
@@ -14210,7 +14240,7 @@
       <c r="E44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G44" t="s">
@@ -14230,7 +14260,7 @@
       <c r="E45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="20" t="s">
         <v>66</v>
       </c>
       <c r="G45" t="s">
@@ -14250,7 +14280,7 @@
       <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="20" t="s">
         <v>67</v>
       </c>
       <c r="G46" t="s">
@@ -14270,7 +14300,7 @@
       <c r="E47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="20" t="s">
         <v>68</v>
       </c>
       <c r="G47" t="s">
@@ -14290,7 +14320,7 @@
       <c r="E48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>69</v>
       </c>
       <c r="G48" t="s">
@@ -14310,7 +14340,7 @@
       <c r="E49" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="20" t="s">
         <v>70</v>
       </c>
       <c r="G49" t="s">
@@ -14330,7 +14360,7 @@
       <c r="E50" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="20" t="s">
         <v>71</v>
       </c>
       <c r="G50" t="s">
@@ -14350,7 +14380,7 @@
       <c r="E51" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="20" t="s">
         <v>72</v>
       </c>
       <c r="G51" t="s">
@@ -14370,7 +14400,7 @@
       <c r="E52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="20" t="s">
         <v>73</v>
       </c>
       <c r="G52" t="s">
@@ -14390,7 +14420,7 @@
       <c r="E53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="20" t="s">
         <v>74</v>
       </c>
       <c r="G53" t="s">
@@ -14410,7 +14440,7 @@
       <c r="E54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="20" t="s">
         <v>75</v>
       </c>
       <c r="G54" t="s">
@@ -14430,7 +14460,7 @@
       <c r="E55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G55" t="s">
@@ -14450,7 +14480,7 @@
       <c r="E56" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="20" t="s">
         <v>77</v>
       </c>
       <c r="G56" t="s">
@@ -14470,7 +14500,7 @@
       <c r="E57" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="20" t="s">
         <v>78</v>
       </c>
       <c r="G57" t="s">
@@ -14490,7 +14520,7 @@
       <c r="E58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="20" t="s">
         <v>79</v>
       </c>
       <c r="G58" t="s">
@@ -14510,7 +14540,7 @@
       <c r="E59" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="20" t="s">
         <v>80</v>
       </c>
       <c r="G59" t="s">
@@ -14530,7 +14560,7 @@
       <c r="E60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="20" t="s">
         <v>81</v>
       </c>
       <c r="G60" t="s">
@@ -14550,7 +14580,7 @@
       <c r="E61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="20" t="s">
         <v>82</v>
       </c>
       <c r="G61" t="s">
@@ -14570,7 +14600,7 @@
       <c r="E62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="20" t="s">
         <v>83</v>
       </c>
       <c r="G62" t="s">
@@ -14590,7 +14620,7 @@
       <c r="E63" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="20" t="s">
         <v>84</v>
       </c>
       <c r="G63" t="s">
@@ -14610,7 +14640,7 @@
       <c r="E64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="20" t="s">
         <v>85</v>
       </c>
       <c r="G64" t="s">
@@ -14630,7 +14660,7 @@
       <c r="E65" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="20" t="s">
         <v>86</v>
       </c>
       <c r="G65" t="s">
@@ -14650,7 +14680,7 @@
       <c r="E66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="20" t="s">
         <v>87</v>
       </c>
       <c r="G66" t="s">
@@ -14670,7 +14700,7 @@
       <c r="E67" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="20" t="s">
         <v>88</v>
       </c>
       <c r="G67" t="s">
@@ -14809,7 +14839,7 @@
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>295</v>
       </c>
       <c r="G2" t="s">
@@ -14829,7 +14859,7 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>296</v>
       </c>
       <c r="G3" t="s">
@@ -14849,7 +14879,7 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>297</v>
       </c>
       <c r="G4" t="s">
@@ -14869,7 +14899,7 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>298</v>
       </c>
       <c r="G5" t="s">
@@ -14889,14 +14919,14 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>299</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -14909,14 +14939,14 @@
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>300</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -14932,14 +14962,14 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>301</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -14952,14 +14982,14 @@
       <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>302</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -14972,14 +15002,14 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>303</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -14992,14 +15022,14 @@
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>304</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -15012,14 +15042,14 @@
       <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>305</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -15032,14 +15062,14 @@
       <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>306</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -15052,14 +15082,14 @@
       <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>307</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -15072,14 +15102,14 @@
       <c r="E15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>308</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -15092,14 +15122,14 @@
       <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>309</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -15112,7 +15142,7 @@
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>310</v>
       </c>
       <c r="G17" t="s">
@@ -15132,7 +15162,7 @@
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>311</v>
       </c>
       <c r="G18" t="s">
@@ -15152,7 +15182,7 @@
       <c r="E19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>312</v>
       </c>
       <c r="G19" t="s">
@@ -15172,7 +15202,7 @@
       <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>313</v>
       </c>
       <c r="G20" t="s">
@@ -15192,7 +15222,7 @@
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>314</v>
       </c>
       <c r="G21" t="s">
@@ -15212,7 +15242,7 @@
       <c r="E22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>315</v>
       </c>
       <c r="G22" t="s">
@@ -15232,7 +15262,7 @@
       <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>316</v>
       </c>
       <c r="G23" t="s">
@@ -15252,7 +15282,7 @@
       <c r="E24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="25" t="s">
         <v>317</v>
       </c>
       <c r="G24" t="s">
@@ -15272,7 +15302,7 @@
       <c r="E25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>318</v>
       </c>
       <c r="G25" t="s">
@@ -15419,7 +15449,7 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -15436,7 +15466,7 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -15453,7 +15483,7 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -15470,7 +15500,7 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -15487,10 +15517,10 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>323</v>
       </c>
       <c r="G7" t="s">
@@ -15504,7 +15534,7 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -15521,10 +15551,10 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
@@ -15538,10 +15568,10 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>325</v>
       </c>
       <c r="G10" t="s">
@@ -15555,7 +15585,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -15572,7 +15602,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -15589,7 +15619,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -15614,7 +15644,7 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -15624,7 +15654,7 @@
         <v>701</v>
       </c>
       <c r="H15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -15634,7 +15664,7 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -15644,7 +15674,7 @@
         <v>701</v>
       </c>
       <c r="H16" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15654,7 +15684,7 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -15664,7 +15694,7 @@
         <v>701</v>
       </c>
       <c r="H17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="26.4">
@@ -15674,7 +15704,7 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -15684,7 +15714,7 @@
         <v>701</v>
       </c>
       <c r="H18" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -15694,7 +15724,7 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -15704,7 +15734,7 @@
         <v>701</v>
       </c>
       <c r="H19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15714,7 +15744,7 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -15724,7 +15754,7 @@
         <v>701</v>
       </c>
       <c r="H20" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15734,7 +15764,7 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -15744,7 +15774,7 @@
         <v>701</v>
       </c>
       <c r="H21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15754,7 +15784,7 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -15764,7 +15794,7 @@
         <v>701</v>
       </c>
       <c r="H22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="26.4">
@@ -15774,7 +15804,7 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
@@ -15784,7 +15814,7 @@
         <v>701</v>
       </c>
       <c r="H23" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15794,7 +15824,7 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -15804,7 +15834,7 @@
         <v>701</v>
       </c>
       <c r="H24" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15814,7 +15844,7 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -15824,7 +15854,7 @@
         <v>701</v>
       </c>
       <c r="H25" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15834,7 +15864,7 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -15844,7 +15874,7 @@
         <v>701</v>
       </c>
       <c r="H26" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15854,7 +15884,7 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -15864,7 +15894,7 @@
         <v>701</v>
       </c>
       <c r="H27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15874,17 +15904,17 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="27" t="s">
+      <c r="E28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="26" t="s">
         <v>342</v>
       </c>
       <c r="G28" t="s">
         <v>701</v>
       </c>
       <c r="H28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15894,17 +15924,17 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>343</v>
       </c>
       <c r="G29" t="s">
         <v>701</v>
       </c>
       <c r="H29" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="26.4">
@@ -15914,17 +15944,17 @@
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>344</v>
       </c>
       <c r="G30" t="s">
         <v>701</v>
       </c>
       <c r="H30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15934,7 +15964,7 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -15944,7 +15974,7 @@
         <v>701</v>
       </c>
       <c r="H31" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15954,7 +15984,7 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -15964,7 +15994,7 @@
         <v>701</v>
       </c>
       <c r="H32" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15974,17 +16004,17 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="22" t="s">
         <v>347</v>
       </c>
       <c r="G33" t="s">
         <v>701</v>
       </c>
       <c r="H33" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15994,7 +16024,7 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="7" t="s">
@@ -16004,7 +16034,7 @@
         <v>701</v>
       </c>
       <c r="H34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="26.4">
@@ -16014,17 +16044,17 @@
       <c r="D35">
         <v>2</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="20" t="s">
         <v>349</v>
       </c>
       <c r="G35" t="s">
         <v>701</v>
       </c>
       <c r="H35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="26.4">
@@ -16034,7 +16064,7 @@
       <c r="D36">
         <v>2</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -16044,7 +16074,7 @@
         <v>701</v>
       </c>
       <c r="H36" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -16054,7 +16084,7 @@
       <c r="D37">
         <v>2</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="7" t="s">
@@ -16064,7 +16094,7 @@
         <v>701</v>
       </c>
       <c r="H37" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -16074,7 +16104,7 @@
       <c r="D38">
         <v>2</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F38" s="7" t="s">
@@ -16084,7 +16114,7 @@
         <v>701</v>
       </c>
       <c r="H38" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -16094,17 +16124,17 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="13" t="s">
+      <c r="E39" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>353</v>
       </c>
       <c r="G39" t="s">
         <v>701</v>
       </c>
       <c r="H39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -16114,17 +16144,17 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="25" t="s">
+      <c r="E40" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="24" t="s">
         <v>354</v>
       </c>
       <c r="G40" t="s">
         <v>701</v>
       </c>
       <c r="H40" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -16134,7 +16164,7 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -16144,7 +16174,7 @@
         <v>701</v>
       </c>
       <c r="H41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="26.4">
@@ -16154,17 +16184,17 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="24" t="s">
+      <c r="E42" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="23" t="s">
         <v>356</v>
       </c>
       <c r="G42" t="s">
         <v>701</v>
       </c>
       <c r="H42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -16174,17 +16204,17 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="21" t="s">
+      <c r="E43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="20" t="s">
         <v>357</v>
       </c>
       <c r="G43" t="s">
         <v>701</v>
       </c>
       <c r="H43" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -16194,17 +16224,17 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="21" t="s">
+      <c r="E44" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="20" t="s">
         <v>358</v>
       </c>
       <c r="G44" t="s">
         <v>701</v>
       </c>
       <c r="H44" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -16214,17 +16244,17 @@
       <c r="D45">
         <v>2</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="20" t="s">
         <v>359</v>
       </c>
       <c r="G45" t="s">
         <v>701</v>
       </c>
       <c r="H45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -16234,17 +16264,17 @@
       <c r="D46">
         <v>2</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="20" t="s">
         <v>360</v>
       </c>
       <c r="G46" t="s">
         <v>701</v>
       </c>
       <c r="H46" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="26.4">
@@ -16254,17 +16284,17 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="21" t="s">
+      <c r="E47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="20" t="s">
         <v>361</v>
       </c>
       <c r="G47" t="s">
         <v>701</v>
       </c>
       <c r="H47" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -16274,17 +16304,17 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="21" t="s">
+      <c r="E48" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="20" t="s">
         <v>362</v>
       </c>
       <c r="G48" t="s">
         <v>701</v>
       </c>
       <c r="H48" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -16429,14 +16459,14 @@
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>365</v>
       </c>
       <c r="G2" t="s">
         <v>701</v>
       </c>
       <c r="H2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -16449,14 +16479,14 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>366</v>
       </c>
       <c r="G3" t="s">
         <v>701</v>
       </c>
       <c r="H3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -16469,14 +16499,14 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>367</v>
       </c>
       <c r="G4" t="s">
         <v>701</v>
       </c>
       <c r="H4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -16489,14 +16519,14 @@
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>368</v>
       </c>
       <c r="G5" t="s">
         <v>701</v>
       </c>
       <c r="H5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -16509,14 +16539,14 @@
       <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>369</v>
       </c>
       <c r="G6" t="s">
         <v>701</v>
       </c>
       <c r="H6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -16536,7 +16566,7 @@
         <v>701</v>
       </c>
       <c r="H7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -16549,14 +16579,14 @@
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>371</v>
       </c>
       <c r="G8" t="s">
         <v>701</v>
       </c>
       <c r="H8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -16569,14 +16599,14 @@
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>372</v>
       </c>
       <c r="G9" t="s">
         <v>701</v>
       </c>
       <c r="H9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -16589,14 +16619,14 @@
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>373</v>
       </c>
       <c r="G10" t="s">
         <v>701</v>
       </c>
       <c r="H10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -16609,14 +16639,14 @@
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>374</v>
       </c>
       <c r="G11" t="s">
         <v>701</v>
       </c>
       <c r="H11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -16629,14 +16659,14 @@
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>375</v>
       </c>
       <c r="G12" t="s">
         <v>701</v>
       </c>
       <c r="H12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -16649,14 +16679,14 @@
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>376</v>
       </c>
       <c r="G13" t="s">
         <v>701</v>
       </c>
       <c r="H13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -16669,14 +16699,14 @@
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>377</v>
       </c>
       <c r="G14" t="s">
         <v>701</v>
       </c>
       <c r="H14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -16689,14 +16719,14 @@
       <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>378</v>
       </c>
       <c r="G15" t="s">
         <v>701</v>
       </c>
       <c r="H15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -16709,14 +16739,14 @@
       <c r="E16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>379</v>
       </c>
       <c r="G16" t="s">
         <v>701</v>
       </c>
       <c r="H16" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -16729,14 +16759,14 @@
       <c r="E17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>701</v>
       </c>
       <c r="H17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -16749,14 +16779,14 @@
       <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>381</v>
       </c>
       <c r="G18" t="s">
         <v>701</v>
       </c>
       <c r="H18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -16769,14 +16799,14 @@
       <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>382</v>
       </c>
       <c r="G19" t="s">
         <v>701</v>
       </c>
       <c r="H19" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -16789,14 +16819,14 @@
       <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>383</v>
       </c>
       <c r="G20" t="s">
         <v>701</v>
       </c>
       <c r="H20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -16809,14 +16839,14 @@
       <c r="E21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>384</v>
       </c>
       <c r="G21" t="s">
         <v>701</v>
       </c>
       <c r="H21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -16829,14 +16859,14 @@
       <c r="E22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>385</v>
       </c>
       <c r="G22" t="s">
         <v>701</v>
       </c>
       <c r="H22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -16984,14 +17014,14 @@
       <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>386</v>
       </c>
       <c r="G2" t="s">
         <v>701</v>
       </c>
       <c r="H2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -17004,14 +17034,14 @@
       <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>387</v>
       </c>
       <c r="G3" t="s">
         <v>701</v>
       </c>
       <c r="H3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -17024,14 +17054,14 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>388</v>
       </c>
       <c r="G4" t="s">
         <v>701</v>
       </c>
       <c r="H4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -17044,14 +17074,14 @@
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>389</v>
       </c>
       <c r="G5" t="s">
         <v>701</v>
       </c>
       <c r="H5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -17064,14 +17094,14 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>390</v>
       </c>
       <c r="G6" t="s">
         <v>701</v>
       </c>
       <c r="H6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -17084,14 +17114,14 @@
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>391</v>
       </c>
       <c r="G7" t="s">
         <v>701</v>
       </c>
       <c r="H7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -17104,14 +17134,14 @@
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>392</v>
       </c>
       <c r="G8" t="s">
         <v>701</v>
       </c>
       <c r="H8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -17124,14 +17154,14 @@
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>393</v>
       </c>
       <c r="G9" t="s">
         <v>701</v>
       </c>
       <c r="H9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -17280,17 +17310,17 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>394</v>
       </c>
       <c r="G2" t="s">
         <v>701</v>
       </c>
       <c r="H2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -17300,7 +17330,7 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -17310,7 +17340,7 @@
         <v>701</v>
       </c>
       <c r="H3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -17320,17 +17350,17 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>396</v>
       </c>
       <c r="G4" t="s">
         <v>701</v>
       </c>
       <c r="H4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -17340,17 +17370,17 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>397</v>
       </c>
       <c r="G5" t="s">
         <v>701</v>
       </c>
       <c r="H5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -17360,17 +17390,17 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>398</v>
       </c>
       <c r="G6" t="s">
         <v>701</v>
       </c>
       <c r="H6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -17380,17 +17410,17 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>399</v>
       </c>
       <c r="G7" t="s">
         <v>701</v>
       </c>
       <c r="H7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -17400,17 +17430,17 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>400</v>
       </c>
       <c r="G8" t="s">
         <v>701</v>
       </c>
       <c r="H8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -17420,17 +17450,17 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>401</v>
       </c>
       <c r="G9" t="s">
         <v>701</v>
       </c>
       <c r="H9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -17440,17 +17470,17 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>402</v>
       </c>
       <c r="G10" t="s">
         <v>701</v>
       </c>
       <c r="H10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -17594,17 +17624,17 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>404</v>
       </c>
       <c r="G2" t="s">
+        <v>720</v>
+      </c>
+      <c r="H2" t="s">
         <v>721</v>
-      </c>
-      <c r="H2" t="s">
-        <v>722</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -17620,14 +17650,14 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>405</v>
       </c>
       <c r="G3" t="s">
         <v>701</v>
       </c>
       <c r="H3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -17640,14 +17670,14 @@
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>406</v>
       </c>
       <c r="G4" t="s">
         <v>701</v>
       </c>
       <c r="H4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -17660,14 +17690,14 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>407</v>
       </c>
       <c r="G5" t="s">
         <v>701</v>
       </c>
       <c r="H5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -17680,14 +17710,14 @@
       <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>408</v>
       </c>
       <c r="G6" t="s">
         <v>701</v>
       </c>
       <c r="H6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -17700,14 +17730,14 @@
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>409</v>
       </c>
       <c r="G7" t="s">
         <v>701</v>
       </c>
       <c r="H7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -17720,14 +17750,14 @@
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>410</v>
       </c>
       <c r="G8" t="s">
         <v>701</v>
       </c>
       <c r="H8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -17740,14 +17770,14 @@
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>411</v>
       </c>
       <c r="G9" t="s">
         <v>701</v>
       </c>
       <c r="H9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -17760,14 +17790,14 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>412</v>
       </c>
       <c r="G10" t="s">
         <v>701</v>
       </c>
       <c r="H10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -17780,14 +17810,14 @@
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>413</v>
       </c>
       <c r="G11" t="s">
         <v>701</v>
       </c>
       <c r="H11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -17800,14 +17830,14 @@
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>414</v>
       </c>
       <c r="G12" t="s">
         <v>701</v>
       </c>
       <c r="H12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -17959,14 +17989,14 @@
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>415</v>
       </c>
       <c r="G2" t="s">
         <v>701</v>
       </c>
       <c r="H2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -17979,14 +18009,14 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>416</v>
       </c>
       <c r="G3" t="s">
         <v>701</v>
       </c>
       <c r="H3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -17999,14 +18029,14 @@
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>417</v>
       </c>
       <c r="G4" t="s">
         <v>701</v>
       </c>
       <c r="H4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -18019,14 +18049,14 @@
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>418</v>
       </c>
       <c r="G5" t="s">
         <v>701</v>
       </c>
       <c r="H5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -18039,14 +18069,14 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>419</v>
       </c>
       <c r="G6" t="s">
         <v>701</v>
       </c>
       <c r="H6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -18059,14 +18089,14 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>420</v>
       </c>
       <c r="G7" t="s">
         <v>701</v>
       </c>
       <c r="H7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -18079,14 +18109,14 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>421</v>
       </c>
       <c r="G8" t="s">
         <v>701</v>
       </c>
       <c r="H8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -18099,14 +18129,14 @@
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>422</v>
       </c>
       <c r="G9" t="s">
         <v>701</v>
       </c>
       <c r="H9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -18119,14 +18149,14 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>423</v>
       </c>
       <c r="G10" t="s">
         <v>701</v>
       </c>
       <c r="H10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -18139,14 +18169,14 @@
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G11" t="s">
         <v>701</v>
       </c>
       <c r="H11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -18159,14 +18189,14 @@
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>425</v>
       </c>
       <c r="G12" t="s">
         <v>701</v>
       </c>
       <c r="H12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -18179,14 +18209,14 @@
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>426</v>
       </c>
       <c r="G13" t="s">
         <v>701</v>
       </c>
       <c r="H13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -18336,14 +18366,14 @@
       <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>427</v>
       </c>
       <c r="G2" t="s">
         <v>701</v>
       </c>
       <c r="H2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -18359,14 +18389,14 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>428</v>
       </c>
       <c r="G3" t="s">
         <v>701</v>
       </c>
       <c r="H3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -18379,14 +18409,14 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>429</v>
       </c>
       <c r="G4" t="s">
         <v>701</v>
       </c>
       <c r="H4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -18399,14 +18429,14 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>430</v>
       </c>
       <c r="G5" t="s">
         <v>701</v>
       </c>
       <c r="H5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -18419,14 +18449,14 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>431</v>
       </c>
       <c r="G6" t="s">
         <v>701</v>
       </c>
       <c r="H6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -18439,14 +18469,14 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>432</v>
       </c>
       <c r="G7" t="s">
         <v>701</v>
       </c>
       <c r="H7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -18459,14 +18489,14 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>433</v>
       </c>
       <c r="G8" t="s">
         <v>701</v>
       </c>
       <c r="H8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -18476,17 +18506,17 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>434</v>
       </c>
       <c r="G9" t="s">
         <v>701</v>
       </c>
       <c r="H9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -18499,14 +18529,14 @@
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>435</v>
       </c>
       <c r="G10" t="s">
         <v>701</v>
       </c>
       <c r="H10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -18519,14 +18549,14 @@
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>436</v>
       </c>
       <c r="G11" t="s">
         <v>701</v>
       </c>
       <c r="H11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -18539,14 +18569,14 @@
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>437</v>
       </c>
       <c r="G12" t="s">
         <v>701</v>
       </c>
       <c r="H12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -18559,14 +18589,14 @@
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>701</v>
       </c>
       <c r="H13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -18579,14 +18609,14 @@
       <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>438</v>
       </c>
       <c r="G14" t="s">
         <v>701</v>
       </c>
       <c r="H14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -18599,14 +18629,14 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>439</v>
       </c>
       <c r="G15" t="s">
         <v>701</v>
       </c>
       <c r="H15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -18619,14 +18649,14 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>440</v>
       </c>
       <c r="G16" t="s">
         <v>701</v>
       </c>
       <c r="H16" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -18639,14 +18669,14 @@
       <c r="E17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>441</v>
       </c>
       <c r="G17" t="s">
         <v>701</v>
       </c>
       <c r="H17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -18659,14 +18689,14 @@
       <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>442</v>
       </c>
       <c r="G18" t="s">
         <v>701</v>
       </c>
       <c r="H18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -18679,14 +18709,14 @@
       <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>443</v>
       </c>
       <c r="G19" t="s">
         <v>701</v>
       </c>
       <c r="H19" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -18699,14 +18729,14 @@
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>444</v>
       </c>
       <c r="G20" t="s">
         <v>701</v>
       </c>
       <c r="H20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -18860,7 +18890,7 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -18877,7 +18907,7 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -18894,7 +18924,7 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -18911,7 +18941,7 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -18928,10 +18958,10 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>449</v>
       </c>
       <c r="G7" t="s">
@@ -18945,7 +18975,7 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -18962,17 +18992,17 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>451</v>
       </c>
       <c r="G9" t="s">
         <v>702</v>
       </c>
       <c r="H9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -18982,17 +19012,17 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>702</v>
       </c>
       <c r="H10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -19002,7 +19032,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -19012,7 +19042,7 @@
         <v>702</v>
       </c>
       <c r="H11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -19022,7 +19052,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -19032,7 +19062,7 @@
         <v>702</v>
       </c>
       <c r="H12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -19042,7 +19072,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -19052,7 +19082,7 @@
         <v>702</v>
       </c>
       <c r="H13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -19062,7 +19092,7 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -19072,7 +19102,7 @@
         <v>702</v>
       </c>
       <c r="H14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -19082,7 +19112,7 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -19092,7 +19122,7 @@
         <v>702</v>
       </c>
       <c r="H15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -19102,7 +19132,7 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -19112,7 +19142,7 @@
         <v>702</v>
       </c>
       <c r="H16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -19122,7 +19152,7 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -19132,7 +19162,7 @@
         <v>702</v>
       </c>
       <c r="H17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -19142,7 +19172,7 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -19152,7 +19182,7 @@
         <v>702</v>
       </c>
       <c r="H18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -19162,7 +19192,7 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -19172,7 +19202,7 @@
         <v>702</v>
       </c>
       <c r="H19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -19182,7 +19212,7 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -19192,7 +19222,7 @@
         <v>702</v>
       </c>
       <c r="H20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -19202,7 +19232,7 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -19212,7 +19242,7 @@
         <v>702</v>
       </c>
       <c r="H21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -19222,7 +19252,7 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -19232,7 +19262,7 @@
         <v>702</v>
       </c>
       <c r="H22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -19242,7 +19272,7 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -19252,7 +19282,7 @@
         <v>702</v>
       </c>
       <c r="H23" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -19262,7 +19292,7 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -19272,7 +19302,7 @@
         <v>702</v>
       </c>
       <c r="H24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -19282,7 +19312,7 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
@@ -19292,7 +19322,7 @@
         <v>702</v>
       </c>
       <c r="H25" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -19302,7 +19332,7 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -19312,7 +19342,7 @@
         <v>702</v>
       </c>
       <c r="H26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -19322,17 +19352,17 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="30" t="s">
+      <c r="E27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>466</v>
       </c>
       <c r="G27" t="s">
         <v>702</v>
       </c>
       <c r="H27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -19342,17 +19372,17 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="30" t="s">
+      <c r="E28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="29" t="s">
         <v>467</v>
       </c>
       <c r="G28" t="s">
         <v>702</v>
       </c>
       <c r="H28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -19362,17 +19392,17 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="30" t="s">
+      <c r="E29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="29" t="s">
         <v>468</v>
       </c>
       <c r="G29" t="s">
         <v>702</v>
       </c>
       <c r="H29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -19382,17 +19412,17 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="30" t="s">
+      <c r="E30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>469</v>
       </c>
       <c r="G30" t="s">
         <v>702</v>
       </c>
       <c r="H30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -19402,17 +19432,17 @@
       <c r="D31">
         <v>3</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="29" t="s">
         <v>470</v>
       </c>
       <c r="G31" t="s">
         <v>702</v>
       </c>
       <c r="H31" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -19422,17 +19452,17 @@
       <c r="D32">
         <v>3</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="30" t="s">
         <v>471</v>
       </c>
       <c r="G32" t="s">
         <v>702</v>
       </c>
       <c r="H32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -19442,17 +19472,17 @@
       <c r="D33">
         <v>3</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="31" t="s">
         <v>472</v>
       </c>
       <c r="G33" t="s">
         <v>702</v>
       </c>
       <c r="H33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -19462,17 +19492,17 @@
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="28" t="s">
         <v>473</v>
       </c>
       <c r="G34" t="s">
         <v>702</v>
       </c>
       <c r="H34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -19482,17 +19512,17 @@
       <c r="D35">
         <v>3</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="32" t="s">
         <v>474</v>
       </c>
       <c r="G35" t="s">
         <v>702</v>
       </c>
       <c r="H35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -19502,17 +19532,17 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="33" t="s">
+      <c r="E36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>475</v>
       </c>
       <c r="G36" t="s">
         <v>702</v>
       </c>
       <c r="H36" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -19522,17 +19552,17 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="33" t="s">
+      <c r="E37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>362</v>
       </c>
       <c r="G37" t="s">
         <v>702</v>
       </c>
       <c r="H37" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -19717,17 +19747,17 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>476</v>
       </c>
       <c r="G2" t="s">
         <v>702</v>
       </c>
       <c r="H2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -19740,14 +19770,14 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>477</v>
       </c>
       <c r="G3" t="s">
         <v>702</v>
       </c>
       <c r="H3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -19757,17 +19787,17 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>478</v>
       </c>
       <c r="G4" t="s">
         <v>702</v>
       </c>
       <c r="H4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -19777,17 +19807,17 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>479</v>
       </c>
       <c r="G5" t="s">
         <v>702</v>
       </c>
       <c r="H5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -19797,17 +19827,17 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>480</v>
       </c>
       <c r="G6" t="s">
         <v>702</v>
       </c>
       <c r="H6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -19820,14 +19850,14 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>481</v>
       </c>
       <c r="G7" t="s">
         <v>702</v>
       </c>
       <c r="H7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -19837,17 +19867,17 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>482</v>
       </c>
       <c r="G8" t="s">
         <v>702</v>
       </c>
       <c r="H8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -19857,17 +19887,17 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>483</v>
       </c>
       <c r="G9" t="s">
         <v>702</v>
       </c>
       <c r="H9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -19877,17 +19907,17 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>484</v>
       </c>
       <c r="G10" t="s">
         <v>702</v>
       </c>
       <c r="H10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -19897,17 +19927,17 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>485</v>
       </c>
       <c r="G11" t="s">
         <v>702</v>
       </c>
       <c r="H11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -19920,14 +19950,14 @@
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>486</v>
       </c>
       <c r="G12" t="s">
         <v>702</v>
       </c>
       <c r="H12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -19937,17 +19967,17 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>487</v>
       </c>
       <c r="G13" t="s">
         <v>702</v>
       </c>
       <c r="H13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -20019,8 +20049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABE6EEA-441F-4145-BD21-BED610835A4E}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -20103,7 +20133,7 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>89</v>
       </c>
       <c r="G3" t="s">
@@ -20120,7 +20150,7 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>90</v>
       </c>
       <c r="G4" t="s">
@@ -20137,7 +20167,7 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>91</v>
       </c>
       <c r="G5" t="s">
@@ -20154,7 +20184,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>92</v>
       </c>
       <c r="G6" t="s">
@@ -20171,7 +20201,7 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G7" t="s">
@@ -20188,7 +20218,7 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>94</v>
       </c>
       <c r="G8" t="s">
@@ -20205,7 +20235,7 @@
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G9" t="s">
@@ -20222,7 +20252,7 @@
       <c r="E10" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>96</v>
       </c>
       <c r="G10" t="s">
@@ -20239,7 +20269,7 @@
       <c r="E11" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>97</v>
       </c>
       <c r="G11" t="s">
@@ -20256,7 +20286,7 @@
       <c r="E12" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>98</v>
       </c>
       <c r="G12" t="s">
@@ -20273,7 +20303,7 @@
       <c r="E13" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>99</v>
       </c>
       <c r="G13" t="s">
@@ -20290,7 +20320,7 @@
       <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G14" t="s">
@@ -20307,7 +20337,7 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>101</v>
       </c>
       <c r="G15" t="s">
@@ -20324,7 +20354,7 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>102</v>
       </c>
       <c r="G16" t="s">
@@ -20341,7 +20371,7 @@
       <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>103</v>
       </c>
       <c r="G17" t="s">
@@ -20358,7 +20388,7 @@
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>104</v>
       </c>
       <c r="G18" t="s">
@@ -20386,7 +20416,7 @@
       <c r="E20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>105</v>
       </c>
       <c r="G20" t="s">
@@ -20426,7 +20456,7 @@
       <c r="E22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>107</v>
       </c>
       <c r="G22" t="s">
@@ -20446,7 +20476,7 @@
       <c r="E23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>108</v>
       </c>
       <c r="G23" t="s">
@@ -20466,7 +20496,7 @@
       <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>109</v>
       </c>
       <c r="G24" t="s">
@@ -20486,7 +20516,7 @@
       <c r="E25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>110</v>
       </c>
       <c r="G25" t="s">
@@ -20506,7 +20536,7 @@
       <c r="E26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>111</v>
       </c>
       <c r="G26" t="s">
@@ -20526,7 +20556,7 @@
       <c r="E27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>112</v>
       </c>
       <c r="G27" t="s">
@@ -20546,7 +20576,7 @@
       <c r="E28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>113</v>
       </c>
       <c r="G28" t="s">
@@ -20566,7 +20596,7 @@
       <c r="E29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>114</v>
       </c>
       <c r="G29" t="s">
@@ -20586,7 +20616,7 @@
       <c r="E30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>115</v>
       </c>
       <c r="G30" t="s">
@@ -20606,7 +20636,7 @@
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="20" t="s">
         <v>116</v>
       </c>
       <c r="G31" t="s">
@@ -20626,7 +20656,7 @@
       <c r="E32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>117</v>
       </c>
       <c r="G32" t="s">
@@ -20646,7 +20676,7 @@
       <c r="E33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>118</v>
       </c>
       <c r="G33" t="s">
@@ -20666,7 +20696,7 @@
       <c r="E34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="20" t="s">
         <v>119</v>
       </c>
       <c r="G34" t="s">
@@ -20686,7 +20716,7 @@
       <c r="E35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="20" t="s">
         <v>120</v>
       </c>
       <c r="G35" t="s">
@@ -20706,7 +20736,7 @@
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G36" t="s">
@@ -20726,7 +20756,7 @@
       <c r="E37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="20" t="s">
         <v>121</v>
       </c>
       <c r="G37" t="s">
@@ -20746,7 +20776,7 @@
       <c r="E38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="20" t="s">
         <v>122</v>
       </c>
       <c r="G38" t="s">
@@ -20766,7 +20796,7 @@
       <c r="E39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="20" t="s">
         <v>123</v>
       </c>
       <c r="G39" t="s">
@@ -20786,7 +20816,7 @@
       <c r="E40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="20" t="s">
         <v>124</v>
       </c>
       <c r="G40" t="s">
@@ -20806,7 +20836,7 @@
       <c r="E41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="20" t="s">
         <v>125</v>
       </c>
       <c r="G41" t="s">
@@ -20826,7 +20856,7 @@
       <c r="E42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="20" t="s">
         <v>126</v>
       </c>
       <c r="G42" t="s">
@@ -20846,7 +20876,7 @@
       <c r="E43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="20" t="s">
         <v>127</v>
       </c>
       <c r="G43" t="s">
@@ -20866,7 +20896,7 @@
       <c r="E44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="20" t="s">
         <v>128</v>
       </c>
       <c r="G44" t="s">
@@ -20886,7 +20916,7 @@
       <c r="E45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="20" t="s">
         <v>129</v>
       </c>
       <c r="G45" t="s">
@@ -20906,7 +20936,7 @@
       <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="20" t="s">
         <v>130</v>
       </c>
       <c r="G46" t="s">
@@ -20926,7 +20956,7 @@
       <c r="E47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="20" t="s">
         <v>131</v>
       </c>
       <c r="G47" t="s">
@@ -20946,7 +20976,7 @@
       <c r="E48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>132</v>
       </c>
       <c r="G48" t="s">
@@ -20966,7 +20996,7 @@
       <c r="E49" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="20" t="s">
         <v>133</v>
       </c>
       <c r="G49" t="s">
@@ -20986,7 +21016,7 @@
       <c r="E50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="20" t="s">
         <v>134</v>
       </c>
       <c r="G50" t="s">
@@ -21006,7 +21036,7 @@
       <c r="E51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="20" t="s">
         <v>135</v>
       </c>
       <c r="G51" t="s">
@@ -21026,7 +21056,7 @@
       <c r="E52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="20" t="s">
         <v>136</v>
       </c>
       <c r="G52" t="s">
@@ -21046,7 +21076,7 @@
       <c r="E53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="20" t="s">
         <v>137</v>
       </c>
       <c r="G53" t="s">
@@ -21066,7 +21096,7 @@
       <c r="E54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="20" t="s">
         <v>138</v>
       </c>
       <c r="G54" t="s">
@@ -21086,7 +21116,7 @@
       <c r="E55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="20" t="s">
         <v>139</v>
       </c>
       <c r="G55" t="s">
@@ -21106,7 +21136,7 @@
       <c r="E56" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="20" t="s">
         <v>140</v>
       </c>
       <c r="G56" t="s">
@@ -21126,7 +21156,7 @@
       <c r="E57" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="20" t="s">
         <v>141</v>
       </c>
       <c r="G57" t="s">
@@ -21146,7 +21176,7 @@
       <c r="E58" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="20" t="s">
         <v>142</v>
       </c>
       <c r="G58" t="s">
@@ -21166,7 +21196,7 @@
       <c r="E59" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="20" t="s">
         <v>143</v>
       </c>
       <c r="G59" t="s">
@@ -21186,7 +21216,7 @@
       <c r="E60" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="20" t="s">
         <v>144</v>
       </c>
       <c r="G60" t="s">
@@ -21206,7 +21236,7 @@
       <c r="E61" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="25" t="s">
         <v>145</v>
       </c>
       <c r="G61" t="s">
@@ -21246,7 +21276,7 @@
       <c r="E63" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="20" t="s">
         <v>147</v>
       </c>
       <c r="G63" t="s">
@@ -21266,7 +21296,7 @@
       <c r="E64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="20" t="s">
         <v>148</v>
       </c>
       <c r="G64" t="s">
@@ -21286,14 +21316,14 @@
       <c r="E65" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="20" t="s">
         <v>149</v>
       </c>
       <c r="G65" t="s">
         <v>27</v>
       </c>
-      <c r="H65" t="s">
-        <v>704</v>
+      <c r="H65" s="35" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -21306,14 +21336,14 @@
       <c r="E66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="20" t="s">
         <v>150</v>
       </c>
       <c r="G66" t="s">
         <v>27</v>
       </c>
-      <c r="H66" t="s">
-        <v>705</v>
+      <c r="H66" s="35" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -21326,14 +21356,14 @@
       <c r="E67" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="20" t="s">
         <v>151</v>
       </c>
       <c r="G67" t="s">
         <v>27</v>
       </c>
-      <c r="H67" t="s">
-        <v>705</v>
+      <c r="H67" s="35" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -21346,14 +21376,14 @@
       <c r="E68" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F68" s="20" t="s">
         <v>152</v>
       </c>
       <c r="G68" t="s">
         <v>27</v>
       </c>
-      <c r="H68" t="s">
-        <v>706</v>
+      <c r="H68" s="35" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -21366,14 +21396,14 @@
       <c r="E69" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F69" s="20" t="s">
         <v>153</v>
       </c>
       <c r="G69" t="s">
         <v>27</v>
       </c>
-      <c r="H69" t="s">
-        <v>706</v>
+      <c r="H69" s="35" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -21386,14 +21416,14 @@
       <c r="E70" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="F70" s="20" t="s">
         <v>154</v>
       </c>
       <c r="G70" t="s">
         <v>27</v>
       </c>
       <c r="H70" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -21406,14 +21436,14 @@
       <c r="E71" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="20" t="s">
         <v>155</v>
       </c>
       <c r="G71" t="s">
         <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -21426,14 +21456,14 @@
       <c r="E72" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F72" s="20" t="s">
         <v>156</v>
       </c>
       <c r="G72" t="s">
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -21446,14 +21476,14 @@
       <c r="E73" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="21" t="s">
+      <c r="F73" s="20" t="s">
         <v>157</v>
       </c>
       <c r="G73" t="s">
         <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -21466,14 +21496,14 @@
       <c r="E74" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F74" s="20" t="s">
         <v>158</v>
       </c>
       <c r="G74" t="s">
         <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -21486,14 +21516,14 @@
       <c r="E75" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F75" s="20" t="s">
         <v>159</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
       </c>
       <c r="H75" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -21506,14 +21536,14 @@
       <c r="E76" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="20" t="s">
         <v>160</v>
       </c>
       <c r="G76" t="s">
         <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -21672,17 +21702,17 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>488</v>
       </c>
       <c r="G2" t="s">
         <v>702</v>
       </c>
       <c r="H2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -21692,7 +21722,7 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -21702,7 +21732,7 @@
         <v>702</v>
       </c>
       <c r="H3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -21712,17 +21742,17 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>490</v>
       </c>
       <c r="G4" t="s">
         <v>702</v>
       </c>
       <c r="H4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -21735,14 +21765,14 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>491</v>
       </c>
       <c r="G5" t="s">
         <v>702</v>
       </c>
       <c r="H5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -21752,17 +21782,17 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>492</v>
       </c>
       <c r="G6" t="s">
         <v>702</v>
       </c>
       <c r="H6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -21772,17 +21802,17 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>493</v>
       </c>
       <c r="G7" t="s">
         <v>702</v>
       </c>
       <c r="H7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -21792,17 +21822,17 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>494</v>
       </c>
       <c r="G8" t="s">
         <v>702</v>
       </c>
       <c r="H8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -21812,17 +21842,17 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>495</v>
       </c>
       <c r="G9" t="s">
         <v>702</v>
       </c>
       <c r="H9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -21832,17 +21862,17 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>496</v>
       </c>
       <c r="G10" t="s">
         <v>702</v>
       </c>
       <c r="H10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -21852,17 +21882,17 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>497</v>
       </c>
       <c r="G11" t="s">
         <v>702</v>
       </c>
       <c r="H11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -22006,10 +22036,10 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>498</v>
       </c>
       <c r="G2" t="s">
@@ -22023,10 +22053,10 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>499</v>
       </c>
       <c r="G3" t="s">
@@ -22040,10 +22070,10 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>500</v>
       </c>
       <c r="G4" t="s">
@@ -22207,7 +22237,7 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -22217,7 +22247,7 @@
         <v>702</v>
       </c>
       <c r="H2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -22227,17 +22257,17 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>502</v>
       </c>
       <c r="G3" t="s">
         <v>702</v>
       </c>
       <c r="H3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -22247,17 +22277,17 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>503</v>
       </c>
       <c r="G4" t="s">
         <v>702</v>
       </c>
       <c r="H4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -22267,17 +22297,17 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>504</v>
       </c>
       <c r="G5" t="s">
         <v>702</v>
       </c>
       <c r="H5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -22293,14 +22323,14 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>505</v>
       </c>
       <c r="G6" t="s">
         <v>702</v>
       </c>
       <c r="H6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -22313,14 +22343,14 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>506</v>
       </c>
       <c r="G7" t="s">
         <v>702</v>
       </c>
       <c r="H7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -22333,14 +22363,14 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>507</v>
       </c>
       <c r="G8" t="s">
         <v>702</v>
       </c>
       <c r="H8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -22353,14 +22383,14 @@
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>508</v>
       </c>
       <c r="G9" t="s">
         <v>702</v>
       </c>
       <c r="H9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -22373,14 +22403,14 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>509</v>
       </c>
       <c r="G10" t="s">
         <v>702</v>
       </c>
       <c r="H10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -22393,14 +22423,14 @@
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>510</v>
       </c>
       <c r="G11" t="s">
         <v>702</v>
       </c>
       <c r="H11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -22413,14 +22443,14 @@
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>511</v>
       </c>
       <c r="G12" t="s">
         <v>702</v>
       </c>
       <c r="H12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -22430,17 +22460,17 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>512</v>
       </c>
       <c r="G13" t="s">
         <v>702</v>
       </c>
       <c r="H13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -22453,14 +22483,14 @@
       <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>513</v>
       </c>
       <c r="G14" t="s">
         <v>702</v>
       </c>
       <c r="H14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -22473,14 +22503,14 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>514</v>
       </c>
       <c r="G15" t="s">
         <v>702</v>
       </c>
       <c r="H15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -22493,14 +22523,14 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>515</v>
       </c>
       <c r="G16" t="s">
         <v>702</v>
       </c>
       <c r="H16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -22642,17 +22672,17 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>516</v>
       </c>
       <c r="G2" t="s">
         <v>702</v>
       </c>
       <c r="H2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -22668,14 +22698,14 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>517</v>
       </c>
       <c r="G3" t="s">
         <v>702</v>
       </c>
       <c r="H3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -22688,14 +22718,14 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>518</v>
       </c>
       <c r="G4" t="s">
         <v>702</v>
       </c>
       <c r="H4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -22708,14 +22738,14 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>519</v>
       </c>
       <c r="G5" t="s">
         <v>702</v>
       </c>
       <c r="H5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -22728,14 +22758,14 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>520</v>
       </c>
       <c r="G6" t="s">
         <v>702</v>
       </c>
       <c r="H6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -22748,14 +22778,14 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>521</v>
       </c>
       <c r="G7" t="s">
         <v>702</v>
       </c>
       <c r="H7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -22768,14 +22798,14 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>522</v>
       </c>
       <c r="G8" t="s">
         <v>702</v>
       </c>
       <c r="H8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -22788,14 +22818,14 @@
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>523</v>
       </c>
       <c r="G9" t="s">
         <v>702</v>
       </c>
       <c r="H9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -22808,14 +22838,14 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>702</v>
       </c>
       <c r="H10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -22828,14 +22858,14 @@
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>702</v>
       </c>
       <c r="H11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -22848,14 +22878,14 @@
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>702</v>
       </c>
       <c r="H12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -22868,14 +22898,14 @@
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>524</v>
       </c>
       <c r="G13" t="s">
         <v>702</v>
       </c>
       <c r="H13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -22885,17 +22915,17 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>525</v>
       </c>
       <c r="G14" t="s">
         <v>702</v>
       </c>
       <c r="H14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -22905,17 +22935,17 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>526</v>
       </c>
       <c r="G15" t="s">
         <v>702</v>
       </c>
       <c r="H15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -22928,14 +22958,14 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>527</v>
       </c>
       <c r="G16" t="s">
         <v>702</v>
       </c>
       <c r="H16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -22945,17 +22975,17 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>528</v>
       </c>
       <c r="G17" t="s">
         <v>702</v>
       </c>
       <c r="H17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -22968,14 +22998,14 @@
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>529</v>
       </c>
       <c r="G18" t="s">
         <v>702</v>
       </c>
       <c r="H18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -22985,17 +23015,17 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>530</v>
       </c>
       <c r="G19" t="s">
         <v>702</v>
       </c>
       <c r="H19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -23005,7 +23035,7 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="11" t="s">
@@ -23015,7 +23045,7 @@
         <v>702</v>
       </c>
       <c r="H20" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -23157,17 +23187,17 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>532</v>
       </c>
       <c r="G2" t="s">
         <v>702</v>
       </c>
       <c r="H2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -23183,14 +23213,14 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>533</v>
       </c>
       <c r="G3" t="s">
         <v>702</v>
       </c>
       <c r="H3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -23200,17 +23230,17 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>534</v>
       </c>
       <c r="G4" t="s">
         <v>702</v>
       </c>
       <c r="H4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -23220,17 +23250,17 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>535</v>
       </c>
       <c r="G5" t="s">
         <v>702</v>
       </c>
       <c r="H5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -23243,14 +23273,14 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>536</v>
       </c>
       <c r="G6" t="s">
         <v>702</v>
       </c>
       <c r="H6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -23263,14 +23293,14 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>537</v>
       </c>
       <c r="G7" t="s">
         <v>702</v>
       </c>
       <c r="H7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -23280,17 +23310,17 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>525</v>
       </c>
       <c r="G8" t="s">
         <v>702</v>
       </c>
       <c r="H8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -23300,17 +23330,17 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>538</v>
       </c>
       <c r="G9" t="s">
         <v>702</v>
       </c>
       <c r="H9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -23320,17 +23350,17 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>539</v>
       </c>
       <c r="G10" t="s">
         <v>702</v>
       </c>
       <c r="H10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -23340,17 +23370,17 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>540</v>
       </c>
       <c r="G11" t="s">
         <v>702</v>
       </c>
       <c r="H11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -23360,17 +23390,17 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>541</v>
       </c>
       <c r="G12" t="s">
         <v>702</v>
       </c>
       <c r="H12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -23383,14 +23413,14 @@
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>542</v>
       </c>
       <c r="G13" t="s">
         <v>702</v>
       </c>
       <c r="H13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -23403,14 +23433,14 @@
       <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>543</v>
       </c>
       <c r="G14" t="s">
         <v>702</v>
       </c>
       <c r="H14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -23423,14 +23453,14 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>544</v>
       </c>
       <c r="G15" t="s">
         <v>702</v>
       </c>
       <c r="H15" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -23443,14 +23473,14 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>545</v>
       </c>
       <c r="G16" t="s">
         <v>702</v>
       </c>
       <c r="H16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -23463,14 +23493,14 @@
       <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G17" t="s">
         <v>702</v>
       </c>
       <c r="H17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -23483,14 +23513,14 @@
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>546</v>
       </c>
       <c r="G18" t="s">
         <v>702</v>
       </c>
       <c r="H18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -23503,14 +23533,14 @@
       <c r="E19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>547</v>
       </c>
       <c r="G19" t="s">
         <v>702</v>
       </c>
       <c r="H19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -23523,14 +23553,14 @@
       <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>548</v>
       </c>
       <c r="G20" t="s">
         <v>702</v>
       </c>
       <c r="H20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -23540,17 +23570,17 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>549</v>
       </c>
       <c r="G21" t="s">
         <v>702</v>
       </c>
       <c r="H21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -23560,17 +23590,17 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>550</v>
       </c>
       <c r="G22" t="s">
         <v>702</v>
       </c>
       <c r="H22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -23580,17 +23610,17 @@
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>551</v>
       </c>
       <c r="G23" t="s">
         <v>702</v>
       </c>
       <c r="H23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -23603,14 +23633,14 @@
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="25" t="s">
         <v>552</v>
       </c>
       <c r="G24" t="s">
         <v>702</v>
       </c>
       <c r="H24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -23623,14 +23653,14 @@
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>553</v>
       </c>
       <c r="G25" t="s">
         <v>702</v>
       </c>
       <c r="H25" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -23643,14 +23673,14 @@
       <c r="E26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="25" t="s">
         <v>554</v>
       </c>
       <c r="G26" t="s">
         <v>702</v>
       </c>
       <c r="H26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -23663,14 +23693,14 @@
       <c r="E27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="25" t="s">
         <v>555</v>
       </c>
       <c r="G27" t="s">
         <v>702</v>
       </c>
       <c r="H27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -23683,14 +23713,14 @@
       <c r="E28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="25" t="s">
         <v>556</v>
       </c>
       <c r="G28" t="s">
         <v>702</v>
       </c>
       <c r="H28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -23703,14 +23733,14 @@
       <c r="E29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>557</v>
       </c>
       <c r="G29" t="s">
         <v>702</v>
       </c>
       <c r="H29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -23723,14 +23753,14 @@
       <c r="E30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>558</v>
       </c>
       <c r="G30" t="s">
         <v>702</v>
       </c>
       <c r="H30" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -23743,14 +23773,14 @@
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="25" t="s">
         <v>559</v>
       </c>
       <c r="G31" t="s">
         <v>702</v>
       </c>
       <c r="H31" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -23763,14 +23793,14 @@
       <c r="E32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="25" t="s">
         <v>560</v>
       </c>
       <c r="G32" t="s">
         <v>702</v>
       </c>
       <c r="H32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -23780,17 +23810,17 @@
       <c r="D33">
         <v>3</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G33" t="s">
         <v>702</v>
       </c>
       <c r="H33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -23800,7 +23830,7 @@
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="11" t="s">
@@ -23810,7 +23840,7 @@
         <v>702</v>
       </c>
       <c r="H34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -23823,14 +23853,14 @@
       <c r="E35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="25" t="s">
         <v>562</v>
       </c>
       <c r="G35" t="s">
         <v>702</v>
       </c>
       <c r="H35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -23902,8 +23932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52CED-8D2E-4744-8A59-535CFF1C067F}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -23982,14 +24012,14 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.8">
@@ -24002,14 +24032,14 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>566</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -24022,14 +24052,14 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>567</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -24042,14 +24072,14 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>568</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -24062,14 +24092,14 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>569</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -24082,14 +24112,14 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>570</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -24102,14 +24132,14 @@
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>571</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -24122,14 +24152,14 @@
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>572</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -24142,14 +24172,14 @@
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>573</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -24162,14 +24192,14 @@
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>574</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="26.4">
@@ -24182,14 +24212,14 @@
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>575</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -24202,14 +24232,14 @@
       <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>576</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -24222,14 +24252,14 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>577</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -24242,14 +24272,14 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>578</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -24262,14 +24292,14 @@
       <c r="E17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>579</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -24282,14 +24312,14 @@
       <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>580</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -24302,14 +24332,14 @@
       <c r="E19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>581</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -24322,14 +24352,14 @@
       <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>582</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -24342,14 +24372,14 @@
       <c r="E21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>583</v>
       </c>
       <c r="G21" t="s">
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -24362,14 +24392,14 @@
       <c r="E22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>584</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="26.4">
@@ -24382,14 +24412,14 @@
       <c r="E23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>585</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -24402,14 +24432,14 @@
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>586</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -24422,14 +24452,14 @@
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>587</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -24442,14 +24472,14 @@
       <c r="E26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>588</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -24462,14 +24492,14 @@
       <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>589</v>
       </c>
       <c r="G27" t="s">
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -24482,14 +24512,14 @@
       <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G28" t="s">
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -24502,14 +24532,14 @@
       <c r="E29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>590</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -24522,14 +24552,14 @@
       <c r="E30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>591</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -24542,14 +24572,14 @@
       <c r="E31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="20" t="s">
         <v>592</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -24562,14 +24592,14 @@
       <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>593</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -24582,14 +24612,14 @@
       <c r="E33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>594</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -24602,14 +24632,14 @@
       <c r="E34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="20" t="s">
         <v>595</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -24622,14 +24652,14 @@
       <c r="E35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="20" t="s">
         <v>596</v>
       </c>
       <c r="G35" t="s">
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="26.4">
@@ -24642,14 +24672,14 @@
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="20" t="s">
         <v>597</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -24662,14 +24692,14 @@
       <c r="E37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="20" t="s">
         <v>598</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -24682,14 +24712,14 @@
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="20" t="s">
         <v>599</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -24702,14 +24732,14 @@
       <c r="E39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="20" t="s">
         <v>600</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -24722,14 +24752,14 @@
       <c r="E40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="20" t="s">
         <v>601</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -24742,14 +24772,14 @@
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="20" t="s">
         <v>602</v>
       </c>
       <c r="G41" t="s">
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -24762,14 +24792,14 @@
       <c r="E42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" t="s">
-        <v>739</v>
+      <c r="G42" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -24782,14 +24812,14 @@
       <c r="E43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s">
-        <v>739</v>
+      <c r="G43" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -24802,14 +24832,14 @@
       <c r="E44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s">
-        <v>739</v>
+      <c r="G44" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -24822,14 +24852,14 @@
       <c r="E45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F45" s="39" t="s">
         <v>603</v>
       </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s">
-        <v>739</v>
+      <c r="G45" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -24842,14 +24872,14 @@
       <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="25" t="s">
         <v>604</v>
       </c>
       <c r="G46" t="s">
         <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -24869,7 +24899,7 @@
         <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -24882,14 +24912,14 @@
       <c r="E48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>606</v>
       </c>
       <c r="G48" t="s">
         <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -24902,14 +24932,14 @@
       <c r="E49" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="20" t="s">
         <v>607</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="31.2">
@@ -24922,14 +24952,14 @@
       <c r="E50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="20" t="s">
         <v>608</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -24942,14 +24972,14 @@
       <c r="E51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="20" t="s">
         <v>609</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -24962,14 +24992,14 @@
       <c r="E52" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="20" t="s">
         <v>610</v>
       </c>
       <c r="G52" t="s">
         <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -24982,14 +25012,14 @@
       <c r="E53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="20" t="s">
         <v>611</v>
       </c>
       <c r="G53" t="s">
         <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="26.4">
@@ -25002,14 +25032,14 @@
       <c r="E54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="20" t="s">
         <v>612</v>
       </c>
       <c r="G54" t="s">
         <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -25022,14 +25052,14 @@
       <c r="E55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="20" t="s">
         <v>613</v>
       </c>
       <c r="G55" t="s">
         <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -25042,14 +25072,14 @@
       <c r="E56" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="20" t="s">
         <v>614</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -25062,14 +25092,14 @@
       <c r="E57" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="20" t="s">
         <v>615</v>
       </c>
       <c r="G57" t="s">
         <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -25082,14 +25112,14 @@
       <c r="E58" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G58" t="s">
         <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="26.4">
@@ -25102,14 +25132,14 @@
       <c r="E59" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="20" t="s">
         <v>616</v>
       </c>
       <c r="G59" t="s">
         <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="26.4">
@@ -25122,14 +25152,14 @@
       <c r="E60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="20" t="s">
         <v>617</v>
       </c>
       <c r="G60" t="s">
         <v>27</v>
       </c>
       <c r="H60" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -25142,14 +25172,14 @@
       <c r="E61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="20" t="s">
         <v>618</v>
       </c>
       <c r="G61" t="s">
         <v>27</v>
       </c>
       <c r="H61" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -25162,14 +25192,14 @@
       <c r="E62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="20" t="s">
         <v>619</v>
       </c>
       <c r="G62" t="s">
         <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -25182,14 +25212,14 @@
       <c r="E63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="20" t="s">
         <v>620</v>
       </c>
       <c r="G63" t="s">
         <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -25202,14 +25232,14 @@
       <c r="E64" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="20" t="s">
         <v>621</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -25222,14 +25252,14 @@
       <c r="E65" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="20" t="s">
         <v>622</v>
       </c>
       <c r="G65" t="s">
         <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -25242,14 +25272,14 @@
       <c r="E66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="20" t="s">
         <v>623</v>
       </c>
       <c r="G66" t="s">
         <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -25262,14 +25292,14 @@
       <c r="E67" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="20" t="s">
         <v>624</v>
       </c>
       <c r="G67" t="s">
         <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -25282,14 +25312,14 @@
       <c r="E68" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F68" s="20" t="s">
         <v>625</v>
       </c>
       <c r="G68" t="s">
         <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -25302,14 +25332,14 @@
       <c r="E69" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F69" s="20" t="s">
         <v>626</v>
       </c>
       <c r="G69" t="s">
         <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -25322,14 +25352,14 @@
       <c r="E70" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="F70" s="20" t="s">
         <v>627</v>
       </c>
       <c r="G70" t="s">
         <v>27</v>
       </c>
       <c r="H70" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -25342,14 +25372,14 @@
       <c r="E71" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="20" t="s">
         <v>628</v>
       </c>
       <c r="G71" t="s">
         <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -25362,14 +25392,14 @@
       <c r="E72" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F72" s="20" t="s">
         <v>629</v>
       </c>
       <c r="G72" t="s">
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -25382,14 +25412,14 @@
       <c r="E73" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="21" t="s">
+      <c r="F73" s="20" t="s">
         <v>630</v>
       </c>
       <c r="G73" t="s">
         <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -25402,14 +25432,14 @@
       <c r="E74" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F74" s="20" t="s">
         <v>631</v>
       </c>
       <c r="G74" t="s">
         <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -25422,14 +25452,14 @@
       <c r="E75" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F75" s="20" t="s">
         <v>632</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
       </c>
       <c r="H75" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="26.4">
@@ -25442,14 +25472,14 @@
       <c r="E76" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="20" t="s">
         <v>633</v>
       </c>
       <c r="G76" t="s">
         <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -25462,14 +25492,14 @@
       <c r="E77" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F77" s="20" t="s">
         <v>634</v>
       </c>
       <c r="G77" t="s">
         <v>27</v>
       </c>
       <c r="H77" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -25482,14 +25512,14 @@
       <c r="E78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="21" t="s">
+      <c r="F78" s="20" t="s">
         <v>635</v>
       </c>
       <c r="G78" t="s">
         <v>27</v>
       </c>
       <c r="H78" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -25502,14 +25532,14 @@
       <c r="E79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="20" t="s">
         <v>636</v>
       </c>
       <c r="G79" t="s">
         <v>27</v>
       </c>
       <c r="H79" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -25522,14 +25552,14 @@
       <c r="E80" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="21" t="s">
+      <c r="F80" s="20" t="s">
         <v>637</v>
       </c>
       <c r="G80" t="s">
         <v>27</v>
       </c>
       <c r="H80" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -25542,7 +25572,7 @@
       <c r="E81" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F81" s="20" t="s">
         <v>638</v>
       </c>
       <c r="G81" t="s">
@@ -25559,7 +25589,7 @@
       <c r="E82" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="F82" s="20" t="s">
         <v>639</v>
       </c>
       <c r="G82" t="s">
@@ -25576,7 +25606,7 @@
       <c r="E83" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="F83" s="20" t="s">
         <v>640</v>
       </c>
       <c r="G83" t="s">
@@ -25593,7 +25623,7 @@
       <c r="E84" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="21" t="s">
+      <c r="F84" s="20" t="s">
         <v>641</v>
       </c>
       <c r="G84" t="s">
@@ -25610,7 +25640,7 @@
       <c r="E85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F85" s="20" t="s">
         <v>642</v>
       </c>
       <c r="G85" t="s">
@@ -25627,7 +25657,7 @@
       <c r="E86" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="21" t="s">
+      <c r="F86" s="20" t="s">
         <v>643</v>
       </c>
       <c r="G86" t="s">
@@ -25691,8 +25721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E129760B-D16C-4E2A-B7A4-F67A51649F7A}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -25770,7 +25800,7 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>645</v>
       </c>
       <c r="G3" t="s">
@@ -25787,7 +25817,7 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>646</v>
       </c>
       <c r="G4" t="s">
@@ -25804,7 +25834,7 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>647</v>
       </c>
       <c r="G5" t="s">
@@ -25821,7 +25851,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
@@ -25838,7 +25868,7 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>648</v>
       </c>
       <c r="G7" t="s">
@@ -25855,7 +25885,7 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>649</v>
       </c>
       <c r="G8" t="s">
@@ -25872,7 +25902,7 @@
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>650</v>
       </c>
       <c r="G9" t="s">
@@ -25889,7 +25919,7 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>651</v>
       </c>
       <c r="G10" t="s">
@@ -25906,7 +25936,7 @@
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>652</v>
       </c>
       <c r="G11" t="s">
@@ -25940,7 +25970,7 @@
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
@@ -25957,7 +25987,7 @@
       <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>654</v>
       </c>
       <c r="G14" t="s">
@@ -25974,7 +26004,7 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>655</v>
       </c>
       <c r="G15" t="s">
@@ -25991,7 +26021,7 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>656</v>
       </c>
       <c r="G16" t="s">
@@ -26008,7 +26038,7 @@
       <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>657</v>
       </c>
       <c r="G17" t="s">
@@ -26025,7 +26055,7 @@
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>658</v>
       </c>
       <c r="G18" t="s">
@@ -26042,7 +26072,7 @@
       <c r="E19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>648</v>
       </c>
       <c r="G19" t="s">
@@ -26059,7 +26089,7 @@
       <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>648</v>
       </c>
       <c r="G20" t="s">
@@ -26076,7 +26106,7 @@
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>648</v>
       </c>
       <c r="G21" t="s">
@@ -26093,7 +26123,7 @@
       <c r="E22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>648</v>
       </c>
       <c r="G22" t="s">
@@ -26110,7 +26140,7 @@
       <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>659</v>
       </c>
       <c r="G23" t="s">
@@ -26127,11 +26157,11 @@
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>660</v>
       </c>
       <c r="G24" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -26144,11 +26174,11 @@
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>661</v>
       </c>
       <c r="G25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="26.4">
@@ -26161,11 +26191,11 @@
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>662</v>
       </c>
       <c r="G26" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -26178,11 +26208,11 @@
       <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>663</v>
       </c>
       <c r="G27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -26195,11 +26225,11 @@
       <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -26212,11 +26242,11 @@
       <c r="E29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>664</v>
       </c>
       <c r="G29" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -26229,11 +26259,11 @@
       <c r="E30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>665</v>
       </c>
       <c r="G30" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="26.4">
@@ -26246,11 +26276,11 @@
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="20" t="s">
         <v>666</v>
       </c>
       <c r="G31" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -26263,11 +26293,11 @@
       <c r="E32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>667</v>
       </c>
       <c r="G32" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -26280,11 +26310,11 @@
       <c r="E33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -26297,11 +26327,11 @@
       <c r="E34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="20" t="s">
         <v>668</v>
       </c>
       <c r="G34" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -26314,11 +26344,11 @@
       <c r="E35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="20" t="s">
         <v>669</v>
       </c>
       <c r="G35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="312">
@@ -26334,11 +26364,11 @@
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="34" t="s">
         <v>670</v>
       </c>
       <c r="G36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -26351,7 +26381,7 @@
       <c r="E37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="25" t="s">
         <v>671</v>
       </c>
       <c r="G37" t="s">
@@ -26368,7 +26398,7 @@
       <c r="E38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="25" t="s">
         <v>672</v>
       </c>
       <c r="G38" t="s">
@@ -26402,7 +26432,7 @@
       <c r="E40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="20" t="s">
         <v>674</v>
       </c>
       <c r="G40" t="s">
@@ -26419,7 +26449,7 @@
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="20" t="s">
         <v>675</v>
       </c>
       <c r="G41" t="s">
@@ -26436,7 +26466,7 @@
       <c r="E42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="20" t="s">
         <v>676</v>
       </c>
       <c r="G42" t="s">
@@ -26456,11 +26486,11 @@
       <c r="E43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="20" t="s">
         <v>677</v>
       </c>
       <c r="G43" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -26473,7 +26503,7 @@
       <c r="E44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G44" t="s">
@@ -26490,7 +26520,7 @@
       <c r="E45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="20" t="s">
         <v>678</v>
       </c>
       <c r="G45" t="s">
@@ -26507,7 +26537,7 @@
       <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="20" t="s">
         <v>679</v>
       </c>
       <c r="G46" t="s">
@@ -26524,7 +26554,7 @@
       <c r="E47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="20" t="s">
         <v>680</v>
       </c>
       <c r="G47" t="s">
@@ -26541,7 +26571,7 @@
       <c r="E48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>681</v>
       </c>
       <c r="G48" t="s">
@@ -26558,7 +26588,7 @@
       <c r="E49" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G49" t="s">
@@ -26575,7 +26605,7 @@
       <c r="E50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G50" t="s">
@@ -26592,7 +26622,7 @@
       <c r="E51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="20" t="s">
         <v>682</v>
       </c>
       <c r="G51" t="s">
@@ -26609,7 +26639,7 @@
       <c r="E52" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="20" t="s">
         <v>683</v>
       </c>
       <c r="G52" t="s">
@@ -26626,7 +26656,7 @@
       <c r="E53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="20" t="s">
         <v>684</v>
       </c>
       <c r="G53" t="s">
@@ -26643,7 +26673,7 @@
       <c r="E54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="20" t="s">
         <v>685</v>
       </c>
       <c r="G54" t="s">
@@ -26660,7 +26690,7 @@
       <c r="E55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="20" t="s">
         <v>686</v>
       </c>
       <c r="G55" t="s">
@@ -26677,7 +26707,7 @@
       <c r="E56" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="20" t="s">
         <v>687</v>
       </c>
       <c r="G56" t="s">
@@ -26694,7 +26724,7 @@
       <c r="E57" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G57" t="s">
@@ -26711,7 +26741,7 @@
       <c r="E58" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="20" t="s">
         <v>688</v>
       </c>
       <c r="G58" t="s">
@@ -26728,7 +26758,7 @@
       <c r="E59" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="20" t="s">
         <v>689</v>
       </c>
       <c r="G59" t="s">
@@ -26745,7 +26775,7 @@
       <c r="E60" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="20" t="s">
         <v>690</v>
       </c>
       <c r="G60" t="s">
@@ -26762,7 +26792,7 @@
       <c r="E61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="20" t="s">
         <v>691</v>
       </c>
       <c r="G61" t="s">
@@ -26779,7 +26809,7 @@
       <c r="E62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="20" t="s">
         <v>692</v>
       </c>
       <c r="G62" t="s">
@@ -26796,7 +26826,7 @@
       <c r="E63" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="20" t="s">
         <v>693</v>
       </c>
       <c r="G63" t="s">
@@ -26936,17 +26966,17 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G3" t="s">
+        <v>708</v>
+      </c>
+      <c r="H3" t="s">
         <v>709</v>
-      </c>
-      <c r="H3" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -26956,7 +26986,7 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -26966,7 +26996,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -26976,7 +27006,7 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -26986,7 +27016,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -26996,7 +27026,7 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -27006,7 +27036,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -27016,17 +27046,17 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>167</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -27036,7 +27066,7 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -27046,7 +27076,7 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -27056,17 +27086,17 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>169</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -27076,17 +27106,17 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>170</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -27096,7 +27126,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -27106,7 +27136,7 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -27116,7 +27146,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -27126,7 +27156,7 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -27136,7 +27166,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -27146,7 +27176,7 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -27156,7 +27186,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -27166,7 +27196,7 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -27176,7 +27206,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -27186,7 +27216,7 @@
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -27196,7 +27226,7 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -27206,7 +27236,7 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -27216,7 +27246,7 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -27236,7 +27266,7 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -27256,7 +27286,7 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -27276,7 +27306,7 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -27296,7 +27326,7 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -27316,7 +27346,7 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -27336,7 +27366,7 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -27356,7 +27386,7 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -27376,7 +27406,7 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
@@ -27396,7 +27426,7 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -27478,12 +27508,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CFF362-6F10-4AE0-BC32-774B7564766B}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
     <col min="6" max="6" width="63.69921875" customWidth="1"/>
     <col min="7" max="7" width="21.8984375" customWidth="1"/>
     <col min="8" max="8" width="13.296875" customWidth="1"/>
@@ -27547,10 +27578,10 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>188</v>
       </c>
       <c r="G2" t="s">
@@ -27567,10 +27598,10 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>189</v>
       </c>
       <c r="G3" t="s">
@@ -27587,10 +27618,10 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>190</v>
       </c>
       <c r="G4" t="s">
@@ -27607,10 +27638,10 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>191</v>
       </c>
       <c r="G5" t="s">
@@ -27630,7 +27661,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>192</v>
       </c>
       <c r="G6" t="s">
@@ -27650,7 +27681,7 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>193</v>
       </c>
       <c r="G7" t="s">
@@ -27670,7 +27701,7 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>194</v>
       </c>
       <c r="G8" t="s">
@@ -27690,7 +27721,7 @@
       <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>195</v>
       </c>
       <c r="G9" t="s">
@@ -27710,7 +27741,7 @@
       <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>196</v>
       </c>
       <c r="G10" t="s">
@@ -27730,7 +27761,7 @@
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>197</v>
       </c>
       <c r="G11" t="s">
@@ -27750,7 +27781,7 @@
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>198</v>
       </c>
       <c r="G12" t="s">
@@ -27770,7 +27801,7 @@
       <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>199</v>
       </c>
       <c r="G13" t="s">
@@ -27790,7 +27821,7 @@
       <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>200</v>
       </c>
       <c r="G14" t="s">
@@ -27810,7 +27841,7 @@
       <c r="E15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>201</v>
       </c>
       <c r="G15" t="s">
@@ -27830,7 +27861,7 @@
       <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>202</v>
       </c>
       <c r="G16" t="s">
@@ -27850,7 +27881,7 @@
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>203</v>
       </c>
       <c r="G17" t="s">
@@ -27870,7 +27901,7 @@
       <c r="E18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>204</v>
       </c>
       <c r="G18" t="s">
@@ -27890,7 +27921,7 @@
       <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>205</v>
       </c>
       <c r="G19" t="s">
@@ -27910,7 +27941,7 @@
       <c r="E20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>206</v>
       </c>
       <c r="G20" t="s">
@@ -27930,7 +27961,7 @@
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>207</v>
       </c>
       <c r="G21" t="s">
@@ -27950,7 +27981,7 @@
       <c r="E22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>208</v>
       </c>
       <c r="G22" t="s">
@@ -27970,7 +28001,7 @@
       <c r="E23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>209</v>
       </c>
       <c r="G23" t="s">
@@ -27990,7 +28021,7 @@
       <c r="E24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="25" t="s">
         <v>210</v>
       </c>
       <c r="G24" t="s">
@@ -28010,7 +28041,7 @@
       <c r="E25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>211</v>
       </c>
       <c r="G25" t="s">
@@ -28030,7 +28061,7 @@
       <c r="E26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="25" t="s">
         <v>212</v>
       </c>
       <c r="G26" t="s">
@@ -28185,14 +28216,14 @@
       <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>213</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -28205,14 +28236,14 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>214</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -28225,14 +28256,14 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>215</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -28245,14 +28276,14 @@
       <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>216</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -28265,14 +28296,14 @@
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>217</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -28285,14 +28316,14 @@
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>218</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -28305,14 +28336,14 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>219</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -28325,14 +28356,14 @@
       <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>220</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -28345,14 +28376,14 @@
       <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>221</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -28365,14 +28396,14 @@
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>222</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -28385,14 +28416,14 @@
       <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>223</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -28405,7 +28436,7 @@
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>224</v>
       </c>
       <c r="G13" t="s">
@@ -28425,7 +28456,7 @@
       <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>225</v>
       </c>
       <c r="G14" t="s">
@@ -28445,7 +28476,7 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>226</v>
       </c>
       <c r="G15" t="s">
@@ -28465,7 +28496,7 @@
       <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>227</v>
       </c>
       <c r="G16" t="s">
@@ -28485,7 +28516,7 @@
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>228</v>
       </c>
       <c r="G17" t="s">
@@ -28505,7 +28536,7 @@
       <c r="E18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>229</v>
       </c>
       <c r="G18" t="s">
@@ -28660,14 +28691,14 @@
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>230</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -28680,14 +28711,14 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>231</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -28700,14 +28731,14 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -28720,14 +28751,14 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>233</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -28740,14 +28771,14 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>234</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -28760,7 +28791,7 @@
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>235</v>
       </c>
       <c r="G7" t="s">
@@ -28780,7 +28811,7 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>236</v>
       </c>
       <c r="G8" t="s">
@@ -28800,7 +28831,7 @@
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>237</v>
       </c>
       <c r="G9" t="s">
@@ -28820,7 +28851,7 @@
       <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>238</v>
       </c>
       <c r="G10" t="s">
@@ -28840,7 +28871,7 @@
       <c r="E11" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>239</v>
       </c>
       <c r="G11" t="s">
@@ -28860,7 +28891,7 @@
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
@@ -28880,7 +28911,7 @@
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
@@ -28900,7 +28931,7 @@
       <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
@@ -28920,7 +28951,7 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>240</v>
       </c>
       <c r="G15" t="s">
@@ -28940,7 +28971,7 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>241</v>
       </c>
       <c r="G16" t="s">
@@ -28960,7 +28991,7 @@
       <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>242</v>
       </c>
       <c r="G17" t="s">
@@ -28980,7 +29011,7 @@
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>243</v>
       </c>
       <c r="G18" t="s">
@@ -29000,7 +29031,7 @@
       <c r="E19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>244</v>
       </c>
       <c r="G19" t="s">
@@ -29020,7 +29051,7 @@
       <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>245</v>
       </c>
       <c r="G20" t="s">
@@ -29040,7 +29071,7 @@
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>246</v>
       </c>
       <c r="G21" t="s">
@@ -29060,7 +29091,7 @@
       <c r="E22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>247</v>
       </c>
       <c r="G22" t="s">
@@ -29080,7 +29111,7 @@
       <c r="E23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>248</v>
       </c>
       <c r="G23" t="s">
@@ -29100,14 +29131,14 @@
       <c r="E24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="25" t="s">
         <v>249</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -29120,14 +29151,14 @@
       <c r="E25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>250</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -29140,14 +29171,14 @@
       <c r="E26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="25" t="s">
         <v>251</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -29160,14 +29191,14 @@
       <c r="E27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="25" t="s">
         <v>252</v>
       </c>
       <c r="G27" t="s">
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -29180,14 +29211,14 @@
       <c r="E28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="25" t="s">
         <v>253</v>
       </c>
       <c r="G28" t="s">
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -29203,14 +29234,14 @@
       <c r="E29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>254</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -29226,14 +29257,14 @@
       <c r="E30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>255</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -29249,14 +29280,14 @@
       <c r="E31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>256</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -29272,14 +29303,14 @@
       <c r="E32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="25" t="s">
         <v>257</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -29295,14 +29326,14 @@
       <c r="E33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="25" t="s">
         <v>258</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -29318,14 +29349,14 @@
       <c r="E34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="25" t="s">
         <v>259</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -29341,14 +29372,14 @@
       <c r="E35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="25" t="s">
         <v>260</v>
       </c>
       <c r="G35" t="s">
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -29364,14 +29395,14 @@
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="25" t="s">
         <v>261</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -29387,14 +29418,14 @@
       <c r="E37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="25" t="s">
         <v>262</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -29407,7 +29438,7 @@
       <c r="E38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="25" t="s">
         <v>263</v>
       </c>
       <c r="G38" t="s">
@@ -29427,7 +29458,7 @@
       <c r="E39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="25" t="s">
         <v>264</v>
       </c>
       <c r="G39" t="s">
@@ -29447,7 +29478,7 @@
       <c r="E40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="25" t="s">
         <v>265</v>
       </c>
       <c r="G40" t="s">
@@ -29467,7 +29498,7 @@
       <c r="E41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="25" t="s">
         <v>266</v>
       </c>
       <c r="G41" t="s">
@@ -29487,7 +29518,7 @@
       <c r="E42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="25" t="s">
         <v>267</v>
       </c>
       <c r="G42" t="s">
@@ -29507,7 +29538,7 @@
       <c r="E43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="25" t="s">
         <v>268</v>
       </c>
       <c r="G43" t="s">
@@ -29527,7 +29558,7 @@
       <c r="E44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="25" t="s">
         <v>269</v>
       </c>
       <c r="G44" t="s">
@@ -29681,14 +29712,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H2" t="s">
         <v>703</v>
@@ -29701,10 +29732,10 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>271</v>
       </c>
       <c r="G3" t="s">
@@ -29721,10 +29752,10 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
@@ -29741,10 +29772,10 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>272</v>
       </c>
       <c r="G5" t="s">
@@ -29761,10 +29792,10 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>273</v>
       </c>
       <c r="G6" t="s">
@@ -29781,10 +29812,10 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="29">
+      <c r="E7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="28">
         <v>1</v>
       </c>
       <c r="G7" t="s">
@@ -29801,10 +29832,10 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>274</v>
       </c>
       <c r="G8" t="s">
@@ -29821,10 +29852,10 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="29" t="s">
+      <c r="E9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G9" t="s">
@@ -29890,14 +29921,14 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="15.09765625" customWidth="1"/>
     <col min="6" max="6" width="59.5" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" customWidth="1"/>
+    <col min="7" max="7" width="27.8984375" customWidth="1"/>
     <col min="12" max="12" width="58.8984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29961,7 +29992,7 @@
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>277</v>
       </c>
       <c r="G2" t="s">
@@ -29981,7 +30012,7 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>278</v>
       </c>
       <c r="G3" t="s">
@@ -30001,7 +30032,7 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>279</v>
       </c>
       <c r="G4" t="s">
@@ -30021,7 +30052,7 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>280</v>
       </c>
       <c r="G5" t="s">
@@ -30035,13 +30066,16 @@
       <c r="A6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>281</v>
       </c>
       <c r="G6" t="s">
@@ -30061,11 +30095,11 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>282</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>746</v>
       </c>
       <c r="H7" t="s">
         <v>703</v>
@@ -30081,14 +30115,14 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>283</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>746</v>
       </c>
       <c r="H8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -30101,14 +30135,14 @@
       <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>284</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>746</v>
       </c>
       <c r="H9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -30124,11 +30158,11 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>285</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>746</v>
       </c>
       <c r="H10" t="s">
         <v>703</v>
@@ -30144,11 +30178,11 @@
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>286</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>746</v>
       </c>
       <c r="H11" t="s">
         <v>703</v>
@@ -30168,7 +30202,7 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>746</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -30213,14 +30247,14 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="15.3984375" customWidth="1"/>
     <col min="6" max="6" width="69.19921875" customWidth="1"/>
-    <col min="7" max="7" width="22.296875" customWidth="1"/>
+    <col min="7" max="7" width="27.69921875" customWidth="1"/>
     <col min="8" max="8" width="11.3984375" customWidth="1"/>
     <col min="12" max="12" width="55.09765625" customWidth="1"/>
   </cols>
@@ -30285,7 +30319,7 @@
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>287</v>
       </c>
       <c r="G2" t="s">
@@ -30305,7 +30339,7 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>288</v>
       </c>
       <c r="G3" t="s">
@@ -30325,7 +30359,7 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>289</v>
       </c>
       <c r="G4" t="s">
@@ -30345,7 +30379,7 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>290</v>
       </c>
       <c r="G5" t="s">
@@ -30365,7 +30399,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>291</v>
       </c>
       <c r="G6" t="s">
@@ -30385,7 +30419,7 @@
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>292</v>
       </c>
       <c r="G7" t="s">
@@ -30402,20 +30436,23 @@
       <c r="A8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>293</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -30428,14 +30465,14 @@
       <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>294</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>746</v>
       </c>
       <c r="H9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -30452,7 +30489,7 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>746</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122C1122-3D5F-40C8-BA04-3BD10C51852D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA6A097-2580-47D0-8F26-A1A3C85DA19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" firstSheet="20" activeTab="24" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
@@ -11131,18 +11131,12 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -11275,7 +11269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11384,16 +11378,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -23933,7 +23924,7 @@
   <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -24795,10 +24786,10 @@
       <c r="F42" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="G42" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="37" t="s">
+      <c r="G42" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="35" t="s">
         <v>747</v>
       </c>
     </row>
@@ -24815,10 +24806,10 @@
       <c r="F43" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="37" t="s">
+      <c r="G43" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="35" t="s">
         <v>747</v>
       </c>
     </row>
@@ -24832,13 +24823,13 @@
       <c r="E44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="37" t="s">
+      <c r="G44" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="35" t="s">
         <v>747</v>
       </c>
     </row>
@@ -24852,13 +24843,13 @@
       <c r="E45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="38" t="s">
         <v>603</v>
       </c>
-      <c r="G45" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="37" t="s">
+      <c r="G45" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="35" t="s">
         <v>747</v>
       </c>
     </row>

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadi2\OneDrive\문서\카카오톡 받은 파일\스크립트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477BEEFC-7115-4FF2-8F03-20B1BD14B65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD71E6C3-6D64-49E9-AEE4-8CB6C198331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" tabRatio="760" firstSheet="18" activeTab="25" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="1" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_SchoolGo" sheetId="2" r:id="rId1"/>
@@ -13068,9 +13068,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -13108,7 +13108,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -13214,7 +13214,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13356,7 +13356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13370,21 +13370,21 @@
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="86.75" customWidth="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
+    <col min="6" max="6" width="86.69921875" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="15.8984375" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" customWidth="1"/>
+    <col min="13" max="13" width="16.3984375" customWidth="1"/>
+    <col min="14" max="14" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -13445,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.85" customHeight="1">
+    <row r="3" spans="1:16" ht="25.8" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.85" customHeight="1">
+    <row r="5" spans="1:16" ht="25.8" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="29.95" customHeight="1">
+    <row r="9" spans="1:16" ht="30" customHeight="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -14734,12 +14734,12 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="56.25" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="12" max="12" width="60.25" customWidth="1"/>
+    <col min="5" max="5" width="18.09765625" customWidth="1"/>
+    <col min="6" max="6" width="56.19921875" customWidth="1"/>
+    <col min="7" max="7" width="21.69921875" customWidth="1"/>
+    <col min="12" max="12" width="60.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -15320,14 +15320,14 @@
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="55.75" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="54.875" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="55.69921875" customWidth="1"/>
+    <col min="7" max="7" width="22.69921875" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" customWidth="1"/>
+    <col min="12" max="12" width="54.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -15643,7 +15643,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="24.25">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>1</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="24.25">
+    <row r="30" spans="1:8" ht="26.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="24.25">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="24.25">
+    <row r="42" spans="1:8" ht="26.4">
       <c r="A42">
         <v>1</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="24.25">
+    <row r="47" spans="1:8" ht="26.4">
       <c r="A47">
         <v>1</v>
       </c>
@@ -16336,13 +16336,13 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="57.25" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="65.75" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="57.19921875" customWidth="1"/>
+    <col min="7" max="7" width="22.09765625" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" customWidth="1"/>
+    <col min="12" max="12" width="65.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -16891,13 +16891,13 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="40.625" customWidth="1"/>
-    <col min="7" max="7" width="24.25" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="12" max="12" width="56.625" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="6" max="6" width="40.59765625" customWidth="1"/>
+    <col min="7" max="7" width="24.19921875" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="12" max="12" width="56.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -17186,17 +17186,17 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="49.25" customWidth="1"/>
-    <col min="7" max="7" width="23.375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="68.125" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="49.19921875" customWidth="1"/>
+    <col min="7" max="7" width="23.3984375" customWidth="1"/>
+    <col min="8" max="8" width="12.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.8984375" customWidth="1"/>
+    <col min="12" max="12" width="68.09765625" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -17499,15 +17499,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="48.375" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="48.3984375" customWidth="1"/>
+    <col min="7" max="7" width="22.69921875" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="65.75" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
-    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="65.69921875" customWidth="1"/>
+    <col min="13" max="13" width="12.69921875" customWidth="1"/>
+    <col min="14" max="14" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -17842,14 +17842,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="55.125" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="66.625" customWidth="1"/>
-    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="55.09765625" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" customWidth="1"/>
+    <col min="12" max="12" width="66.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -18204,15 +18204,15 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="60.25" customWidth="1"/>
-    <col min="7" max="7" width="24.125" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="60.19921875" customWidth="1"/>
+    <col min="7" max="7" width="24.09765625" customWidth="1"/>
+    <col min="8" max="8" width="14.19921875" customWidth="1"/>
+    <col min="11" max="11" width="8.59765625" customWidth="1"/>
     <col min="12" max="12" width="68" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -18707,14 +18707,14 @@
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="63.75" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="11" max="11" width="6.625" customWidth="1"/>
-    <col min="12" max="12" width="53.25" customWidth="1"/>
+    <col min="6" max="6" width="63.69921875" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" customWidth="1"/>
+    <col min="12" max="12" width="53.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -18826,7 +18826,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24.25">
+    <row r="6" spans="1:16" ht="26.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -19570,16 +19570,16 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="57.375" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="57.3984375" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="8.375" customWidth="1"/>
-    <col min="11" max="11" width="6.125" customWidth="1"/>
-    <col min="12" max="12" width="51.75" customWidth="1"/>
-    <col min="13" max="13" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="10" max="10" width="8.3984375" customWidth="1"/>
+    <col min="11" max="11" width="6.09765625" customWidth="1"/>
+    <col min="12" max="12" width="51.69921875" customWidth="1"/>
+    <col min="13" max="13" width="8.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -19941,20 +19941,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABE6EEA-441F-4145-BD21-BED610835A4E}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="65.75" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
-    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="65.69921875" customWidth="1"/>
+    <col min="7" max="7" width="22.69921875" customWidth="1"/>
+    <col min="8" max="8" width="20.8984375" customWidth="1"/>
+    <col min="10" max="10" width="9.69921875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="51.75" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="51.69921875" customWidth="1"/>
+    <col min="13" max="13" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -20138,6 +20138,9 @@
       <c r="A10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
       <c r="D10">
         <v>2</v>
       </c>
@@ -20155,6 +20158,9 @@
       <c r="A11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
       <c r="D11">
         <v>3</v>
       </c>
@@ -20172,6 +20178,9 @@
       <c r="A12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
       <c r="D12">
         <v>2</v>
       </c>
@@ -20188,6 +20197,9 @@
     <row r="13" spans="1:16">
       <c r="A13">
         <v>1</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -21501,13 +21513,13 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="66.75" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" customWidth="1"/>
+    <col min="6" max="6" width="66.69921875" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="52.75" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" customWidth="1"/>
+    <col min="12" max="12" width="52.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -21833,14 +21845,14 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="37.625" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="10" max="10" width="10.375" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="104.75" customWidth="1"/>
+    <col min="6" max="6" width="37.59765625" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" customWidth="1"/>
+    <col min="12" max="12" width="104.69921875" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22033,13 +22045,13 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" customWidth="1"/>
     <col min="6" max="6" width="62" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="12" max="12" width="104.125" customWidth="1"/>
+    <col min="12" max="12" width="104.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -22451,13 +22463,13 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="57.75" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" customWidth="1"/>
+    <col min="6" max="6" width="57.69921875" customWidth="1"/>
+    <col min="7" max="7" width="24.69921875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="12" max="12" width="105.75" customWidth="1"/>
+    <col min="12" max="12" width="105.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -23249,12 +23261,12 @@
       <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="50.875" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="50.8984375" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" customWidth="1"/>
+    <col min="8" max="8" width="19.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -23335,7 +23347,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.1">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -23715,7 +23727,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="24.25">
+    <row r="23" spans="1:8" ht="26.4">
       <c r="A23">
         <v>1</v>
       </c>
@@ -23975,7 +23987,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="24.25">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>1</v>
       </c>
@@ -24255,7 +24267,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="29.95">
+    <row r="50" spans="1:8" ht="31.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -24335,7 +24347,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="24.25">
+    <row r="54" spans="1:8" ht="26.4">
       <c r="A54">
         <v>1</v>
       </c>
@@ -24435,7 +24447,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="24.25">
+    <row r="59" spans="1:8" ht="26.4">
       <c r="A59">
         <v>1</v>
       </c>
@@ -25038,11 +25050,11 @@
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="62.375" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" customWidth="1"/>
+    <col min="6" max="6" width="62.3984375" customWidth="1"/>
+    <col min="7" max="7" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -25579,7 +25591,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="24.25">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>1</v>
       </c>
@@ -25664,7 +25676,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="299.39999999999998">
+    <row r="36" spans="1:7" ht="312">
       <c r="A36">
         <v>1</v>
       </c>
@@ -25786,7 +25798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="302.45" customHeight="1">
+    <row r="43" spans="1:7" ht="302.39999999999998" customHeight="1">
       <c r="A43">
         <v>1</v>
       </c>
@@ -26200,17 +26212,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3424D189-B25E-4117-AB1E-5CE6E0D68D03}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="80.125" customWidth="1"/>
-    <col min="7" max="7" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="80.09765625" customWidth="1"/>
+    <col min="7" max="7" width="26.19921875" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="105.25" customWidth="1"/>
+    <col min="12" max="12" width="105.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -26702,12 +26714,12 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="91.75" customWidth="1"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="91.69921875" customWidth="1"/>
+    <col min="7" max="7" width="23.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
     <col min="11" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="12" width="81.5" customWidth="1"/>
   </cols>
@@ -27323,13 +27335,13 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="63.75" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="12" max="12" width="79.875" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="63.69921875" customWidth="1"/>
+    <col min="7" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" customWidth="1"/>
+    <col min="12" max="12" width="79.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -27482,7 +27494,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24.25">
+    <row r="7" spans="1:16" ht="26.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -27958,13 +27970,13 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="59.875" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="59.8984375" customWidth="1"/>
+    <col min="7" max="7" width="22.69921875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="12" max="12" width="79.875" customWidth="1"/>
+    <col min="12" max="12" width="79.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -28433,13 +28445,13 @@
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="53.75" customWidth="1"/>
-    <col min="7" max="7" width="23.375" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="81.25" customWidth="1"/>
+    <col min="6" max="6" width="53.69921875" customWidth="1"/>
+    <col min="7" max="7" width="23.3984375" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" customWidth="1"/>
+    <col min="12" max="12" width="81.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -29455,15 +29467,15 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="9.875" customWidth="1"/>
-    <col min="11" max="11" width="8.375" customWidth="1"/>
-    <col min="12" max="12" width="58.625" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" customWidth="1"/>
+    <col min="11" max="11" width="8.3984375" customWidth="1"/>
+    <col min="12" max="12" width="58.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -29732,12 +29744,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" customWidth="1"/>
     <col min="6" max="6" width="59.5" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="12" max="12" width="58.875" customWidth="1"/>
+    <col min="7" max="7" width="27.8984375" customWidth="1"/>
+    <col min="12" max="12" width="58.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -30041,13 +30053,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="69.25" customWidth="1"/>
-    <col min="7" max="7" width="27.75" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="55.125" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="69.19921875" customWidth="1"/>
+    <col min="7" max="7" width="27.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
+    <col min="12" max="12" width="55.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD71E6C3-6D64-49E9-AEE4-8CB6C198331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E416CF-17E6-4281-8F34-1582947FFE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="1" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" firstSheet="20" activeTab="24" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_SchoolGo" sheetId="2" r:id="rId1"/>
@@ -35,10 +35,10 @@
     <sheet name="S19_232_LMean" sheetId="66" r:id="rId20"/>
     <sheet name="S20_23_LAyaka2" sheetId="67" r:id="rId21"/>
     <sheet name="S21_2311_LSorry" sheetId="68" r:id="rId22"/>
-    <sheet name="S23_2333_Mediation" sheetId="70" r:id="rId23"/>
-    <sheet name="S24_2_BandRoom2" sheetId="56" r:id="rId24"/>
-    <sheet name="S25_3_SchoolLeave" sheetId="71" r:id="rId25"/>
-    <sheet name="S22_2322_Method" sheetId="69" r:id="rId26"/>
+    <sheet name="S22_2322_Method" sheetId="69" r:id="rId23"/>
+    <sheet name="S23_2333_Mediation" sheetId="70" r:id="rId24"/>
+    <sheet name="S24_2_BandRoom2" sheetId="56" r:id="rId25"/>
+    <sheet name="S25_3_SchoolLeave" sheetId="71" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="767">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7016,9 +7016,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(아야카는 어쩐지 납득할 수 없다는 얼굴이었다.)</t>
-  </si>
-  <si>
     <t>(옹송그렸던 몸이,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10540,10 +10537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{KI05}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{KI03}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10627,10 +10620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{SA00}{MI00}{KI06}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(학교에서 열리는 축제인데, 나름 스케일이 큰 편이라서)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -11014,6 +11003,94 @@
   </si>
   <si>
     <t>(아야카는 내 말을 듣더니 한참 동안 생각에 잠긴 것 같았다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{MI06}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA06}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{KI02}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아야카는 여전히 납득할 수 없다는 얼굴이었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}{MI04}{KI06}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA04}{MI04}{KI06}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA03}{MI04}{KI06}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA06}{MI03}{KI06}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}{MI03}{KI04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{KI11}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA06}{MI06}{KI06}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA06}{MIE305}{KI06}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA04}{MIE305}{KI06}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA01}{MIE301}{KI01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA01}{MIE302}{KI01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA01}{MIE303}{KI01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA01}{MIE304}{KI01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}{MI00}{KI02}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA06}{MI00}{KI00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA06}{MI00}{KI02}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}{MI06}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13416,7 +13493,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -13445,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.8" customHeight="1">
+    <row r="3" spans="1:16" ht="25.95" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13479,7 +13556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.8" customHeight="1">
+    <row r="5" spans="1:16" ht="25.95" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -13592,7 +13669,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -13813,7 +13890,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
@@ -13941,7 +14018,7 @@
         <v>26</v>
       </c>
       <c r="H31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -13964,7 +14041,7 @@
         <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -13987,7 +14064,7 @@
         <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -14010,7 +14087,7 @@
         <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -14030,7 +14107,7 @@
         <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -14050,7 +14127,7 @@
         <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -14070,7 +14147,7 @@
         <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -14090,7 +14167,7 @@
         <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -14110,7 +14187,7 @@
         <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -14130,7 +14207,7 @@
         <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -14150,7 +14227,7 @@
         <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -14170,7 +14247,7 @@
         <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -14190,7 +14267,7 @@
         <v>26</v>
       </c>
       <c r="H43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -14210,7 +14287,7 @@
         <v>26</v>
       </c>
       <c r="H44" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -14230,7 +14307,7 @@
         <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -14250,7 +14327,7 @@
         <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -14270,7 +14347,7 @@
         <v>26</v>
       </c>
       <c r="H47" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -14290,7 +14367,7 @@
         <v>26</v>
       </c>
       <c r="H48" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -14310,7 +14387,7 @@
         <v>26</v>
       </c>
       <c r="H49" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -14330,7 +14407,7 @@
         <v>26</v>
       </c>
       <c r="H50" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -14350,7 +14427,7 @@
         <v>26</v>
       </c>
       <c r="H51" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -14364,13 +14441,13 @@
         <v>18</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G52" t="s">
         <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -14390,7 +14467,7 @@
         <v>26</v>
       </c>
       <c r="H53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -14410,7 +14487,7 @@
         <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -14424,13 +14501,13 @@
         <v>13</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G55" t="s">
         <v>26</v>
       </c>
       <c r="H55" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -14450,7 +14527,7 @@
         <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -14470,7 +14547,7 @@
         <v>26</v>
       </c>
       <c r="H57" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -14490,7 +14567,7 @@
         <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -14510,7 +14587,7 @@
         <v>26</v>
       </c>
       <c r="H59" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -14530,7 +14607,7 @@
         <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -14550,7 +14627,7 @@
         <v>26</v>
       </c>
       <c r="H61" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -14570,7 +14647,7 @@
         <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -14590,7 +14667,7 @@
         <v>26</v>
       </c>
       <c r="H63" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -14610,7 +14687,7 @@
         <v>26</v>
       </c>
       <c r="H64" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -14630,7 +14707,7 @@
         <v>26</v>
       </c>
       <c r="H65" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -14650,7 +14727,7 @@
         <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -14670,7 +14747,7 @@
         <v>26</v>
       </c>
       <c r="H67" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -14730,7 +14807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFB045D-9DEA-4213-951B-B6C6659A4BD9}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -14771,7 +14848,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -14809,7 +14886,7 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -14829,7 +14906,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -14849,7 +14926,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -14869,7 +14946,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -14889,7 +14966,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -14909,7 +14986,7 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -14932,7 +15009,7 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -14952,7 +15029,7 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -14972,7 +15049,7 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -14992,7 +15069,7 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -15012,7 +15089,7 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -15032,7 +15109,7 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -15052,7 +15129,7 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -15072,7 +15149,7 @@
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -15092,7 +15169,7 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15112,7 +15189,7 @@
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -15132,7 +15209,7 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -15152,7 +15229,7 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15172,7 +15249,7 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15192,7 +15269,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15212,7 +15289,7 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15232,7 +15309,7 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15252,7 +15329,7 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15272,7 +15349,7 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15316,8 +15393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB216B21-F13B-4AEF-B2E5-65437E24D49A}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView topLeftCell="E23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -15359,7 +15436,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -15402,7 +15479,7 @@
         <v>293</v>
       </c>
       <c r="G3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -15419,7 +15496,7 @@
         <v>294</v>
       </c>
       <c r="G4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -15436,7 +15513,7 @@
         <v>295</v>
       </c>
       <c r="G5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -15453,7 +15530,7 @@
         <v>296</v>
       </c>
       <c r="G6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -15467,10 +15544,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -15487,7 +15564,7 @@
         <v>297</v>
       </c>
       <c r="G8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -15504,7 +15581,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -15521,7 +15598,7 @@
         <v>298</v>
       </c>
       <c r="G10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -15535,10 +15612,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -15555,7 +15632,7 @@
         <v>299</v>
       </c>
       <c r="G12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -15572,7 +15649,7 @@
         <v>300</v>
       </c>
       <c r="G13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -15597,10 +15674,10 @@
         <v>301</v>
       </c>
       <c r="G15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -15617,10 +15694,10 @@
         <v>302</v>
       </c>
       <c r="G16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15637,13 +15714,13 @@
         <v>303</v>
       </c>
       <c r="G17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H17" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="26.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -15657,10 +15734,10 @@
         <v>304</v>
       </c>
       <c r="G18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -15677,10 +15754,10 @@
         <v>305</v>
       </c>
       <c r="G19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15697,10 +15774,10 @@
         <v>306</v>
       </c>
       <c r="G20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15717,10 +15794,10 @@
         <v>307</v>
       </c>
       <c r="G21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15737,13 +15814,13 @@
         <v>308</v>
       </c>
       <c r="G22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H22" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="26.4">
       <c r="A23">
         <v>1</v>
       </c>
@@ -15757,10 +15834,10 @@
         <v>309</v>
       </c>
       <c r="G23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15777,10 +15854,10 @@
         <v>310</v>
       </c>
       <c r="G24" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15794,13 +15871,13 @@
         <v>13</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G25" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H25" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15817,10 +15894,10 @@
         <v>311</v>
       </c>
       <c r="G26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15837,10 +15914,10 @@
         <v>312</v>
       </c>
       <c r="G27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15857,10 +15934,10 @@
         <v>313</v>
       </c>
       <c r="G28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15877,10 +15954,10 @@
         <v>314</v>
       </c>
       <c r="G29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H29" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="26.4">
@@ -15894,13 +15971,13 @@
         <v>15</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15917,10 +15994,10 @@
         <v>315</v>
       </c>
       <c r="G31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H31" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15937,10 +16014,10 @@
         <v>316</v>
       </c>
       <c r="G32" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H32" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15957,10 +16034,10 @@
         <v>317</v>
       </c>
       <c r="G33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15977,13 +16054,13 @@
         <v>318</v>
       </c>
       <c r="G34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H34" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="26.4">
       <c r="A35">
         <v>1</v>
       </c>
@@ -15997,13 +16074,13 @@
         <v>319</v>
       </c>
       <c r="G35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H35" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="26.4">
       <c r="A36">
         <v>1</v>
       </c>
@@ -16017,10 +16094,10 @@
         <v>320</v>
       </c>
       <c r="G36" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H36" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -16037,10 +16114,10 @@
         <v>321</v>
       </c>
       <c r="G37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H37" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -16057,10 +16134,10 @@
         <v>322</v>
       </c>
       <c r="G38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H38" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -16077,10 +16154,10 @@
         <v>323</v>
       </c>
       <c r="G39" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H39" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -16097,10 +16174,10 @@
         <v>324</v>
       </c>
       <c r="G40" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H40" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -16117,10 +16194,10 @@
         <v>325</v>
       </c>
       <c r="G41" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H41" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="26.4">
@@ -16134,13 +16211,13 @@
         <v>13</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H42" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -16157,7 +16234,7 @@
         <v>326</v>
       </c>
       <c r="G43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H43" t="s">
         <v>684</v>
@@ -16177,10 +16254,10 @@
         <v>327</v>
       </c>
       <c r="G44" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H44" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -16197,10 +16274,10 @@
         <v>328</v>
       </c>
       <c r="G45" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -16217,10 +16294,10 @@
         <v>329</v>
       </c>
       <c r="G46" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H46" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="26.4">
@@ -16237,10 +16314,10 @@
         <v>330</v>
       </c>
       <c r="G47" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H47" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -16257,10 +16334,10 @@
         <v>331</v>
       </c>
       <c r="G48" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H48" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -16274,7 +16351,7 @@
         <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
@@ -16286,7 +16363,7 @@
         <v>332</v>
       </c>
       <c r="M49" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -16332,8 +16409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E14DDB-7C1C-43B8-BB3C-0CE6BC539040}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -16374,7 +16451,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -16409,10 +16486,10 @@
         <v>334</v>
       </c>
       <c r="G2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -16429,10 +16506,10 @@
         <v>335</v>
       </c>
       <c r="G3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H3" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -16449,10 +16526,10 @@
         <v>336</v>
       </c>
       <c r="G4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H4" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -16469,10 +16546,10 @@
         <v>337</v>
       </c>
       <c r="G5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H5" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -16489,10 +16566,10 @@
         <v>338</v>
       </c>
       <c r="G6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H6" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -16509,10 +16586,10 @@
         <v>339</v>
       </c>
       <c r="G7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H7" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -16529,10 +16606,10 @@
         <v>340</v>
       </c>
       <c r="G8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H8" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -16549,10 +16626,10 @@
         <v>341</v>
       </c>
       <c r="G9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H9" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -16569,10 +16646,10 @@
         <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H10" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -16589,10 +16666,10 @@
         <v>343</v>
       </c>
       <c r="G11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H11" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -16609,10 +16686,10 @@
         <v>344</v>
       </c>
       <c r="G12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H12" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -16629,10 +16706,10 @@
         <v>345</v>
       </c>
       <c r="G13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H13" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -16649,10 +16726,10 @@
         <v>346</v>
       </c>
       <c r="G14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H14" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -16669,10 +16746,10 @@
         <v>347</v>
       </c>
       <c r="G15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H15" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -16689,10 +16766,10 @@
         <v>348</v>
       </c>
       <c r="G16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H16" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -16709,10 +16786,10 @@
         <v>349</v>
       </c>
       <c r="G17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H17" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -16729,10 +16806,10 @@
         <v>350</v>
       </c>
       <c r="G18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H18" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -16749,10 +16826,10 @@
         <v>351</v>
       </c>
       <c r="G19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H19" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -16769,10 +16846,10 @@
         <v>352</v>
       </c>
       <c r="G20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H20" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -16789,10 +16866,10 @@
         <v>353</v>
       </c>
       <c r="G21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H21" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -16809,10 +16886,10 @@
         <v>354</v>
       </c>
       <c r="G22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H22" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -16829,7 +16906,7 @@
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -16841,7 +16918,7 @@
         <v>332</v>
       </c>
       <c r="M23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -16887,8 +16964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106A4C8D-BFB9-4E65-8DB1-E1FDE07EB2CE}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -16929,7 +17006,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -16964,10 +17041,10 @@
         <v>355</v>
       </c>
       <c r="G2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -16984,10 +17061,10 @@
         <v>356</v>
       </c>
       <c r="G3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H3" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -17004,10 +17081,10 @@
         <v>357</v>
       </c>
       <c r="G4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H4" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -17024,10 +17101,10 @@
         <v>358</v>
       </c>
       <c r="G5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H5" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -17044,10 +17121,10 @@
         <v>359</v>
       </c>
       <c r="G6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H6" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -17064,7 +17141,7 @@
         <v>360</v>
       </c>
       <c r="G7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H7" t="s">
         <v>684</v>
@@ -17084,7 +17161,7 @@
         <v>361</v>
       </c>
       <c r="G8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H8" t="s">
         <v>684</v>
@@ -17104,7 +17181,7 @@
         <v>362</v>
       </c>
       <c r="G9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H9" t="s">
         <v>684</v>
@@ -17124,7 +17201,7 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -17136,7 +17213,7 @@
         <v>332</v>
       </c>
       <c r="M10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -17182,7 +17259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6FF71E-D6D4-45AA-8EB7-6EFB05DDBC98}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -17228,7 +17305,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -17263,10 +17340,10 @@
         <v>363</v>
       </c>
       <c r="G2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -17283,10 +17360,10 @@
         <v>364</v>
       </c>
       <c r="G3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -17303,10 +17380,10 @@
         <v>365</v>
       </c>
       <c r="G4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -17323,10 +17400,10 @@
         <v>366</v>
       </c>
       <c r="G5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -17343,10 +17420,10 @@
         <v>367</v>
       </c>
       <c r="G6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -17363,10 +17440,10 @@
         <v>368</v>
       </c>
       <c r="G7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -17383,10 +17460,10 @@
         <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -17403,10 +17480,10 @@
         <v>370</v>
       </c>
       <c r="G9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -17423,10 +17500,10 @@
         <v>371</v>
       </c>
       <c r="G10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -17440,7 +17517,7 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
@@ -17449,7 +17526,7 @@
         <v>372</v>
       </c>
       <c r="M11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -17495,7 +17572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B67B17-9B8E-4E8E-AEC1-F9AD948F1739}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -17539,7 +17616,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -17574,10 +17651,10 @@
         <v>373</v>
       </c>
       <c r="G2" t="s">
+        <v>686</v>
+      </c>
+      <c r="H2" t="s">
         <v>687</v>
-      </c>
-      <c r="H2" t="s">
-        <v>688</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -17597,10 +17674,10 @@
         <v>374</v>
       </c>
       <c r="G3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -17617,10 +17694,10 @@
         <v>375</v>
       </c>
       <c r="G4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -17637,10 +17714,10 @@
         <v>376</v>
       </c>
       <c r="G5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -17657,10 +17734,10 @@
         <v>377</v>
       </c>
       <c r="G6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -17677,10 +17754,10 @@
         <v>378</v>
       </c>
       <c r="G7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -17697,10 +17774,10 @@
         <v>379</v>
       </c>
       <c r="G8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -17717,10 +17794,10 @@
         <v>380</v>
       </c>
       <c r="G9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -17737,10 +17814,10 @@
         <v>381</v>
       </c>
       <c r="G10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -17757,10 +17834,10 @@
         <v>382</v>
       </c>
       <c r="G11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -17777,10 +17854,10 @@
         <v>383</v>
       </c>
       <c r="G12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -17838,8 +17915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D71FE0-0D17-4E61-A836-54535D7026D7}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -17881,7 +17958,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -17919,7 +17996,7 @@
         <v>384</v>
       </c>
       <c r="G2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2" t="s">
         <v>684</v>
@@ -17939,7 +18016,7 @@
         <v>385</v>
       </c>
       <c r="G3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H3" t="s">
         <v>684</v>
@@ -17959,7 +18036,7 @@
         <v>386</v>
       </c>
       <c r="G4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H4" t="s">
         <v>684</v>
@@ -17979,7 +18056,7 @@
         <v>387</v>
       </c>
       <c r="G5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H5" t="s">
         <v>684</v>
@@ -17999,7 +18076,7 @@
         <v>388</v>
       </c>
       <c r="G6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H6" t="s">
         <v>684</v>
@@ -18019,7 +18096,7 @@
         <v>389</v>
       </c>
       <c r="G7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H7" t="s">
         <v>684</v>
@@ -18039,10 +18116,10 @@
         <v>390</v>
       </c>
       <c r="G8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H8" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -18059,10 +18136,10 @@
         <v>391</v>
       </c>
       <c r="G9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H9" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -18079,10 +18156,10 @@
         <v>392</v>
       </c>
       <c r="G10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H10" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -18099,10 +18176,10 @@
         <v>393</v>
       </c>
       <c r="G11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H11" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -18119,10 +18196,10 @@
         <v>394</v>
       </c>
       <c r="G12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H12" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -18139,10 +18216,10 @@
         <v>395</v>
       </c>
       <c r="G13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H13" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -18200,8 +18277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD30F93-B3C9-48E4-BAEB-257DAFEB982C}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -18244,7 +18321,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -18279,7 +18356,7 @@
         <v>396</v>
       </c>
       <c r="G2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2" t="s">
         <v>684</v>
@@ -18302,7 +18379,7 @@
         <v>397</v>
       </c>
       <c r="G3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H3" t="s">
         <v>684</v>
@@ -18322,7 +18399,7 @@
         <v>398</v>
       </c>
       <c r="G4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H4" t="s">
         <v>684</v>
@@ -18342,7 +18419,7 @@
         <v>399</v>
       </c>
       <c r="G5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H5" t="s">
         <v>684</v>
@@ -18362,7 +18439,7 @@
         <v>400</v>
       </c>
       <c r="G6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H6" t="s">
         <v>684</v>
@@ -18382,7 +18459,7 @@
         <v>401</v>
       </c>
       <c r="G7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H7" t="s">
         <v>684</v>
@@ -18402,7 +18479,7 @@
         <v>402</v>
       </c>
       <c r="G8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H8" t="s">
         <v>684</v>
@@ -18422,10 +18499,10 @@
         <v>403</v>
       </c>
       <c r="G9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H9" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -18442,10 +18519,10 @@
         <v>404</v>
       </c>
       <c r="G10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H10" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -18462,10 +18539,10 @@
         <v>405</v>
       </c>
       <c r="G11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H11" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -18482,10 +18559,10 @@
         <v>406</v>
       </c>
       <c r="G12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H12" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -18502,10 +18579,10 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H13" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -18522,10 +18599,10 @@
         <v>407</v>
       </c>
       <c r="G14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -18542,10 +18619,10 @@
         <v>408</v>
       </c>
       <c r="G15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -18562,10 +18639,10 @@
         <v>409</v>
       </c>
       <c r="G16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -18582,10 +18659,10 @@
         <v>410</v>
       </c>
       <c r="G17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H17" t="s">
-        <v>684</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -18602,10 +18679,10 @@
         <v>411</v>
       </c>
       <c r="G18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H18" t="s">
-        <v>684</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -18622,10 +18699,10 @@
         <v>412</v>
       </c>
       <c r="G19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H19" t="s">
-        <v>684</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -18642,10 +18719,10 @@
         <v>413</v>
       </c>
       <c r="G20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H20" t="s">
-        <v>684</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -18703,8 +18780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF51896-F2C3-4A8C-8F8A-87F736BAAB5C}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="C11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -18746,7 +18823,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -18789,7 +18866,7 @@
         <v>414</v>
       </c>
       <c r="G3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -18806,7 +18883,7 @@
         <v>415</v>
       </c>
       <c r="G4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -18823,7 +18900,7 @@
         <v>416</v>
       </c>
       <c r="G5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="26.4">
@@ -18840,7 +18917,7 @@
         <v>417</v>
       </c>
       <c r="G6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -18857,7 +18934,7 @@
         <v>418</v>
       </c>
       <c r="G7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -18874,7 +18951,7 @@
         <v>419</v>
       </c>
       <c r="G8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -18891,10 +18968,10 @@
         <v>420</v>
       </c>
       <c r="G9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -18911,10 +18988,10 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -18931,10 +19008,10 @@
         <v>421</v>
       </c>
       <c r="G11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -18951,10 +19028,10 @@
         <v>422</v>
       </c>
       <c r="G12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -18971,10 +19048,10 @@
         <v>423</v>
       </c>
       <c r="G13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -18991,10 +19068,10 @@
         <v>424</v>
       </c>
       <c r="G14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -19011,10 +19088,10 @@
         <v>425</v>
       </c>
       <c r="G15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -19031,10 +19108,10 @@
         <v>426</v>
       </c>
       <c r="G16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -19051,10 +19128,10 @@
         <v>427</v>
       </c>
       <c r="G17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -19071,10 +19148,10 @@
         <v>428</v>
       </c>
       <c r="G18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -19091,10 +19168,10 @@
         <v>429</v>
       </c>
       <c r="G19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -19111,10 +19188,10 @@
         <v>430</v>
       </c>
       <c r="G20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -19131,10 +19208,10 @@
         <v>431</v>
       </c>
       <c r="G21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -19151,10 +19228,10 @@
         <v>432</v>
       </c>
       <c r="G22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -19171,10 +19248,10 @@
         <v>424</v>
       </c>
       <c r="G23" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -19191,10 +19268,10 @@
         <v>424</v>
       </c>
       <c r="G24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -19211,10 +19288,10 @@
         <v>433</v>
       </c>
       <c r="G25" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H25" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -19231,10 +19308,10 @@
         <v>434</v>
       </c>
       <c r="G26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -19251,10 +19328,10 @@
         <v>435</v>
       </c>
       <c r="G27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -19271,10 +19348,10 @@
         <v>436</v>
       </c>
       <c r="G28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -19291,10 +19368,10 @@
         <v>437</v>
       </c>
       <c r="G29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H29" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -19311,10 +19388,10 @@
         <v>438</v>
       </c>
       <c r="G30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -19331,7 +19408,7 @@
         <v>439</v>
       </c>
       <c r="G31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H31" t="s">
         <v>689</v>
@@ -19351,7 +19428,7 @@
         <v>440</v>
       </c>
       <c r="G32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H32" t="s">
         <v>689</v>
@@ -19371,7 +19448,7 @@
         <v>441</v>
       </c>
       <c r="G33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H33" t="s">
         <v>689</v>
@@ -19391,7 +19468,7 @@
         <v>442</v>
       </c>
       <c r="G34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H34" t="s">
         <v>689</v>
@@ -19411,7 +19488,7 @@
         <v>443</v>
       </c>
       <c r="G35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H35" t="s">
         <v>689</v>
@@ -19431,7 +19508,7 @@
         <v>444</v>
       </c>
       <c r="G36" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H36" t="s">
         <v>689</v>
@@ -19451,7 +19528,7 @@
         <v>331</v>
       </c>
       <c r="G37" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H37" t="s">
         <v>689</v>
@@ -19468,7 +19545,7 @@
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
@@ -19477,10 +19554,10 @@
         <v>333</v>
       </c>
       <c r="L38" t="s">
+        <v>663</v>
+      </c>
+      <c r="M38" t="s">
         <v>664</v>
-      </c>
-      <c r="M38" t="s">
-        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -19566,8 +19643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A068B11-DAA2-4778-8524-27CDD74C9114}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -19611,7 +19688,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -19646,10 +19723,10 @@
         <v>445</v>
       </c>
       <c r="G2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -19666,10 +19743,10 @@
         <v>446</v>
       </c>
       <c r="G3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -19686,10 +19763,10 @@
         <v>447</v>
       </c>
       <c r="G4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -19706,10 +19783,10 @@
         <v>448</v>
       </c>
       <c r="G5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -19726,10 +19803,10 @@
         <v>449</v>
       </c>
       <c r="G6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -19746,10 +19823,10 @@
         <v>450</v>
       </c>
       <c r="G7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -19766,10 +19843,10 @@
         <v>451</v>
       </c>
       <c r="G8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -19786,10 +19863,10 @@
         <v>452</v>
       </c>
       <c r="G9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -19806,10 +19883,10 @@
         <v>453</v>
       </c>
       <c r="G10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -19826,10 +19903,10 @@
         <v>454</v>
       </c>
       <c r="G11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -19846,10 +19923,10 @@
         <v>455</v>
       </c>
       <c r="G12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H12" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -19866,10 +19943,10 @@
         <v>456</v>
       </c>
       <c r="G13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H13" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -19886,7 +19963,7 @@
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -19895,10 +19972,10 @@
         <v>333</v>
       </c>
       <c r="L14" t="s">
+        <v>663</v>
+      </c>
+      <c r="M14" t="s">
         <v>664</v>
-      </c>
-      <c r="M14" t="s">
-        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -19941,8 +20018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABE6EEA-441F-4145-BD21-BED610835A4E}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:J17"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -19986,7 +20063,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -20145,7 +20222,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>92</v>
@@ -20165,7 +20242,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>93</v>
@@ -20185,7 +20262,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>94</v>
@@ -20205,7 +20282,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>95</v>
@@ -20259,7 +20336,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
@@ -20327,7 +20404,7 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -20347,7 +20424,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -20367,7 +20444,7 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -20387,7 +20464,7 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -20407,7 +20484,7 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -20421,13 +20498,13 @@
         <v>16</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -20447,7 +20524,7 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -20467,7 +20544,7 @@
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -20487,7 +20564,7 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -20507,7 +20584,7 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -20527,7 +20604,7 @@
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -20547,7 +20624,7 @@
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -20567,7 +20644,7 @@
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -20587,7 +20664,7 @@
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -20607,7 +20684,7 @@
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -20627,7 +20704,7 @@
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -20647,7 +20724,7 @@
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -20667,7 +20744,7 @@
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -20687,7 +20764,7 @@
         <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -20707,7 +20784,7 @@
         <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -20727,7 +20804,7 @@
         <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -20747,7 +20824,7 @@
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -20764,7 +20841,7 @@
         <v>120</v>
       </c>
       <c r="G42" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -20781,7 +20858,7 @@
         <v>121</v>
       </c>
       <c r="G43" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -20798,7 +20875,7 @@
         <v>122</v>
       </c>
       <c r="G44" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -20815,7 +20892,7 @@
         <v>123</v>
       </c>
       <c r="G45" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -20832,7 +20909,7 @@
         <v>124</v>
       </c>
       <c r="G46" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -20846,10 +20923,10 @@
         <v>13</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G47" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -20866,7 +20943,7 @@
         <v>125</v>
       </c>
       <c r="G48" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -20883,7 +20960,7 @@
         <v>126</v>
       </c>
       <c r="G49" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -20903,7 +20980,7 @@
         <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -20917,13 +20994,13 @@
         <v>13</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -20943,7 +21020,7 @@
         <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -20963,7 +21040,7 @@
         <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -20983,7 +21060,7 @@
         <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -20997,13 +21074,13 @@
         <v>18</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G55" t="s">
         <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -21023,7 +21100,7 @@
         <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -21043,7 +21120,7 @@
         <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -21057,13 +21134,13 @@
         <v>13</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G58" t="s">
         <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -21083,7 +21160,7 @@
         <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -21103,7 +21180,7 @@
         <v>27</v>
       </c>
       <c r="H60" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -21123,7 +21200,7 @@
         <v>27</v>
       </c>
       <c r="H61" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -21143,7 +21220,7 @@
         <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -21163,7 +21240,7 @@
         <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -21183,7 +21260,7 @@
         <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -21203,7 +21280,7 @@
         <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -21223,7 +21300,7 @@
         <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -21243,7 +21320,7 @@
         <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -21263,7 +21340,7 @@
         <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -21283,7 +21360,7 @@
         <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -21303,7 +21380,7 @@
         <v>27</v>
       </c>
       <c r="H70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -21317,13 +21394,13 @@
         <v>13</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G71" t="s">
         <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -21343,7 +21420,7 @@
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -21363,7 +21440,7 @@
         <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -21383,7 +21460,7 @@
         <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -21403,7 +21480,7 @@
         <v>27</v>
       </c>
       <c r="H75" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -21423,7 +21500,7 @@
         <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -21446,7 +21523,7 @@
         <v>150</v>
       </c>
       <c r="M77" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -21509,8 +21586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8781FC-B5FB-4BDC-A6AC-E7EDE4A10B60}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -21551,7 +21628,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -21586,10 +21663,10 @@
         <v>457</v>
       </c>
       <c r="G2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -21606,10 +21683,10 @@
         <v>458</v>
       </c>
       <c r="G3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -21626,10 +21703,10 @@
         <v>459</v>
       </c>
       <c r="G4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -21646,10 +21723,10 @@
         <v>460</v>
       </c>
       <c r="G5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -21666,10 +21743,10 @@
         <v>461</v>
       </c>
       <c r="G6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -21686,10 +21763,10 @@
         <v>462</v>
       </c>
       <c r="G7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -21706,10 +21783,10 @@
         <v>463</v>
       </c>
       <c r="G8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -21726,10 +21803,10 @@
         <v>464</v>
       </c>
       <c r="G9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -21746,10 +21823,10 @@
         <v>465</v>
       </c>
       <c r="G10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -21766,10 +21843,10 @@
         <v>466</v>
       </c>
       <c r="G11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -21786,7 +21863,7 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -21795,10 +21872,10 @@
         <v>333</v>
       </c>
       <c r="L12" t="s">
+        <v>663</v>
+      </c>
+      <c r="M12" t="s">
         <v>664</v>
-      </c>
-      <c r="M12" t="s">
-        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -21841,8 +21918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F938C4-24DF-44A8-AF3D-8C9C401C0375}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -21885,7 +21962,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -21920,7 +21997,10 @@
         <v>467</v>
       </c>
       <c r="G2" t="s">
-        <v>669</v>
+        <v>668</v>
+      </c>
+      <c r="H2" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -21937,7 +22017,10 @@
         <v>468</v>
       </c>
       <c r="G3" t="s">
-        <v>669</v>
+        <v>668</v>
+      </c>
+      <c r="H3" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -21954,7 +22037,10 @@
         <v>469</v>
       </c>
       <c r="G4" t="s">
-        <v>669</v>
+        <v>668</v>
+      </c>
+      <c r="H4" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -21968,16 +22054,16 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
       <c r="L5" t="s">
+        <v>665</v>
+      </c>
+      <c r="M5" t="s">
         <v>666</v>
-      </c>
-      <c r="M5" t="s">
-        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -22041,8 +22127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF294853-A5F1-4462-8BE4-E4D9EF238D75}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -22083,7 +22169,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -22118,10 +22204,10 @@
         <v>470</v>
       </c>
       <c r="G2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -22138,10 +22224,10 @@
         <v>471</v>
       </c>
       <c r="G3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -22158,10 +22244,10 @@
         <v>472</v>
       </c>
       <c r="G4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -22178,10 +22264,10 @@
         <v>473</v>
       </c>
       <c r="G5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -22201,10 +22287,10 @@
         <v>474</v>
       </c>
       <c r="G6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -22221,10 +22307,10 @@
         <v>475</v>
       </c>
       <c r="G7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -22241,10 +22327,10 @@
         <v>476</v>
       </c>
       <c r="G8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -22261,10 +22347,10 @@
         <v>477</v>
       </c>
       <c r="G9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -22281,10 +22367,10 @@
         <v>478</v>
       </c>
       <c r="G10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H10" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -22301,10 +22387,10 @@
         <v>479</v>
       </c>
       <c r="G11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -22321,10 +22407,10 @@
         <v>480</v>
       </c>
       <c r="G12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H12" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -22341,10 +22427,10 @@
         <v>481</v>
       </c>
       <c r="G13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -22361,10 +22447,10 @@
         <v>482</v>
       </c>
       <c r="G14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -22381,10 +22467,10 @@
         <v>483</v>
       </c>
       <c r="G15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -22401,10 +22487,10 @@
         <v>484</v>
       </c>
       <c r="G16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H16" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -22456,11 +22542,509 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3424D189-B25E-4117-AB1E-5CE6E0D68D03}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="80.09765625" customWidth="1"/>
+    <col min="7" max="7" width="26.19921875" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="105.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="G2" t="s">
+        <v>668</v>
+      </c>
+      <c r="H2" t="s">
+        <v>690</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="G3" t="s">
+        <v>668</v>
+      </c>
+      <c r="H3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="G4" t="s">
+        <v>668</v>
+      </c>
+      <c r="H4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="G5" t="s">
+        <v>668</v>
+      </c>
+      <c r="H5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="G6" t="s">
+        <v>668</v>
+      </c>
+      <c r="H6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="G7" t="s">
+        <v>668</v>
+      </c>
+      <c r="H7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="G8" t="s">
+        <v>668</v>
+      </c>
+      <c r="H8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="G9" t="s">
+        <v>668</v>
+      </c>
+      <c r="H9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>668</v>
+      </c>
+      <c r="H10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>668</v>
+      </c>
+      <c r="H11" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H12" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="G13" t="s">
+        <v>668</v>
+      </c>
+      <c r="H13" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="G14" t="s">
+        <v>668</v>
+      </c>
+      <c r="H14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="G15" t="s">
+        <v>668</v>
+      </c>
+      <c r="H15" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="G16" t="s">
+        <v>668</v>
+      </c>
+      <c r="H16" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="G17" t="s">
+        <v>668</v>
+      </c>
+      <c r="H17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="G18" t="s">
+        <v>668</v>
+      </c>
+      <c r="H18" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="G19" t="s">
+        <v>668</v>
+      </c>
+      <c r="H19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G20" t="s">
+        <v>668</v>
+      </c>
+      <c r="H20" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A21">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E20">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91E1F32-C105-4B60-A873-DAA120B7C3B6}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -22501,7 +23085,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -22536,10 +23120,10 @@
         <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -22559,10 +23143,10 @@
         <v>501</v>
       </c>
       <c r="G3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -22579,10 +23163,10 @@
         <v>502</v>
       </c>
       <c r="G4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -22599,10 +23183,10 @@
         <v>503</v>
       </c>
       <c r="G5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H5" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -22619,10 +23203,10 @@
         <v>504</v>
       </c>
       <c r="G6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H6" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -22639,10 +23223,10 @@
         <v>505</v>
       </c>
       <c r="G7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -22659,10 +23243,10 @@
         <v>493</v>
       </c>
       <c r="G8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -22679,10 +23263,10 @@
         <v>506</v>
       </c>
       <c r="G9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -22699,10 +23283,10 @@
         <v>507</v>
       </c>
       <c r="G10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -22719,10 +23303,10 @@
         <v>508</v>
       </c>
       <c r="G11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -22739,10 +23323,10 @@
         <v>509</v>
       </c>
       <c r="G12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -22756,13 +23340,13 @@
         <v>13</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>510</v>
+        <v>749</v>
       </c>
       <c r="G13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H13" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -22776,13 +23360,13 @@
         <v>13</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H14" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -22796,13 +23380,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -22816,13 +23400,13 @@
         <v>13</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H16" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -22839,10 +23423,10 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -22856,13 +23440,13 @@
         <v>13</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H18" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -22876,13 +23460,13 @@
         <v>13</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H19" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -22896,13 +23480,10 @@
         <v>13</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G20" t="s">
-        <v>669</v>
-      </c>
-      <c r="H20" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -22916,13 +23497,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G21" t="s">
-        <v>669</v>
-      </c>
-      <c r="H21" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -22936,13 +23514,10 @@
         <v>16</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G22" t="s">
-        <v>669</v>
-      </c>
-      <c r="H22" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -22956,13 +23531,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G23" t="s">
-        <v>669</v>
-      </c>
-      <c r="H23" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -22976,13 +23548,10 @@
         <v>13</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G24" t="s">
-        <v>669</v>
-      </c>
-      <c r="H24" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -22996,13 +23565,10 @@
         <v>13</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G25" t="s">
-        <v>669</v>
-      </c>
-      <c r="H25" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -23016,13 +23582,10 @@
         <v>13</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G26" t="s">
-        <v>669</v>
-      </c>
-      <c r="H26" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -23036,13 +23599,10 @@
         <v>13</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G27" t="s">
-        <v>669</v>
-      </c>
-      <c r="H27" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -23056,13 +23616,10 @@
         <v>13</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G28" t="s">
-        <v>669</v>
-      </c>
-      <c r="H28" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -23076,13 +23633,10 @@
         <v>13</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G29" t="s">
-        <v>669</v>
-      </c>
-      <c r="H29" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -23096,13 +23650,10 @@
         <v>13</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G30" t="s">
-        <v>669</v>
-      </c>
-      <c r="H30" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -23116,13 +23667,13 @@
         <v>13</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H31" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -23136,13 +23687,13 @@
         <v>13</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H32" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -23159,10 +23710,10 @@
         <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H33" t="s">
-        <v>695</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -23176,13 +23727,13 @@
         <v>16</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H34" t="s">
-        <v>695</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -23196,13 +23747,13 @@
         <v>13</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H35" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -23253,12 +23804,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52CED-8D2E-4744-8A59-535CFF1C067F}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -23298,7 +23849,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -23344,10 +23895,10 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="28.8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -23358,13 +23909,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -23378,13 +23929,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -23398,13 +23949,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -23418,13 +23969,13 @@
         <v>13</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -23438,13 +23989,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -23458,13 +24009,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -23478,13 +24029,13 @@
         <v>15</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -23498,13 +24049,13 @@
         <v>13</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -23518,33 +24069,33 @@
         <v>13</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="26.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>543</v>
-      </c>
       <c r="G13" t="s">
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -23558,13 +24109,13 @@
         <v>13</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -23578,13 +24129,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -23598,13 +24149,13 @@
         <v>13</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -23618,13 +24169,13 @@
         <v>16</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -23638,13 +24189,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -23658,13 +24209,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -23678,13 +24229,13 @@
         <v>13</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -23698,13 +24249,13 @@
         <v>16</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G21" t="s">
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -23718,13 +24269,13 @@
         <v>16</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="26.4">
@@ -23738,13 +24289,13 @@
         <v>16</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -23758,13 +24309,13 @@
         <v>13</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>705</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -23778,13 +24329,13 @@
         <v>13</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>706</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -23798,13 +24349,13 @@
         <v>16</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>706</v>
+        <v>751</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -23818,13 +24369,13 @@
         <v>13</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G27" t="s">
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -23844,7 +24395,7 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -23858,13 +24409,13 @@
         <v>13</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -23878,13 +24429,13 @@
         <v>13</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>706</v>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -23898,13 +24449,13 @@
         <v>15</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -23918,13 +24469,13 @@
         <v>15</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -23938,13 +24489,13 @@
         <v>15</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -23958,13 +24509,13 @@
         <v>15</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -23978,16 +24529,16 @@
         <v>15</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G35" t="s">
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="26.4">
       <c r="A36">
         <v>1</v>
       </c>
@@ -23998,13 +24549,13 @@
         <v>15</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -24018,13 +24569,13 @@
         <v>13</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -24038,13 +24589,13 @@
         <v>15</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>705</v>
+        <v>753</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -24058,13 +24609,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -24078,13 +24629,13 @@
         <v>13</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -24098,13 +24649,13 @@
         <v>13</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G41" t="s">
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -24124,7 +24675,7 @@
         <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -24144,7 +24695,7 @@
         <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -24164,7 +24715,7 @@
         <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -24178,13 +24729,13 @@
         <v>13</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G45" t="s">
         <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -24198,13 +24749,13 @@
         <v>13</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G46" t="s">
         <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>705</v>
+        <v>756</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -24218,13 +24769,13 @@
         <v>13</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G47" t="s">
         <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>715</v>
+        <v>756</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -24238,13 +24789,13 @@
         <v>13</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G48" t="s">
         <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>715</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -24258,13 +24809,13 @@
         <v>13</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>715</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="31.2">
@@ -24278,13 +24829,13 @@
         <v>13</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>715</v>
+        <v>757</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -24298,13 +24849,13 @@
         <v>13</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>715</v>
+        <v>757</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -24318,13 +24869,13 @@
         <v>16</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G52" t="s">
         <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>715</v>
+        <v>758</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -24338,13 +24889,13 @@
         <v>15</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G53" t="s">
         <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>715</v>
+        <v>758</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="26.4">
@@ -24358,13 +24909,13 @@
         <v>13</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G54" t="s">
         <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>715</v>
+        <v>758</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -24378,13 +24929,13 @@
         <v>13</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G55" t="s">
         <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>715</v>
+        <v>762</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -24398,13 +24949,13 @@
         <v>13</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>715</v>
+        <v>761</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -24418,13 +24969,13 @@
         <v>13</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G57" t="s">
         <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>715</v>
+        <v>760</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -24444,7 +24995,7 @@
         <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>715</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="26.4">
@@ -24458,16 +25009,16 @@
         <v>13</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G59" t="s">
         <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="26.4">
       <c r="A60">
         <v>1</v>
       </c>
@@ -24478,13 +25029,13 @@
         <v>18</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G60" t="s">
         <v>27</v>
       </c>
       <c r="H60" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -24498,13 +25049,13 @@
         <v>18</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G61" t="s">
         <v>27</v>
       </c>
       <c r="H61" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -24518,13 +25069,13 @@
         <v>13</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G62" t="s">
         <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -24538,13 +25089,13 @@
         <v>18</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G63" t="s">
         <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -24558,13 +25109,13 @@
         <v>18</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -24578,13 +25129,13 @@
         <v>18</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G65" t="s">
         <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -24598,13 +25149,13 @@
         <v>13</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G66" t="s">
         <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -24618,13 +25169,13 @@
         <v>16</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G67" t="s">
         <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -24638,13 +25189,13 @@
         <v>16</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G68" t="s">
         <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>707</v>
+        <v>763</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -24658,13 +25209,13 @@
         <v>13</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G69" t="s">
         <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>707</v>
+        <v>765</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -24678,13 +25229,13 @@
         <v>15</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G70" t="s">
         <v>27</v>
       </c>
       <c r="H70" t="s">
-        <v>707</v>
+        <v>764</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -24698,13 +25249,13 @@
         <v>13</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G71" t="s">
         <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -24718,13 +25269,13 @@
         <v>18</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G72" t="s">
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -24738,13 +25289,13 @@
         <v>13</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G73" t="s">
         <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -24758,13 +25309,13 @@
         <v>18</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G74" t="s">
         <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -24778,33 +25329,33 @@
         <v>18</v>
       </c>
       <c r="F75" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="26.4">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>600</v>
-      </c>
       <c r="G76" t="s">
         <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -24818,13 +25369,13 @@
         <v>13</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G77" t="s">
         <v>27</v>
       </c>
       <c r="H77" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -24838,13 +25389,13 @@
         <v>13</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G78" t="s">
         <v>27</v>
       </c>
       <c r="H78" t="s">
-        <v>702</v>
+        <v>766</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -24858,13 +25409,13 @@
         <v>13</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G79" t="s">
         <v>27</v>
       </c>
       <c r="H79" t="s">
-        <v>701</v>
+        <v>745</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -24878,13 +25429,13 @@
         <v>13</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G80" t="s">
         <v>27</v>
       </c>
       <c r="H80" t="s">
-        <v>701</v>
+        <v>745</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -24898,7 +25449,7 @@
         <v>13</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G81" t="s">
         <v>27</v>
@@ -24915,7 +25466,7 @@
         <v>13</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G82" t="s">
         <v>27</v>
@@ -24932,7 +25483,7 @@
         <v>13</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G83" t="s">
         <v>27</v>
@@ -24949,7 +25500,7 @@
         <v>13</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G84" t="s">
         <v>27</v>
@@ -24966,7 +25517,7 @@
         <v>13</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G85" t="s">
         <v>27</v>
@@ -24983,7 +25534,7 @@
         <v>13</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G86" t="s">
         <v>27</v>
@@ -25042,11 +25593,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E129760B-D16C-4E2A-B7A4-F67A51649F7A}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
@@ -25086,7 +25637,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -25126,7 +25677,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -25143,7 +25694,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -25160,7 +25711,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -25194,7 +25745,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -25211,7 +25762,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -25228,7 +25779,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -25245,7 +25796,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -25262,7 +25813,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -25279,7 +25830,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
@@ -25313,7 +25864,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -25330,7 +25881,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
@@ -25347,7 +25898,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
@@ -25364,7 +25915,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G17" t="s">
         <v>26</v>
@@ -25381,7 +25932,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -25398,7 +25949,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -25415,7 +25966,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
@@ -25432,7 +25983,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -25449,7 +26000,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -25466,7 +26017,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -25483,10 +26034,10 @@
         <v>13</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G24" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -25500,27 +26051,27 @@
         <v>13</v>
       </c>
       <c r="F25" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="G25" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="26.4">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>628</v>
       </c>
-      <c r="G25" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>629</v>
-      </c>
       <c r="G26" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -25534,10 +26085,10 @@
         <v>13</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G27" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -25554,7 +26105,7 @@
         <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -25568,10 +26119,10 @@
         <v>13</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -25585,27 +26136,27 @@
         <v>13</v>
       </c>
       <c r="F30" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="G30" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="26.4">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>632</v>
       </c>
-      <c r="G30" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>633</v>
-      </c>
       <c r="G31" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -25619,10 +26170,10 @@
         <v>13</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G32" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -25639,7 +26190,7 @@
         <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -25653,10 +26204,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G34" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -25670,10 +26221,10 @@
         <v>13</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G35" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="312">
@@ -25690,10 +26241,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G36" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -25707,7 +26258,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G37" t="s">
         <v>26</v>
@@ -25724,7 +26275,7 @@
         <v>13</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G38" t="s">
         <v>26</v>
@@ -25741,13 +26292,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="26.4">
       <c r="A40">
         <v>1</v>
       </c>
@@ -25758,7 +26309,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G40" t="s">
         <v>26</v>
@@ -25775,7 +26326,7 @@
         <v>13</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G41" t="s">
         <v>26</v>
@@ -25792,7 +26343,7 @@
         <v>13</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G42" t="s">
         <v>26</v>
@@ -25812,10 +26363,10 @@
         <v>13</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G43" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -25846,7 +26397,7 @@
         <v>13</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
@@ -25863,7 +26414,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G46" t="s">
         <v>26</v>
@@ -25880,7 +26431,7 @@
         <v>13</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G47" t="s">
         <v>26</v>
@@ -25897,7 +26448,7 @@
         <v>13</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G48" t="s">
         <v>26</v>
@@ -25948,7 +26499,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G51" t="s">
         <v>26</v>
@@ -25965,7 +26516,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G52" t="s">
         <v>26</v>
@@ -25982,7 +26533,7 @@
         <v>13</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G53" t="s">
         <v>26</v>
@@ -25999,7 +26550,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G54" t="s">
         <v>26</v>
@@ -26016,7 +26567,7 @@
         <v>13</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G55" t="s">
         <v>26</v>
@@ -26033,7 +26584,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G56" t="s">
         <v>26</v>
@@ -26067,7 +26618,7 @@
         <v>13</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G58" t="s">
         <v>26</v>
@@ -26084,7 +26635,7 @@
         <v>13</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G59" t="s">
         <v>26</v>
@@ -26101,7 +26652,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G60" t="s">
         <v>26</v>
@@ -26118,7 +26669,7 @@
         <v>13</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G61" t="s">
         <v>26</v>
@@ -26135,7 +26686,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G62" t="s">
         <v>26</v>
@@ -26152,7 +26703,7 @@
         <v>13</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G63" t="s">
         <v>26</v>
@@ -26208,509 +26759,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3424D189-B25E-4117-AB1E-5CE6E0D68D03}">
-  <dimension ref="A1:P21"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
-    <col min="6" max="6" width="80.09765625" customWidth="1"/>
-    <col min="7" max="7" width="26.19921875" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="105.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>531</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="G2" t="s">
-        <v>669</v>
-      </c>
-      <c r="H2" t="s">
-        <v>691</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="G3" t="s">
-        <v>669</v>
-      </c>
-      <c r="H3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="G4" t="s">
-        <v>669</v>
-      </c>
-      <c r="H4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="G5" t="s">
-        <v>669</v>
-      </c>
-      <c r="H5" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="G6" t="s">
-        <v>669</v>
-      </c>
-      <c r="H6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="G7" t="s">
-        <v>669</v>
-      </c>
-      <c r="H7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="G8" t="s">
-        <v>669</v>
-      </c>
-      <c r="H8" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="G9" t="s">
-        <v>669</v>
-      </c>
-      <c r="H9" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>669</v>
-      </c>
-      <c r="H10" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>669</v>
-      </c>
-      <c r="H11" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>669</v>
-      </c>
-      <c r="H12" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="G13" t="s">
-        <v>669</v>
-      </c>
-      <c r="H13" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="G14" t="s">
-        <v>669</v>
-      </c>
-      <c r="H14" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="G15" t="s">
-        <v>669</v>
-      </c>
-      <c r="H15" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="G16" t="s">
-        <v>669</v>
-      </c>
-      <c r="H16" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="G17" t="s">
-        <v>669</v>
-      </c>
-      <c r="H17" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="G18" t="s">
-        <v>669</v>
-      </c>
-      <c r="H18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="G19" t="s">
-        <v>669</v>
-      </c>
-      <c r="H19" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="G20" t="s">
-        <v>669</v>
-      </c>
-      <c r="H20" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A21">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E20">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8F6D56-6BF4-472D-8231-C335D914875C}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -26753,7 +26806,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -26796,10 +26849,10 @@
         <v>151</v>
       </c>
       <c r="G3" t="s">
+        <v>674</v>
+      </c>
+      <c r="H3" t="s">
         <v>675</v>
-      </c>
-      <c r="H3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -26819,7 +26872,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -26839,7 +26892,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -26859,7 +26912,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -26879,7 +26932,7 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -26899,7 +26952,7 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -26919,7 +26972,7 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -26939,7 +26992,7 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -26959,7 +27012,7 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -26979,7 +27032,7 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -26999,7 +27052,7 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -27019,7 +27072,7 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -27039,7 +27092,7 @@
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -27059,7 +27112,7 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -27079,7 +27132,7 @@
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -27099,7 +27152,7 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -27119,7 +27172,7 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -27139,7 +27192,7 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -27159,7 +27212,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -27179,7 +27232,7 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -27199,7 +27252,7 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -27219,7 +27272,7 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -27239,7 +27292,7 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -27259,7 +27312,7 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -27282,7 +27335,7 @@
         <v>20</v>
       </c>
       <c r="L27" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="M27" t="s">
         <v>21</v>
@@ -27331,7 +27384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CFF362-6F10-4AE0-BC32-774B7564766B}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -27373,7 +27426,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -27411,7 +27464,7 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -27431,7 +27484,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -27451,7 +27504,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -27471,7 +27524,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -27485,13 +27538,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="26.4">
@@ -27505,13 +27558,13 @@
         <v>13</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -27531,7 +27584,7 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -27551,7 +27604,7 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -27571,7 +27624,7 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -27591,7 +27644,7 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -27611,7 +27664,7 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -27631,7 +27684,7 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -27651,7 +27704,7 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -27671,7 +27724,7 @@
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -27691,7 +27744,7 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -27705,13 +27758,13 @@
         <v>18</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -27725,13 +27778,13 @@
         <v>18</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -27751,7 +27804,7 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -27771,7 +27824,7 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -27791,7 +27844,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -27811,7 +27864,7 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -27825,13 +27878,13 @@
         <v>18</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -27851,7 +27904,7 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -27871,7 +27924,7 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -27891,7 +27944,7 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -27917,7 +27970,7 @@
         <v>20</v>
       </c>
       <c r="L27" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="M27" t="s">
         <v>21</v>
@@ -27966,8 +28019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A41BF28-BF73-45B4-A6FE-839359A62393}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -28008,7 +28061,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -28046,7 +28099,7 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -28066,7 +28119,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -28080,13 +28133,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -28106,7 +28159,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -28120,13 +28173,13 @@
         <v>18</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -28146,7 +28199,7 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -28160,13 +28213,13 @@
         <v>18</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -28186,7 +28239,7 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -28206,7 +28259,7 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -28226,7 +28279,7 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -28246,7 +28299,7 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -28266,7 +28319,7 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -28286,7 +28339,7 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -28300,13 +28353,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>670</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -28326,7 +28379,7 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>670</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -28346,7 +28399,7 @@
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>670</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -28366,7 +28419,7 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>670</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -28392,7 +28445,7 @@
         <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="M19" t="s">
         <v>21</v>
@@ -28441,8 +28494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29187108-CC33-4637-A601-47A2B875A65F}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -28483,7 +28536,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -28521,7 +28574,7 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -28541,7 +28594,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -28555,13 +28608,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -28581,7 +28634,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -28601,7 +28654,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -28621,7 +28674,7 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -28641,7 +28694,7 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -28661,7 +28714,7 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -28681,7 +28734,7 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -28692,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>217</v>
@@ -28701,7 +28754,7 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -28721,7 +28774,7 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -28741,7 +28794,7 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -28761,13 +28814,16 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
       <c r="D15">
         <v>0</v>
       </c>
@@ -28781,13 +28837,16 @@
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>670</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
         <v>1</v>
       </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
       <c r="D16">
         <v>0</v>
       </c>
@@ -28801,13 +28860,16 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
       <c r="D17">
         <v>0</v>
       </c>
@@ -28821,13 +28883,16 @@
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
       <c r="D18">
         <v>0</v>
       </c>
@@ -28841,13 +28906,16 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
       <c r="D19">
         <v>0</v>
       </c>
@@ -28861,13 +28929,16 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
       <c r="D20">
         <v>0</v>
       </c>
@@ -28881,13 +28952,16 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
       <c r="D21">
         <v>0</v>
       </c>
@@ -28901,13 +28975,16 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
       <c r="D22">
         <v>0</v>
       </c>
@@ -28921,13 +28998,16 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
@@ -28941,13 +29021,16 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
         <v>1</v>
       </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
       <c r="D24">
         <v>1</v>
       </c>
@@ -28961,13 +29044,16 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
         <v>1</v>
       </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
       <c r="D25">
         <v>1</v>
       </c>
@@ -28981,13 +29067,16 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
       <c r="D26">
         <v>1</v>
       </c>
@@ -29001,13 +29090,16 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
         <v>1</v>
       </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
@@ -29021,13 +29113,16 @@
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
         <v>1</v>
       </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -29041,7 +29136,7 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -29049,7 +29144,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -29064,7 +29159,7 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -29072,7 +29167,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -29087,7 +29182,7 @@
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -29095,7 +29190,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -29110,7 +29205,7 @@
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -29118,7 +29213,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -29133,7 +29228,7 @@
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -29156,7 +29251,7 @@
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -29179,7 +29274,7 @@
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -29202,7 +29297,7 @@
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -29225,7 +29320,7 @@
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -29248,7 +29343,7 @@
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -29268,7 +29363,7 @@
         <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -29288,7 +29383,7 @@
         <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -29308,7 +29403,7 @@
         <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -29322,13 +29417,13 @@
         <v>18</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G41" t="s">
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -29348,7 +29443,7 @@
         <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -29368,7 +29463,7 @@
         <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -29388,7 +29483,7 @@
         <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -29414,7 +29509,7 @@
         <v>20</v>
       </c>
       <c r="L45" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="M45" t="s">
         <v>21</v>
@@ -29463,7 +29558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13023BAD-E986-4D03-80A9-6D8865BF77C8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -29507,7 +29602,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -29542,13 +29637,13 @@
         <v>247</v>
       </c>
       <c r="G2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="26.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -29559,13 +29654,13 @@
         <v>13</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -29585,7 +29680,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -29605,7 +29700,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -29625,7 +29720,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -29645,7 +29740,7 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -29665,7 +29760,7 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -29685,7 +29780,7 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -29708,7 +29803,7 @@
         <v>252</v>
       </c>
       <c r="M10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -29740,7 +29835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105F8B61-6BD9-41CC-A526-0E7EDA814A6F}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -29781,7 +29876,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -29813,13 +29908,13 @@
         <v>13</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -29833,13 +29928,13 @@
         <v>13</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -29859,7 +29954,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -29879,7 +29974,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -29902,7 +29997,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -29919,10 +30014,10 @@
         <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -29939,10 +30034,10 @@
         <v>257</v>
       </c>
       <c r="G8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -29959,10 +30054,10 @@
         <v>258</v>
       </c>
       <c r="G9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -29982,10 +30077,10 @@
         <v>259</v>
       </c>
       <c r="G10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -30002,10 +30097,10 @@
         <v>260</v>
       </c>
       <c r="G11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -30049,8 +30144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE62B79-AA0F-4591-909D-5913DC2D14C2}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -30091,7 +30186,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -30129,7 +30224,7 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -30149,7 +30244,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -30169,7 +30264,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -30189,7 +30284,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -30209,7 +30304,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -30229,7 +30324,7 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -30255,7 +30350,7 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -30272,10 +30367,10 @@
         <v>268</v>
       </c>
       <c r="G9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:16">

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E416CF-17E6-4281-8F34-1582947FFE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDD48E6-32DC-4989-BCAF-FA4448A813D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" firstSheet="20" activeTab="24" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="6" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_SchoolGo" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="768">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11091,6 +11091,10 @@
   </si>
   <si>
     <t>{SA00}{MI06}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음….....</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11451,14 +11455,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11577,28 +11595,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -23006,32 +23010,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E20">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23771,32 +23775,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A36">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E35">
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23808,7 +23812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52CED-8D2E-4744-8A59-535CFF1C067F}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
@@ -25554,38 +25558,38 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A86">
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E86">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26720,38 +26724,38 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1 A3:A64">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E63">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28494,7 +28498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29187108-CC33-4637-A601-47A2B875A65F}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -29558,8 +29562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13023BAD-E986-4D03-80A9-6D8865BF77C8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -29733,8 +29737,8 @@
       <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="28">
-        <v>1</v>
+      <c r="F7" s="28" t="s">
+        <v>767</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDD48E6-32DC-4989-BCAF-FA4448A813D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900742B7-4C15-414F-9389-C24138FC675B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="6" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="1" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_SchoolGo" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="785">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11094,8 +11094,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음….....</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{{PLAYER_NAME}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI01</t>
+  </si>
+  <si>
+    <t>음…....</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA04}</t>
+  </si>
+  <si>
+    <t>MI04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA04</t>
+  </si>
+  <si>
+    <t>SA04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KI03</t>
+  </si>
+  <si>
+    <t>KI03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KI02</t>
+  </si>
+  <si>
+    <t>KI01</t>
+  </si>
+  <si>
+    <t>bgm</t>
+  </si>
+  <si>
+    <t>effect</t>
   </si>
 </sst>
 </file>
@@ -11325,7 +11385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11439,6 +11499,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13445,10 +13508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2492B5-5286-4C51-A0EE-617DAAF7402C}">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -13458,17 +13521,21 @@
     <col min="4" max="4" width="7.19921875" customWidth="1"/>
     <col min="5" max="5" width="18.19921875" customWidth="1"/>
     <col min="6" max="6" width="86.69921875" customWidth="1"/>
-    <col min="7" max="7" width="24.3984375" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15.8984375" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" customWidth="1"/>
-    <col min="11" max="11" width="12.69921875" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" customWidth="1"/>
-    <col min="14" max="14" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="15.8984375" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="17.19921875" customWidth="1"/>
+    <col min="13" max="13" width="13.69921875" customWidth="1"/>
+    <col min="14" max="14" width="12.69921875" customWidth="1"/>
+    <col min="15" max="15" width="14.19921875" customWidth="1"/>
+    <col min="16" max="16" width="16.3984375" customWidth="1"/>
+    <col min="17" max="17" width="15.69921875" customWidth="1"/>
+    <col min="18" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="23.8984375" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13494,39 +13561,54 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="S1" s="38"/>
+      <c r="T1"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="25.95" customHeight="1">
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="38"/>
+      <c r="K2"/>
+      <c r="S2" s="38"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" ht="25.95" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13542,8 +13624,12 @@
       <c r="G3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="31.2" customHeight="1">
+      <c r="J3" s="38"/>
+      <c r="K3"/>
+      <c r="S3" s="38"/>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20" ht="31.2" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -13559,8 +13645,12 @@
       <c r="G4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="25.95" customHeight="1">
+      <c r="J4" s="38"/>
+      <c r="K4"/>
+      <c r="S4" s="38"/>
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="1:20" ht="25.95" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -13576,8 +13666,12 @@
       <c r="G5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="J5" s="38"/>
+      <c r="K5"/>
+      <c r="S5" s="38"/>
+      <c r="T5"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>1</v>
       </c>
@@ -13593,8 +13687,12 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="J6" s="38"/>
+      <c r="K6"/>
+      <c r="S6" s="38"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>1</v>
       </c>
@@ -13610,8 +13708,12 @@
       <c r="G7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="28.2" customHeight="1">
+      <c r="J7" s="38"/>
+      <c r="K7"/>
+      <c r="S7" s="38"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:20" ht="28.2" customHeight="1">
       <c r="A8">
         <v>1</v>
       </c>
@@ -13627,8 +13729,12 @@
       <c r="G8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1">
+      <c r="J8" s="38"/>
+      <c r="K8"/>
+      <c r="S8" s="38"/>
+      <c r="T8"/>
+    </row>
+    <row r="9" spans="1:20" ht="30" customHeight="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -13644,8 +13750,12 @@
       <c r="G9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="J9" s="38"/>
+      <c r="K9"/>
+      <c r="S9" s="38"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>1</v>
       </c>
@@ -13661,8 +13771,12 @@
       <c r="G10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="J10" s="38"/>
+      <c r="K10"/>
+      <c r="S10" s="38"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13678,8 +13792,12 @@
       <c r="G11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="J11" s="38"/>
+      <c r="K11"/>
+      <c r="S11" s="38"/>
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>1</v>
       </c>
@@ -13695,8 +13813,12 @@
       <c r="G12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="J12" s="38"/>
+      <c r="K12"/>
+      <c r="S12" s="38"/>
+      <c r="T12"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>1</v>
       </c>
@@ -13712,8 +13834,12 @@
       <c r="G13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="J13" s="38"/>
+      <c r="K13"/>
+      <c r="S13" s="38"/>
+      <c r="T13"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>1</v>
       </c>
@@ -13729,8 +13855,12 @@
       <c r="G14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="J14" s="38"/>
+      <c r="K14"/>
+      <c r="S14" s="38"/>
+      <c r="T14"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>1</v>
       </c>
@@ -13746,8 +13876,12 @@
       <c r="G15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="J15" s="38"/>
+      <c r="K15"/>
+      <c r="S15" s="38"/>
+      <c r="T15"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>1</v>
       </c>
@@ -13763,8 +13897,12 @@
       <c r="G16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" s="38"/>
+      <c r="K16"/>
+      <c r="S16" s="38"/>
+      <c r="T16"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>1</v>
       </c>
@@ -13780,8 +13918,12 @@
       <c r="G17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="38"/>
+      <c r="K17"/>
+      <c r="S17" s="38"/>
+      <c r="T17"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>1</v>
       </c>
@@ -13797,8 +13939,12 @@
       <c r="G18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" s="38"/>
+      <c r="K18"/>
+      <c r="S18" s="38"/>
+      <c r="T18"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>1</v>
       </c>
@@ -13814,8 +13960,15 @@
       <c r="G19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19"/>
+      <c r="S19" s="38"/>
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>1</v>
       </c>
@@ -13831,8 +13984,12 @@
       <c r="G20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" s="38"/>
+      <c r="K20"/>
+      <c r="S20" s="38"/>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>1</v>
       </c>
@@ -13848,8 +14005,12 @@
       <c r="G21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" s="38"/>
+      <c r="K21"/>
+      <c r="S21" s="38"/>
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>1</v>
       </c>
@@ -13865,8 +14026,12 @@
       <c r="G22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" s="38"/>
+      <c r="K22"/>
+      <c r="S22" s="38"/>
+      <c r="T22"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>1</v>
       </c>
@@ -13882,8 +14047,12 @@
       <c r="G23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="J23" s="38"/>
+      <c r="K23"/>
+      <c r="S23" s="38"/>
+      <c r="T23"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>1</v>
       </c>
@@ -13899,8 +14068,12 @@
       <c r="G24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="J24" s="38"/>
+      <c r="K24"/>
+      <c r="S24" s="38"/>
+      <c r="T24"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>1</v>
       </c>
@@ -13916,8 +14089,12 @@
       <c r="G25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="J25" s="38"/>
+      <c r="K25"/>
+      <c r="S25" s="38"/>
+      <c r="T25"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>1</v>
       </c>
@@ -13933,8 +14110,12 @@
       <c r="G26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J26" s="38"/>
+      <c r="K26"/>
+      <c r="S26" s="38"/>
+      <c r="T26"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>1</v>
       </c>
@@ -13950,8 +14131,12 @@
       <c r="G27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27" s="38"/>
+      <c r="K27"/>
+      <c r="S27" s="38"/>
+      <c r="T27"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>1</v>
       </c>
@@ -13967,8 +14152,12 @@
       <c r="G28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28" s="38"/>
+      <c r="K28"/>
+      <c r="S28" s="38"/>
+      <c r="T28"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>1</v>
       </c>
@@ -13984,8 +14173,12 @@
       <c r="G29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29" s="38"/>
+      <c r="K29"/>
+      <c r="S29" s="38"/>
+      <c r="T29"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>1</v>
       </c>
@@ -14001,8 +14194,12 @@
       <c r="G30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30" s="38"/>
+      <c r="K30"/>
+      <c r="S30" s="38"/>
+      <c r="T30"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>1</v>
       </c>
@@ -14024,8 +14221,12 @@
       <c r="H31" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31" s="38"/>
+      <c r="K31"/>
+      <c r="S31" s="38"/>
+      <c r="T31"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>1</v>
       </c>
@@ -14047,8 +14248,12 @@
       <c r="H32" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32" s="38"/>
+      <c r="K32"/>
+      <c r="S32" s="38"/>
+      <c r="T32"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>1</v>
       </c>
@@ -14070,8 +14275,12 @@
       <c r="H33" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33" s="38"/>
+      <c r="K33"/>
+      <c r="S33" s="38"/>
+      <c r="T33"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>1</v>
       </c>
@@ -14093,8 +14302,12 @@
       <c r="H34" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34" s="38"/>
+      <c r="K34"/>
+      <c r="S34" s="38"/>
+      <c r="T34"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>1</v>
       </c>
@@ -14113,8 +14326,15 @@
       <c r="H35" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35" s="38"/>
+      <c r="K35"/>
+      <c r="S35" s="38"/>
+      <c r="T35"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>1</v>
       </c>
@@ -14133,8 +14353,12 @@
       <c r="H36" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="J36" s="38"/>
+      <c r="K36"/>
+      <c r="S36" s="38"/>
+      <c r="T36"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>1</v>
       </c>
@@ -14153,8 +14377,12 @@
       <c r="H37" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J37" s="38"/>
+      <c r="K37"/>
+      <c r="S37" s="38"/>
+      <c r="T37"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>1</v>
       </c>
@@ -14173,8 +14401,12 @@
       <c r="H38" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="J38" s="38"/>
+      <c r="K38"/>
+      <c r="S38" s="38"/>
+      <c r="T38"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>1</v>
       </c>
@@ -14193,8 +14425,12 @@
       <c r="H39" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="J39" s="38"/>
+      <c r="K39"/>
+      <c r="S39" s="38"/>
+      <c r="T39"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>1</v>
       </c>
@@ -14213,8 +14449,12 @@
       <c r="H40" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="J40" s="38"/>
+      <c r="K40"/>
+      <c r="S40" s="38"/>
+      <c r="T40"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>1</v>
       </c>
@@ -14233,8 +14473,12 @@
       <c r="H41" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="J41" s="38"/>
+      <c r="K41"/>
+      <c r="S41" s="38"/>
+      <c r="T41"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>1</v>
       </c>
@@ -14253,8 +14497,12 @@
       <c r="H42" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="J42" s="38"/>
+      <c r="K42"/>
+      <c r="S42" s="38"/>
+      <c r="T42"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>1</v>
       </c>
@@ -14273,8 +14521,12 @@
       <c r="H43" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="J43" s="38"/>
+      <c r="K43"/>
+      <c r="S43" s="38"/>
+      <c r="T43"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>1</v>
       </c>
@@ -14293,8 +14545,12 @@
       <c r="H44" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="J44" s="38"/>
+      <c r="K44"/>
+      <c r="S44" s="38"/>
+      <c r="T44"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>1</v>
       </c>
@@ -14313,8 +14569,12 @@
       <c r="H45" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="J45" s="38"/>
+      <c r="K45"/>
+      <c r="S45" s="38"/>
+      <c r="T45"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>1</v>
       </c>
@@ -14333,8 +14593,12 @@
       <c r="H46" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="J46" s="38"/>
+      <c r="K46"/>
+      <c r="S46" s="38"/>
+      <c r="T46"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>1</v>
       </c>
@@ -14353,8 +14617,12 @@
       <c r="H47" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="J47" s="38"/>
+      <c r="K47"/>
+      <c r="S47" s="38"/>
+      <c r="T47"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>1</v>
       </c>
@@ -14373,8 +14641,12 @@
       <c r="H48" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="J48" s="38"/>
+      <c r="K48"/>
+      <c r="S48" s="38"/>
+      <c r="T48"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>1</v>
       </c>
@@ -14393,8 +14665,12 @@
       <c r="H49" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="J49" s="38"/>
+      <c r="K49"/>
+      <c r="S49" s="38"/>
+      <c r="T49"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>1</v>
       </c>
@@ -14413,8 +14689,14 @@
       <c r="H50" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="J50" s="38" t="s">
+        <v>771</v>
+      </c>
+      <c r="K50"/>
+      <c r="S50" s="38"/>
+      <c r="T50"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>1</v>
       </c>
@@ -14433,8 +14715,12 @@
       <c r="H51" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="J51" s="38"/>
+      <c r="K51"/>
+      <c r="S51" s="38"/>
+      <c r="T51"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>1</v>
       </c>
@@ -14453,8 +14739,12 @@
       <c r="H52" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="J52" s="38"/>
+      <c r="K52"/>
+      <c r="S52" s="38"/>
+      <c r="T52"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>1</v>
       </c>
@@ -14473,8 +14763,12 @@
       <c r="H53" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="J53" s="38"/>
+      <c r="K53"/>
+      <c r="S53" s="38"/>
+      <c r="T53"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>1</v>
       </c>
@@ -14493,8 +14787,12 @@
       <c r="H54" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="J54" s="38"/>
+      <c r="K54"/>
+      <c r="S54" s="38"/>
+      <c r="T54"/>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>1</v>
       </c>
@@ -14513,8 +14811,12 @@
       <c r="H55" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="J55" s="38"/>
+      <c r="K55"/>
+      <c r="S55" s="38"/>
+      <c r="T55"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>1</v>
       </c>
@@ -14533,8 +14835,12 @@
       <c r="H56" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="J56" s="38"/>
+      <c r="K56"/>
+      <c r="S56" s="38"/>
+      <c r="T56"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>1</v>
       </c>
@@ -14553,8 +14859,12 @@
       <c r="H57" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="J57" s="38"/>
+      <c r="K57"/>
+      <c r="S57" s="38"/>
+      <c r="T57"/>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>1</v>
       </c>
@@ -14573,8 +14883,12 @@
       <c r="H58" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="J58" s="38"/>
+      <c r="K58"/>
+      <c r="S58" s="38"/>
+      <c r="T58"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>1</v>
       </c>
@@ -14593,8 +14907,12 @@
       <c r="H59" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="J59" s="38"/>
+      <c r="K59"/>
+      <c r="S59" s="38"/>
+      <c r="T59"/>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>1</v>
       </c>
@@ -14613,8 +14931,12 @@
       <c r="H60" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="J60" s="38"/>
+      <c r="K60"/>
+      <c r="S60" s="38"/>
+      <c r="T60"/>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>1</v>
       </c>
@@ -14633,8 +14955,12 @@
       <c r="H61" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="J61" s="38"/>
+      <c r="K61"/>
+      <c r="S61" s="38"/>
+      <c r="T61"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>1</v>
       </c>
@@ -14653,8 +14979,12 @@
       <c r="H62" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="J62" s="38"/>
+      <c r="K62"/>
+      <c r="S62" s="38"/>
+      <c r="T62"/>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>1</v>
       </c>
@@ -14673,8 +15003,12 @@
       <c r="H63" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="J63" s="38"/>
+      <c r="K63"/>
+      <c r="S63" s="38"/>
+      <c r="T63"/>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>1</v>
       </c>
@@ -14693,8 +15027,12 @@
       <c r="H64" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="J64" s="38"/>
+      <c r="K64"/>
+      <c r="S64" s="38"/>
+      <c r="T64"/>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65">
         <v>1</v>
       </c>
@@ -14713,8 +15051,12 @@
       <c r="H65" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="J65" s="38"/>
+      <c r="K65"/>
+      <c r="S65" s="38"/>
+      <c r="T65"/>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66">
         <v>1</v>
       </c>
@@ -14733,8 +15075,12 @@
       <c r="H66" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="J66" s="38"/>
+      <c r="K66"/>
+      <c r="S66" s="38"/>
+      <c r="T66"/>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67">
         <v>1</v>
       </c>
@@ -14753,8 +15099,15 @@
       <c r="H67" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67" s="38"/>
+      <c r="K67"/>
+      <c r="S67" s="38"/>
+      <c r="T67"/>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68">
         <v>0</v>
       </c>
@@ -14764,6 +15117,34 @@
       <c r="C68">
         <v>1</v>
       </c>
+      <c r="J68" s="38"/>
+      <c r="K68"/>
+      <c r="S68" s="38"/>
+      <c r="T68"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="J69" s="38"/>
+      <c r="K69"/>
+      <c r="S69" s="38"/>
+      <c r="T69"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="J70" s="38"/>
+      <c r="K70"/>
+      <c r="S70" s="38"/>
+      <c r="T70"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="J71" s="38"/>
+      <c r="K71"/>
+      <c r="S71" s="38"/>
+      <c r="T71"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="J72" s="38"/>
+      <c r="K72"/>
+      <c r="S72" s="38"/>
+      <c r="T72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14809,10 +15190,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFB045D-9DEA-4213-951B-B6C6659A4BD9}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="E25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -14820,10 +15201,15 @@
     <col min="5" max="5" width="18.09765625" customWidth="1"/>
     <col min="6" max="6" width="56.19921875" customWidth="1"/>
     <col min="7" max="7" width="21.69921875" customWidth="1"/>
-    <col min="12" max="12" width="60.19921875" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="10" max="10" width="18.69921875" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="60.19921875" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14849,31 +15235,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14893,7 +15285,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14913,7 +15305,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14933,7 +15325,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -14953,7 +15345,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -14973,7 +15365,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -14992,11 +15384,11 @@
       <c r="H7" t="s">
         <v>675</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -15016,7 +15408,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -15036,7 +15428,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -15056,7 +15448,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -15076,7 +15468,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -15095,8 +15487,11 @@
       <c r="H12" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="J12" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -15116,7 +15511,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -15136,7 +15531,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -15156,7 +15551,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -15395,10 +15790,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB216B21-F13B-4AEF-B2E5-65437E24D49A}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="E23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="D43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -15408,10 +15803,14 @@
     <col min="6" max="6" width="55.69921875" customWidth="1"/>
     <col min="7" max="7" width="22.69921875" customWidth="1"/>
     <col min="8" max="8" width="14.8984375" customWidth="1"/>
-    <col min="12" max="12" width="54.8984375" customWidth="1"/>
+    <col min="10" max="10" width="17.59765625" style="38" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="54.8984375" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="17.59765625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15437,31 +15836,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15469,7 +15874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15486,7 +15891,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -15503,7 +15908,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -15520,7 +15925,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -15537,7 +15942,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -15554,7 +15959,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -15571,7 +15976,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -15588,7 +15993,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -15605,7 +16010,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -15622,7 +16027,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -15639,7 +16044,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -15655,8 +16060,11 @@
       <c r="G13" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="J13" s="38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>0</v>
       </c>
@@ -15664,7 +16072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -15684,7 +16092,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -15703,6 +16111,9 @@
       <c r="H16" t="s">
         <v>683</v>
       </c>
+      <c r="J16" s="38" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
@@ -16024,7 +16435,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>1</v>
       </c>
@@ -16043,8 +16454,11 @@
       <c r="H33" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33" s="38" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>1</v>
       </c>
@@ -16064,7 +16478,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="26.4">
+    <row r="35" spans="1:10" ht="26.4">
       <c r="A35">
         <v>1</v>
       </c>
@@ -16084,7 +16498,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="26.4">
+    <row r="36" spans="1:10" ht="26.4">
       <c r="A36">
         <v>1</v>
       </c>
@@ -16104,7 +16518,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>1</v>
       </c>
@@ -16124,7 +16538,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>1</v>
       </c>
@@ -16144,7 +16558,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>1</v>
       </c>
@@ -16164,7 +16578,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>1</v>
       </c>
@@ -16184,7 +16598,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>1</v>
       </c>
@@ -16204,7 +16618,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="26.4">
+    <row r="42" spans="1:10" ht="26.4">
       <c r="A42">
         <v>1</v>
       </c>
@@ -16224,7 +16638,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>1</v>
       </c>
@@ -16244,7 +16658,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>1</v>
       </c>
@@ -16264,7 +16678,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>1</v>
       </c>
@@ -16284,7 +16698,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>1</v>
       </c>
@@ -16304,7 +16718,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="26.4">
+    <row r="47" spans="1:10" ht="26.4">
       <c r="A47">
         <v>1</v>
       </c>
@@ -16324,7 +16738,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>1</v>
       </c>
@@ -16344,7 +16758,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>1</v>
       </c>
@@ -16357,16 +16771,16 @@
       <c r="G49" t="s">
         <v>667</v>
       </c>
-      <c r="J49" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
         <v>333</v>
       </c>
-      <c r="L49" t="s">
+      <c r="N49" t="s">
         <v>332</v>
       </c>
-      <c r="M49" t="s">
+      <c r="O49" t="s">
         <v>610</v>
       </c>
     </row>
@@ -16411,10 +16825,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E14DDB-7C1C-43B8-BB3C-0CE6BC539040}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -16423,10 +16837,14 @@
     <col min="6" max="6" width="57.19921875" customWidth="1"/>
     <col min="7" max="7" width="22.09765625" customWidth="1"/>
     <col min="8" max="8" width="15.8984375" customWidth="1"/>
-    <col min="12" max="12" width="65.69921875" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="65.69921875" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16452,31 +16870,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16496,7 +16920,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16516,7 +16940,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -16524,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>767</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>336</v>
@@ -16536,7 +16960,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -16556,7 +16980,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -16576,7 +17000,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -16596,7 +17020,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -16616,7 +17040,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -16636,7 +17060,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -16656,7 +17080,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -16676,7 +17100,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -16696,7 +17120,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -16715,8 +17139,11 @@
       <c r="H13" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="J13" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -16724,7 +17151,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>767</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>346</v>
@@ -16736,7 +17163,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -16756,7 +17183,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -16776,7 +17203,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -16796,7 +17223,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>1</v>
       </c>
@@ -16816,7 +17243,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1</v>
       </c>
@@ -16836,7 +17263,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>1</v>
       </c>
@@ -16856,7 +17283,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>1</v>
       </c>
@@ -16876,7 +17303,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>1</v>
       </c>
@@ -16896,7 +17323,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>1</v>
       </c>
@@ -16912,16 +17339,16 @@
       <c r="G23" t="s">
         <v>667</v>
       </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>333</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>332</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>610</v>
       </c>
     </row>
@@ -16966,10 +17393,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106A4C8D-BFB9-4E65-8DB1-E1FDE07EB2CE}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -16978,10 +17405,14 @@
     <col min="6" max="6" width="40.59765625" customWidth="1"/>
     <col min="7" max="7" width="24.19921875" customWidth="1"/>
     <col min="8" max="8" width="15.3984375" customWidth="1"/>
-    <col min="12" max="12" width="56.59765625" customWidth="1"/>
+    <col min="10" max="10" width="20.59765625" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="56.59765625" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17007,31 +17438,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17051,7 +17488,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17071,7 +17508,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17091,7 +17528,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -17111,7 +17548,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -17131,7 +17568,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -17151,7 +17588,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -17171,7 +17608,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -17191,7 +17628,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -17207,16 +17644,16 @@
       <c r="G10" t="s">
         <v>667</v>
       </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
         <v>333</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>332</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>610</v>
       </c>
     </row>
@@ -17261,10 +17698,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6FF71E-D6D4-45AA-8EB7-6EFB05DDBC98}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -17273,14 +17710,19 @@
     <col min="6" max="6" width="49.19921875" customWidth="1"/>
     <col min="7" max="7" width="23.3984375" customWidth="1"/>
     <col min="8" max="8" width="12.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.8984375" customWidth="1"/>
-    <col min="12" max="12" width="68.09765625" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.69921875" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="10.8984375" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="68.09765625" customWidth="1"/>
+    <col min="15" max="15" width="12.3984375" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="12.69921875" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17306,31 +17748,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17349,8 +17797,11 @@
       <c r="H2" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="J2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17370,7 +17821,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17390,7 +17841,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -17410,7 +17861,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -17430,7 +17881,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -17450,7 +17901,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -17470,7 +17921,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -17490,7 +17941,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -17510,7 +17961,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -17523,13 +17974,13 @@
       <c r="G11" t="s">
         <v>667</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>372</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>662</v>
       </c>
     </row>
@@ -17574,10 +18025,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B67B17-9B8E-4E8E-AEC1-F9AD948F1739}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -17586,12 +18037,16 @@
     <col min="6" max="6" width="48.3984375" customWidth="1"/>
     <col min="7" max="7" width="22.69921875" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="65.69921875" customWidth="1"/>
-    <col min="13" max="13" width="12.69921875" customWidth="1"/>
-    <col min="14" max="14" width="14.8984375" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="65.69921875" customWidth="1"/>
+    <col min="15" max="15" width="12.69921875" customWidth="1"/>
+    <col min="16" max="16" width="14.8984375" customWidth="1"/>
+    <col min="17" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17617,31 +18072,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17660,11 +18121,11 @@
       <c r="H2" t="s">
         <v>687</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17684,7 +18145,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17704,7 +18165,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -17724,7 +18185,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -17743,8 +18204,11 @@
       <c r="H6" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="J6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -17764,7 +18228,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -17784,7 +18248,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -17804,7 +18268,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -17824,7 +18288,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -17844,7 +18308,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -17864,7 +18328,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>0</v>
       </c>
@@ -17917,10 +18381,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D71FE0-0D17-4E61-A836-54535D7026D7}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -17929,11 +18393,15 @@
     <col min="6" max="6" width="55.09765625" customWidth="1"/>
     <col min="7" max="7" width="25.19921875" customWidth="1"/>
     <col min="8" max="8" width="12.69921875" customWidth="1"/>
-    <col min="12" max="12" width="66.59765625" customWidth="1"/>
-    <col min="13" max="13" width="11.09765625" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="66.59765625" customWidth="1"/>
+    <col min="15" max="15" width="11.09765625" customWidth="1"/>
+    <col min="16" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17959,31 +18427,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18006,7 +18480,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18026,7 +18500,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18046,7 +18520,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -18066,7 +18540,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -18086,7 +18560,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -18106,7 +18580,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -18126,7 +18600,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -18146,7 +18620,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -18166,7 +18640,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -18186,7 +18660,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -18206,7 +18680,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -18226,7 +18700,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>0</v>
       </c>
@@ -18279,10 +18753,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD30F93-B3C9-48E4-BAEB-257DAFEB982C}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -18291,12 +18765,16 @@
     <col min="6" max="6" width="60.19921875" customWidth="1"/>
     <col min="7" max="7" width="24.09765625" customWidth="1"/>
     <col min="8" max="8" width="14.19921875" customWidth="1"/>
-    <col min="11" max="11" width="8.59765625" customWidth="1"/>
-    <col min="12" max="12" width="68" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" customWidth="1"/>
+    <col min="10" max="10" width="23.8984375" customWidth="1"/>
+    <col min="11" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="8.59765625" customWidth="1"/>
+    <col min="14" max="14" width="68" customWidth="1"/>
+    <col min="15" max="15" width="11.3984375" customWidth="1"/>
+    <col min="16" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="23.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18322,31 +18800,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18365,11 +18849,11 @@
       <c r="H2" t="s">
         <v>684</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18389,7 +18873,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18409,7 +18893,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -18429,7 +18913,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -18449,7 +18933,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -18469,7 +18953,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -18489,7 +18973,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -18508,8 +18992,11 @@
       <c r="H9" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="J9" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -18529,7 +19016,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -18549,7 +19036,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -18569,7 +19056,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -18589,7 +19076,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -18609,7 +19096,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -18629,7 +19116,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -18649,7 +19136,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1</v>
       </c>
@@ -18668,8 +19155,11 @@
       <c r="H17" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
@@ -18689,7 +19179,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>1</v>
       </c>
@@ -18709,7 +19199,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1</v>
       </c>
@@ -18729,7 +19219,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>0</v>
       </c>
@@ -18782,10 +19272,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF51896-F2C3-4A8C-8F8A-87F736BAAB5C}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -18794,11 +19284,15 @@
     <col min="6" max="6" width="63.69921875" customWidth="1"/>
     <col min="7" max="7" width="25.69921875" customWidth="1"/>
     <col min="8" max="8" width="16.3984375" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" customWidth="1"/>
-    <col min="12" max="12" width="53.19921875" customWidth="1"/>
+    <col min="10" max="10" width="20.69921875" style="38" customWidth="1"/>
+    <col min="11" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.59765625" customWidth="1"/>
+    <col min="14" max="14" width="53.19921875" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="20.69921875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18824,31 +19318,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18856,7 +19356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18873,7 +19373,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18890,7 +19390,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -18907,7 +19407,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="26.4">
+    <row r="6" spans="1:18" ht="26.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -18924,7 +19424,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -18941,7 +19441,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -18958,7 +19458,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -18978,7 +19478,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -18998,7 +19498,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -19018,7 +19518,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -19038,7 +19538,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -19058,7 +19558,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -19078,7 +19578,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -19098,7 +19598,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -19118,7 +19618,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1</v>
       </c>
@@ -19138,7 +19638,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
@@ -19158,7 +19658,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>1</v>
       </c>
@@ -19178,7 +19678,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1</v>
       </c>
@@ -19198,7 +19698,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>1</v>
       </c>
@@ -19218,7 +19718,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>1</v>
       </c>
@@ -19238,7 +19738,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>1</v>
       </c>
@@ -19258,7 +19758,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>1</v>
       </c>
@@ -19278,7 +19778,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>1</v>
       </c>
@@ -19298,7 +19798,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>1</v>
       </c>
@@ -19318,7 +19818,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>1</v>
       </c>
@@ -19338,7 +19838,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>1</v>
       </c>
@@ -19358,7 +19858,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>1</v>
       </c>
@@ -19378,7 +19878,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>1</v>
       </c>
@@ -19398,7 +19898,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>1</v>
       </c>
@@ -19417,8 +19917,11 @@
       <c r="H31" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31" s="38" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>1</v>
       </c>
@@ -19438,7 +19941,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>1</v>
       </c>
@@ -19458,7 +19961,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>1</v>
       </c>
@@ -19478,7 +19981,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>1</v>
       </c>
@@ -19498,7 +20001,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>1</v>
       </c>
@@ -19518,7 +20021,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>1</v>
       </c>
@@ -19538,7 +20041,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>1</v>
       </c>
@@ -19551,16 +20054,16 @@
       <c r="G38" t="s">
         <v>668</v>
       </c>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
         <v>333</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
         <v>663</v>
       </c>
-      <c r="M38" t="s">
+      <c r="O38" t="s">
         <v>664</v>
       </c>
     </row>
@@ -19645,10 +20148,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A068B11-DAA2-4778-8524-27CDD74C9114}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -19657,13 +20160,17 @@
     <col min="6" max="6" width="57.3984375" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" customWidth="1"/>
-    <col min="10" max="10" width="8.3984375" customWidth="1"/>
-    <col min="11" max="11" width="6.09765625" customWidth="1"/>
-    <col min="12" max="12" width="51.69921875" customWidth="1"/>
-    <col min="13" max="13" width="8.09765625" customWidth="1"/>
+    <col min="10" max="10" width="21.3984375" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" customWidth="1"/>
+    <col min="13" max="13" width="6.09765625" customWidth="1"/>
+    <col min="14" max="14" width="51.69921875" customWidth="1"/>
+    <col min="15" max="15" width="8.09765625" customWidth="1"/>
+    <col min="16" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19689,31 +20196,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19733,7 +20246,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19753,7 +20266,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -19772,8 +20285,11 @@
       <c r="H4" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="J4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -19793,7 +20309,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -19813,7 +20329,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -19833,7 +20349,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -19853,7 +20369,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -19873,7 +20389,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -19893,7 +20409,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -19913,7 +20429,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -19933,7 +20449,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -19953,7 +20469,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -19969,16 +20485,16 @@
       <c r="G14" t="s">
         <v>668</v>
       </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>333</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>663</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>664</v>
       </c>
     </row>
@@ -20020,10 +20536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABE6EEA-441F-4145-BD21-BED610835A4E}">
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -20032,13 +20548,17 @@
     <col min="6" max="6" width="65.69921875" customWidth="1"/>
     <col min="7" max="7" width="22.69921875" customWidth="1"/>
     <col min="8" max="8" width="20.8984375" customWidth="1"/>
-    <col min="10" max="10" width="9.69921875" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="51.69921875" customWidth="1"/>
-    <col min="13" max="13" width="16.59765625" customWidth="1"/>
+    <col min="10" max="10" width="16.69921875" style="38" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9.69921875" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="51.69921875" customWidth="1"/>
+    <col min="15" max="15" width="16.59765625" customWidth="1"/>
+    <col min="16" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="22.8984375" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20064,31 +20584,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20096,7 +20622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20113,7 +20639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -20130,7 +20656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -20147,7 +20673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -20164,7 +20690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -20181,7 +20707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -20198,7 +20724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -20215,7 +20741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -20235,7 +20761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -20255,7 +20781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -20275,7 +20801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -20295,7 +20821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -20312,7 +20838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -20329,7 +20855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -20346,7 +20872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1</v>
       </c>
@@ -20363,7 +20889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
@@ -20379,8 +20905,11 @@
       <c r="G18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" s="38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>0</v>
       </c>
@@ -20391,7 +20920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1</v>
       </c>
@@ -20410,8 +20939,14 @@
       <c r="H20" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>1</v>
       </c>
@@ -20431,7 +20966,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>1</v>
       </c>
@@ -20450,8 +20985,11 @@
       <c r="H22" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" s="38" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>1</v>
       </c>
@@ -20471,7 +21009,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>1</v>
       </c>
@@ -20491,7 +21029,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>1</v>
       </c>
@@ -20511,7 +21049,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>1</v>
       </c>
@@ -20531,7 +21069,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>1</v>
       </c>
@@ -20551,7 +21089,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>1</v>
       </c>
@@ -20570,8 +21108,11 @@
       <c r="H28" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28" s="38" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>1</v>
       </c>
@@ -20591,7 +21132,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>1</v>
       </c>
@@ -20611,7 +21152,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>1</v>
       </c>
@@ -20631,7 +21172,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>1</v>
       </c>
@@ -20651,7 +21192,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>1</v>
       </c>
@@ -20671,7 +21212,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>1</v>
       </c>
@@ -20691,7 +21232,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>1</v>
       </c>
@@ -20711,7 +21252,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>1</v>
       </c>
@@ -20731,7 +21272,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>1</v>
       </c>
@@ -20750,8 +21291,11 @@
       <c r="H37" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J37" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>1</v>
       </c>
@@ -20771,7 +21315,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>1</v>
       </c>
@@ -20791,7 +21335,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>1</v>
       </c>
@@ -20811,7 +21355,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>1</v>
       </c>
@@ -20831,7 +21375,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>1</v>
       </c>
@@ -20848,7 +21392,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>1</v>
       </c>
@@ -20865,7 +21409,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>1</v>
       </c>
@@ -20882,7 +21426,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>1</v>
       </c>
@@ -20899,7 +21443,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>1</v>
       </c>
@@ -20916,7 +21460,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>1</v>
       </c>
@@ -20933,7 +21477,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>1</v>
       </c>
@@ -21267,7 +21811,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>1</v>
       </c>
@@ -21287,7 +21831,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>1</v>
       </c>
@@ -21307,7 +21851,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>1</v>
       </c>
@@ -21327,7 +21871,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>1</v>
       </c>
@@ -21347,7 +21891,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>1</v>
       </c>
@@ -21367,7 +21911,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>1</v>
       </c>
@@ -21387,7 +21931,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>1</v>
       </c>
@@ -21407,7 +21951,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>1</v>
       </c>
@@ -21415,7 +21959,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>16</v>
+        <v>767</v>
       </c>
       <c r="F72" s="20" t="s">
         <v>145</v>
@@ -21427,7 +21971,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>1</v>
       </c>
@@ -21435,7 +21979,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>13</v>
+        <v>767</v>
       </c>
       <c r="F73" s="20" t="s">
         <v>146</v>
@@ -21447,7 +21991,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>1</v>
       </c>
@@ -21467,7 +22011,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>1</v>
       </c>
@@ -21487,7 +22031,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>1</v>
       </c>
@@ -21507,7 +22051,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>1</v>
       </c>
@@ -21520,13 +22064,16 @@
       <c r="G77" t="s">
         <v>27</v>
       </c>
-      <c r="K77" t="s">
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="M77" t="s">
         <v>20</v>
       </c>
-      <c r="L77" t="s">
+      <c r="N77" t="s">
         <v>150</v>
       </c>
-      <c r="M77" t="s">
+      <c r="O77" t="s">
         <v>661</v>
       </c>
     </row>
@@ -21588,10 +22135,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8781FC-B5FB-4BDC-A6AC-E7EDE4A10B60}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -21600,10 +22147,14 @@
     <col min="6" max="6" width="66.69921875" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="12.69921875" customWidth="1"/>
-    <col min="12" max="12" width="52.69921875" customWidth="1"/>
+    <col min="10" max="10" width="18.19921875" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="52.69921875" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21629,31 +22180,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21673,7 +22230,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21693,7 +22250,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -21713,7 +22270,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -21733,7 +22290,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -21753,7 +22310,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -21773,7 +22330,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -21793,7 +22350,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -21813,7 +22370,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -21833,7 +22390,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -21853,7 +22410,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -21869,16 +22426,16 @@
       <c r="G12" t="s">
         <v>668</v>
       </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
         <v>333</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>663</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>664</v>
       </c>
     </row>
@@ -21920,10 +22477,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F938C4-24DF-44A8-AF3D-8C9C401C0375}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -21931,13 +22488,14 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="37.59765625" customWidth="1"/>
     <col min="7" max="7" width="25.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" customWidth="1"/>
-    <col min="12" max="12" width="104.69921875" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="15.19921875" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" customWidth="1"/>
+    <col min="13" max="13" width="15.19921875" customWidth="1"/>
+    <col min="14" max="14" width="104.69921875" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21963,31 +22521,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22007,7 +22571,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -22027,7 +22591,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -22047,7 +22611,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -22060,13 +22624,13 @@
       <c r="G5" t="s">
         <v>668</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>665</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>666</v>
       </c>
     </row>
@@ -22129,10 +22693,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF294853-A5F1-4462-8BE4-E4D9EF238D75}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="F4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -22141,10 +22705,11 @@
     <col min="6" max="6" width="62" customWidth="1"/>
     <col min="7" max="7" width="25.19921875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="12" max="12" width="104.09765625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="14" max="14" width="104.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22170,31 +22735,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22214,7 +22785,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -22234,7 +22805,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -22254,7 +22825,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -22273,11 +22844,11 @@
       <c r="H5" t="s">
         <v>689</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -22297,7 +22868,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -22317,7 +22888,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -22337,7 +22908,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -22357,7 +22928,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -22377,7 +22948,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -22397,7 +22968,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -22417,7 +22988,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -22436,8 +23007,11 @@
       <c r="H13" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="J13" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -22457,7 +23031,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -22477,7 +23051,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -22547,10 +23121,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3424D189-B25E-4117-AB1E-5CE6E0D68D03}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -22559,10 +23133,11 @@
     <col min="6" max="6" width="80.09765625" customWidth="1"/>
     <col min="7" max="7" width="26.19921875" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="105.19921875" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="105.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22588,31 +23163,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22631,11 +23212,11 @@
       <c r="H2" t="s">
         <v>690</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -22655,7 +23236,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -22675,7 +23256,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -22695,7 +23276,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -22715,7 +23296,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -22735,7 +23316,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -22755,7 +23336,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -22775,7 +23356,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -22795,7 +23376,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -22815,7 +23396,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -22835,7 +23416,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -22855,7 +23436,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -22875,7 +23456,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -22895,7 +23476,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -22915,7 +23496,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1</v>
       </c>
@@ -22935,7 +23516,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
@@ -22955,7 +23536,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>1</v>
       </c>
@@ -22974,8 +23555,11 @@
       <c r="H19" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1</v>
       </c>
@@ -22995,7 +23579,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>0</v>
       </c>
@@ -23045,10 +23629,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91E1F32-C105-4B60-A873-DAA120B7C3B6}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="F22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -23057,10 +23641,11 @@
     <col min="6" max="6" width="57.69921875" customWidth="1"/>
     <col min="7" max="7" width="24.69921875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="12" max="12" width="105.69921875" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="14" max="14" width="105.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23086,31 +23671,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23129,11 +23720,11 @@
       <c r="H2" t="s">
         <v>692</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -23153,7 +23744,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -23173,7 +23764,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -23193,7 +23784,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -23213,7 +23804,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -23233,7 +23824,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -23253,7 +23844,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -23273,7 +23864,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -23293,7 +23884,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -23313,7 +23904,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -23332,8 +23923,11 @@
       <c r="H12" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="J12" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -23353,7 +23947,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -23373,7 +23967,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -23393,7 +23987,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -23700,7 +24294,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>1</v>
       </c>
@@ -23719,8 +24313,11 @@
       <c r="H33" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>1</v>
       </c>
@@ -23740,7 +24337,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>1</v>
       </c>
@@ -23760,7 +24357,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>0</v>
       </c>
@@ -23810,10 +24407,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52CED-8D2E-4744-8A59-535CFF1C067F}">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -23822,9 +24419,10 @@
     <col min="6" max="6" width="50.8984375" customWidth="1"/>
     <col min="7" max="7" width="23.59765625" customWidth="1"/>
     <col min="8" max="8" width="19.09765625" customWidth="1"/>
+    <col min="10" max="10" width="19.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23850,31 +24448,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -23882,7 +24486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -23901,8 +24505,11 @@
       <c r="H3" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="28.8">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="28.8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -23922,7 +24529,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -23942,7 +24549,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -23961,8 +24568,11 @@
       <c r="H6" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="J6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -23982,7 +24592,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -24002,7 +24612,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -24022,7 +24632,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -24042,7 +24652,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -24062,7 +24672,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -24082,7 +24692,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="26.4">
+    <row r="13" spans="1:18" ht="26.4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -24101,8 +24711,11 @@
       <c r="H13" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="J13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -24122,7 +24735,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -24142,7 +24755,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -24162,7 +24775,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1</v>
       </c>
@@ -24182,7 +24795,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
@@ -24202,7 +24815,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>1</v>
       </c>
@@ -24222,7 +24835,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1</v>
       </c>
@@ -24242,7 +24855,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>1</v>
       </c>
@@ -24261,8 +24874,11 @@
       <c r="H21" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>1</v>
       </c>
@@ -24282,7 +24898,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26.4">
+    <row r="23" spans="1:10" ht="26.4">
       <c r="A23">
         <v>1</v>
       </c>
@@ -24302,7 +24918,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>1</v>
       </c>
@@ -24322,7 +24938,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>1</v>
       </c>
@@ -24342,7 +24958,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>1</v>
       </c>
@@ -24362,7 +24978,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>1</v>
       </c>
@@ -24382,7 +24998,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>1</v>
       </c>
@@ -24402,7 +25018,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>1</v>
       </c>
@@ -24422,7 +25038,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>1</v>
       </c>
@@ -24442,7 +25058,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>1</v>
       </c>
@@ -24462,7 +25078,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>1</v>
       </c>
@@ -24482,7 +25098,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>1</v>
       </c>
@@ -24502,7 +25118,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>1</v>
       </c>
@@ -24522,7 +25138,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>1</v>
       </c>
@@ -24542,7 +25158,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="26.4">
+    <row r="36" spans="1:10" ht="26.4">
       <c r="A36">
         <v>1</v>
       </c>
@@ -24562,7 +25178,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>1</v>
       </c>
@@ -24582,7 +25198,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>1</v>
       </c>
@@ -24601,8 +25217,11 @@
       <c r="H38" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="J38" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>1</v>
       </c>
@@ -24622,7 +25241,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>1</v>
       </c>
@@ -24642,7 +25261,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>1</v>
       </c>
@@ -24662,7 +25281,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>1</v>
       </c>
@@ -24682,7 +25301,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>1</v>
       </c>
@@ -24702,7 +25321,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>1</v>
       </c>
@@ -24722,7 +25341,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>1</v>
       </c>
@@ -24742,7 +25361,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>1</v>
       </c>
@@ -24762,7 +25381,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>1</v>
       </c>
@@ -24782,7 +25401,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>1</v>
       </c>
@@ -25122,7 +25741,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>1</v>
       </c>
@@ -25142,7 +25761,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>1</v>
       </c>
@@ -25162,7 +25781,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>1</v>
       </c>
@@ -25182,7 +25801,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>1</v>
       </c>
@@ -25202,7 +25821,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>1</v>
       </c>
@@ -25222,7 +25841,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>1</v>
       </c>
@@ -25242,7 +25861,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>1</v>
       </c>
@@ -25262,7 +25881,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>1</v>
       </c>
@@ -25282,7 +25901,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>1</v>
       </c>
@@ -25301,8 +25920,11 @@
       <c r="H73" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="J73" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>1</v>
       </c>
@@ -25322,7 +25944,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>1</v>
       </c>
@@ -25342,7 +25964,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="26.4">
+    <row r="76" spans="1:10" ht="26.4">
       <c r="A76">
         <v>1</v>
       </c>
@@ -25362,7 +25984,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>1</v>
       </c>
@@ -25382,7 +26004,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>1</v>
       </c>
@@ -25402,7 +26024,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>1</v>
       </c>
@@ -25422,7 +26044,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>1</v>
       </c>
@@ -25442,7 +26064,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>1</v>
       </c>
@@ -25459,7 +26081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>1</v>
       </c>
@@ -25476,7 +26098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>1</v>
       </c>
@@ -25493,7 +26115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>1</v>
       </c>
@@ -25510,7 +26132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>1</v>
       </c>
@@ -25527,7 +26149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>1</v>
       </c>
@@ -25543,8 +26165,11 @@
       <c r="G86" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>0</v>
       </c>
@@ -25599,10 +26224,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E129760B-D16C-4E2A-B7A4-F67A51649F7A}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="E37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -25610,9 +26235,10 @@
     <col min="5" max="5" width="21.3984375" customWidth="1"/>
     <col min="6" max="6" width="62.3984375" customWidth="1"/>
     <col min="7" max="7" width="20.8984375" customWidth="1"/>
+    <col min="10" max="10" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25638,31 +26264,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -25670,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -25686,8 +26318,11 @@
       <c r="G3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="I3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -25704,7 +26339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -25721,7 +26356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -25738,7 +26373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -25755,7 +26390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -25772,7 +26407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -25789,7 +26424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -25806,7 +26441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -25823,7 +26458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -25840,7 +26475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -25857,7 +26492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -25874,7 +26509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -25891,7 +26526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -25908,7 +26543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1</v>
       </c>
@@ -25924,8 +26559,11 @@
       <c r="G17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1</v>
       </c>
@@ -25942,7 +26580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1</v>
       </c>
@@ -25959,7 +26597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1</v>
       </c>
@@ -25976,7 +26614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>1</v>
       </c>
@@ -25993,7 +26631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>1</v>
       </c>
@@ -26010,7 +26648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>1</v>
       </c>
@@ -26027,7 +26665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>1</v>
       </c>
@@ -26043,8 +26681,11 @@
       <c r="G24" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>1</v>
       </c>
@@ -26061,7 +26702,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="26.4">
+    <row r="26" spans="1:9" ht="26.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -26078,7 +26719,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>1</v>
       </c>
@@ -26095,7 +26736,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>1</v>
       </c>
@@ -26112,7 +26753,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>1</v>
       </c>
@@ -26129,7 +26770,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>1</v>
       </c>
@@ -26146,7 +26787,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="26.4">
+    <row r="31" spans="1:9" ht="26.4">
       <c r="A31">
         <v>1</v>
       </c>
@@ -26163,7 +26804,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>1</v>
       </c>
@@ -26458,7 +27099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>1</v>
       </c>
@@ -26475,7 +27116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>1</v>
       </c>
@@ -26492,7 +27133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>1</v>
       </c>
@@ -26509,7 +27150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>1</v>
       </c>
@@ -26526,7 +27167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>1</v>
       </c>
@@ -26543,7 +27184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>1</v>
       </c>
@@ -26560,7 +27201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>1</v>
       </c>
@@ -26577,7 +27218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>1</v>
       </c>
@@ -26594,7 +27235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>1</v>
       </c>
@@ -26611,7 +27252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>1</v>
       </c>
@@ -26628,7 +27269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>1</v>
       </c>
@@ -26645,7 +27286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>1</v>
       </c>
@@ -26662,7 +27303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>1</v>
       </c>
@@ -26679,7 +27320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>1</v>
       </c>
@@ -26696,7 +27337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>1</v>
       </c>
@@ -26712,12 +27353,15 @@
       <c r="G63" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="I63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>2</v>
       </c>
-      <c r="P64">
+      <c r="R64">
         <v>2</v>
       </c>
     </row>
@@ -26765,10 +27409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8F6D56-6BF4-472D-8231-C335D914875C}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -26776,12 +27420,17 @@
     <col min="5" max="5" width="14.09765625" customWidth="1"/>
     <col min="6" max="6" width="91.69921875" customWidth="1"/>
     <col min="7" max="7" width="23.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
-    <col min="11" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="81.5" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="10" max="10" width="20.59765625" style="38" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" customWidth="1"/>
+    <col min="13" max="13" width="8.5" customWidth="1"/>
+    <col min="14" max="14" width="81.5" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="20.59765625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26807,31 +27456,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -26839,7 +27494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26859,7 +27514,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -26879,7 +27534,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -26899,7 +27554,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -26919,7 +27574,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -26938,8 +27593,11 @@
       <c r="H7" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="J7" s="38" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -26959,7 +27617,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -26979,7 +27637,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -26999,7 +27657,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -27019,7 +27677,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -27039,7 +27697,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -27059,7 +27717,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -27078,8 +27736,11 @@
       <c r="H14" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="J14" s="38" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -27099,7 +27760,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -27119,7 +27780,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -27139,7 +27800,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>1</v>
       </c>
@@ -27159,7 +27820,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1</v>
       </c>
@@ -27179,7 +27840,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>1</v>
       </c>
@@ -27199,7 +27860,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>1</v>
       </c>
@@ -27219,7 +27880,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>1</v>
       </c>
@@ -27239,7 +27900,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>1</v>
       </c>
@@ -27259,7 +27920,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -27279,7 +27940,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>1</v>
       </c>
@@ -27299,7 +27960,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>1</v>
       </c>
@@ -27319,7 +27980,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>1</v>
       </c>
@@ -27332,16 +27993,16 @@
       <c r="G27" t="s">
         <v>27</v>
       </c>
-      <c r="J27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
         <v>20</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>723</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -27386,10 +28047,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CFF362-6F10-4AE0-BC32-774B7564766B}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -27398,10 +28059,14 @@
     <col min="6" max="6" width="63.69921875" customWidth="1"/>
     <col min="7" max="7" width="21.8984375" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" customWidth="1"/>
-    <col min="12" max="12" width="79.8984375" customWidth="1"/>
+    <col min="10" max="10" width="25.8984375" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="79.8984375" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="25.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27427,31 +28092,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27471,7 +28142,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -27491,7 +28162,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -27511,7 +28182,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -27531,7 +28202,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -27551,7 +28222,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="26.4">
+    <row r="7" spans="1:18" ht="26.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -27571,7 +28242,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -27591,7 +28262,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -27611,7 +28282,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -27631,7 +28302,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -27651,7 +28322,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -27671,7 +28342,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -27691,7 +28362,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -27711,7 +28382,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -27731,7 +28402,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -27751,7 +28422,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -27771,7 +28442,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>1</v>
       </c>
@@ -27791,7 +28462,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1</v>
       </c>
@@ -27811,7 +28482,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>1</v>
       </c>
@@ -27831,7 +28502,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>1</v>
       </c>
@@ -27851,7 +28522,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>1</v>
       </c>
@@ -27871,7 +28542,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>1</v>
       </c>
@@ -27891,7 +28562,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -27911,7 +28582,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>1</v>
       </c>
@@ -27931,7 +28602,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>1</v>
       </c>
@@ -27951,7 +28622,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>1</v>
       </c>
@@ -27967,16 +28638,16 @@
       <c r="G27" t="s">
         <v>27</v>
       </c>
-      <c r="J27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
         <v>20</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>723</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -28021,10 +28692,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A41BF28-BF73-45B4-A6FE-839359A62393}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -28033,10 +28704,14 @@
     <col min="6" max="6" width="59.8984375" customWidth="1"/>
     <col min="7" max="7" width="22.69921875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="12" max="12" width="79.8984375" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" style="38" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="79.8984375" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="14.69921875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28062,31 +28737,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28105,8 +28786,11 @@
       <c r="H2" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="J2" s="38" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -28126,7 +28810,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -28145,8 +28829,11 @@
       <c r="H4" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="J4" s="38" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -28166,7 +28853,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -28186,7 +28873,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -28206,7 +28893,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -28226,7 +28913,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -28246,7 +28933,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -28266,7 +28953,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -28286,7 +28973,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -28306,7 +28993,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -28326,7 +29013,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -28345,8 +29032,11 @@
       <c r="H14" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="J14" s="38" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -28366,7 +29056,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -28386,7 +29076,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -28406,7 +29096,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>1</v>
       </c>
@@ -28426,7 +29116,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1</v>
       </c>
@@ -28442,16 +29132,16 @@
       <c r="G19" t="s">
         <v>27</v>
       </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
         <v>20</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>723</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -28496,10 +29186,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29187108-CC33-4637-A601-47A2B875A65F}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -28508,10 +29198,14 @@
     <col min="6" max="6" width="53.69921875" customWidth="1"/>
     <col min="7" max="7" width="23.3984375" customWidth="1"/>
     <col min="8" max="8" width="12.69921875" customWidth="1"/>
-    <col min="12" max="12" width="81.19921875" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" style="38" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="81.19921875" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="16.59765625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28537,31 +29231,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28581,7 +29281,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -28601,7 +29301,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -28621,7 +29321,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -28641,7 +29341,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -28661,7 +29361,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -28680,8 +29380,11 @@
       <c r="H7" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="J7" s="38" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -28701,7 +29404,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -28721,7 +29424,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -28741,7 +29444,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -28761,7 +29464,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -28781,7 +29484,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -28801,7 +29504,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -28821,7 +29524,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -28844,7 +29547,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -29235,7 +29938,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>1</v>
       </c>
@@ -29258,7 +29961,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>1</v>
       </c>
@@ -29281,7 +29984,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>1</v>
       </c>
@@ -29304,7 +30007,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>1</v>
       </c>
@@ -29327,7 +30030,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>1</v>
       </c>
@@ -29350,7 +30053,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>1</v>
       </c>
@@ -29370,7 +30073,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>1</v>
       </c>
@@ -29390,7 +30093,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>1</v>
       </c>
@@ -29409,8 +30112,11 @@
       <c r="H40" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="J40" s="38" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>1</v>
       </c>
@@ -29430,7 +30136,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>1</v>
       </c>
@@ -29450,7 +30156,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>1</v>
       </c>
@@ -29470,7 +30176,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>1</v>
       </c>
@@ -29490,7 +30196,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>1</v>
       </c>
@@ -29506,16 +30212,16 @@
       <c r="G45" t="s">
         <v>27</v>
       </c>
-      <c r="J45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
         <v>20</v>
       </c>
-      <c r="L45" t="s">
+      <c r="N45" t="s">
         <v>723</v>
       </c>
-      <c r="M45" t="s">
+      <c r="O45" t="s">
         <v>21</v>
       </c>
     </row>
@@ -29560,10 +30266,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13023BAD-E986-4D03-80A9-6D8865BF77C8}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -29572,12 +30278,16 @@
     <col min="6" max="6" width="68" customWidth="1"/>
     <col min="7" max="7" width="22.19921875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" customWidth="1"/>
-    <col min="11" max="11" width="8.3984375" customWidth="1"/>
-    <col min="12" max="12" width="58.59765625" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9.8984375" customWidth="1"/>
+    <col min="13" max="13" width="8.3984375" customWidth="1"/>
+    <col min="14" max="14" width="58.59765625" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29603,31 +30313,40 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="S1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29647,7 +30366,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="26.4">
+    <row r="3" spans="1:19" ht="26.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -29667,7 +30386,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1</v>
       </c>
@@ -29687,7 +30406,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1</v>
       </c>
@@ -29707,7 +30426,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1</v>
       </c>
@@ -29727,7 +30446,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1</v>
       </c>
@@ -29738,7 +30457,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -29747,7 +30466,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>1</v>
       </c>
@@ -29767,7 +30486,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1</v>
       </c>
@@ -29787,7 +30506,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>1</v>
       </c>
@@ -29800,13 +30519,13 @@
       <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>20</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>252</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>531</v>
       </c>
     </row>
@@ -29837,10 +30556,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105F8B61-6BD9-41CC-A526-0E7EDA814A6F}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -29848,10 +30567,15 @@
     <col min="5" max="5" width="15.09765625" customWidth="1"/>
     <col min="6" max="6" width="59.5" customWidth="1"/>
     <col min="7" max="7" width="27.8984375" customWidth="1"/>
-    <col min="12" max="12" width="58.8984375" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="10" max="10" width="22.09765625" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="58.8984375" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="22.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29877,31 +30601,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29921,7 +30651,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -29941,7 +30671,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -29961,7 +30691,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -29981,7 +30711,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -30004,7 +30734,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -30024,7 +30754,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -30044,7 +30774,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -30063,11 +30793,14 @@
       <c r="H9" t="s">
         <v>675</v>
       </c>
-      <c r="I9">
+      <c r="J9" t="s">
+        <v>774</v>
+      </c>
+      <c r="K9">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -30087,7 +30820,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -30107,7 +30840,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>0</v>
       </c>
@@ -30146,10 +30879,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE62B79-AA0F-4591-909D-5913DC2D14C2}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -30158,10 +30891,14 @@
     <col min="6" max="6" width="69.19921875" customWidth="1"/>
     <col min="7" max="7" width="27.69921875" customWidth="1"/>
     <col min="8" max="8" width="11.3984375" customWidth="1"/>
-    <col min="12" max="12" width="55.09765625" customWidth="1"/>
+    <col min="10" max="10" width="21.09765625" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="55.09765625" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="21.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30187,31 +30924,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30231,7 +30974,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -30251,7 +30994,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -30271,7 +31014,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -30291,7 +31034,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -30310,8 +31053,11 @@
       <c r="H6" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="J6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -30330,11 +31076,11 @@
       <c r="H7" t="s">
         <v>673</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -30357,7 +31103,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -30377,7 +31123,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>0</v>
       </c>

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadi2\OneDrive\문서\카카오톡 받은 파일\사운드 다이얼로그 수정\사운드 다이얼로그\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900742B7-4C15-414F-9389-C24138FC675B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA5E915-4EAF-482B-8831-9EC840D85C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="1" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" tabRatio="760" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_SchoolGo" sheetId="2" r:id="rId1"/>
@@ -13212,9 +13212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -13252,7 +13252,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -13358,7 +13358,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13500,7 +13500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13510,29 +13510,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2492B5-5286-4C51-A0EE-617DAAF7402C}">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" customWidth="1"/>
-    <col min="6" max="6" width="86.69921875" customWidth="1"/>
-    <col min="8" max="8" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="86.75" customWidth="1"/>
+    <col min="8" max="8" width="24.375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="15.8984375" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" style="38" customWidth="1"/>
-    <col min="12" max="12" width="17.19921875" customWidth="1"/>
-    <col min="13" max="13" width="13.69921875" customWidth="1"/>
-    <col min="14" max="14" width="12.69921875" customWidth="1"/>
-    <col min="15" max="15" width="14.19921875" customWidth="1"/>
-    <col min="16" max="16" width="16.3984375" customWidth="1"/>
-    <col min="17" max="17" width="15.69921875" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="17.25" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="16.375" customWidth="1"/>
+    <col min="17" max="17" width="15.75" customWidth="1"/>
     <col min="18" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="23.8984375" style="38" customWidth="1"/>
+    <col min="20" max="20" width="23.875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -13608,7 +13608,7 @@
       <c r="S2" s="38"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="25.95" customHeight="1">
+    <row r="3" spans="1:20" ht="26.05" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13650,7 +13650,7 @@
       <c r="S4" s="38"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="25.95" customHeight="1">
+    <row r="5" spans="1:20" ht="26.05" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -13734,7 +13734,7 @@
       <c r="S8" s="38"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:20" ht="30" customHeight="1">
+    <row r="9" spans="1:20" ht="29.95" customHeight="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -15192,21 +15192,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFB045D-9DEA-4213-951B-B6C6659A4BD9}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="E25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="18.09765625" customWidth="1"/>
-    <col min="6" max="6" width="56.19921875" customWidth="1"/>
-    <col min="7" max="7" width="21.69921875" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="56.25" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="10" max="10" width="18.69921875" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
     <col min="11" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="60.19921875" customWidth="1"/>
+    <col min="14" max="14" width="60.25" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="18.69921875" customWidth="1"/>
+    <col min="19" max="19" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -15571,7 +15571,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>1</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>1</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>1</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>1</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>1</v>
       </c>
@@ -15750,8 +15750,11 @@
       <c r="H25" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>0</v>
       </c>
@@ -15792,22 +15795,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB216B21-F13B-4AEF-B2E5-65437E24D49A}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="D43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="D18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" customWidth="1"/>
-    <col min="6" max="6" width="55.69921875" customWidth="1"/>
-    <col min="7" max="7" width="22.69921875" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" customWidth="1"/>
-    <col min="10" max="10" width="17.59765625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="55.75" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="38" customWidth="1"/>
     <col min="11" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="54.8984375" customWidth="1"/>
+    <col min="14" max="14" width="54.875" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="17.59765625" style="38" customWidth="1"/>
+    <col min="19" max="19" width="17.625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -16091,6 +16094,9 @@
       <c r="H15" t="s">
         <v>683</v>
       </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
@@ -16135,7 +16141,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="26.4">
+    <row r="18" spans="1:8" ht="24.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -16235,7 +16241,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26.4">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1</v>
       </c>
@@ -16375,7 +16381,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="26.4">
+    <row r="30" spans="1:8" ht="24.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -16478,7 +16484,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="26.4">
+    <row r="35" spans="1:10" ht="24.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -16498,7 +16504,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="26.4">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>1</v>
       </c>
@@ -16618,7 +16624,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="26.4">
+    <row r="42" spans="1:10" ht="24.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -16718,7 +16724,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="26.4">
+    <row r="47" spans="1:10" ht="24.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -16831,17 +16837,17 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
-    <col min="6" max="6" width="57.19921875" customWidth="1"/>
-    <col min="7" max="7" width="22.09765625" customWidth="1"/>
-    <col min="8" max="8" width="15.8984375" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="57.25" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="65.69921875" customWidth="1"/>
+    <col min="14" max="14" width="65.75" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="21.59765625" customWidth="1"/>
+    <col min="19" max="19" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -17396,20 +17402,20 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="13.19921875" customWidth="1"/>
-    <col min="6" max="6" width="40.59765625" customWidth="1"/>
-    <col min="7" max="7" width="24.19921875" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" customWidth="1"/>
-    <col min="10" max="10" width="20.59765625" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
     <col min="11" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="56.59765625" customWidth="1"/>
+    <col min="14" max="14" width="56.625" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="20.59765625" customWidth="1"/>
+    <col min="19" max="19" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -17701,23 +17707,23 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="14.09765625" customWidth="1"/>
-    <col min="6" max="6" width="49.19921875" customWidth="1"/>
-    <col min="7" max="7" width="23.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12.8984375" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="49.25" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="10.8984375" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="68.09765625" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" customWidth="1"/>
+    <col min="14" max="14" width="68.125" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="12.69921875" customWidth="1"/>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
     <col min="18" max="18" width="9" customWidth="1"/>
     <col min="19" max="19" width="19.5" customWidth="1"/>
   </cols>
@@ -18027,21 +18033,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B67B17-9B8E-4E8E-AEC1-F9AD948F1739}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="14.09765625" customWidth="1"/>
-    <col min="6" max="6" width="48.3984375" customWidth="1"/>
-    <col min="7" max="7" width="22.69921875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="48.375" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
     <col min="11" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="65.69921875" customWidth="1"/>
-    <col min="15" max="15" width="12.69921875" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" customWidth="1"/>
+    <col min="14" max="14" width="65.75" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="14.875" customWidth="1"/>
     <col min="17" max="18" width="9" customWidth="1"/>
     <col min="19" max="19" width="19.5" customWidth="1"/>
   </cols>
@@ -18326,6 +18332,9 @@
       </c>
       <c r="H12" t="s">
         <v>684</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -18384,19 +18393,19 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="55.09765625" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" customWidth="1"/>
+    <col min="6" max="6" width="55.125" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="66.59765625" customWidth="1"/>
-    <col min="15" max="15" width="11.09765625" customWidth="1"/>
+    <col min="14" max="14" width="66.625" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
     <col min="16" max="18" width="9" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
   </cols>
@@ -18698,6 +18707,9 @@
       </c>
       <c r="H13" t="s">
         <v>687</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -18755,23 +18767,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD30F93-B3C9-48E4-BAEB-257DAFEB982C}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="60.19921875" customWidth="1"/>
-    <col min="7" max="7" width="24.09765625" customWidth="1"/>
-    <col min="8" max="8" width="14.19921875" customWidth="1"/>
-    <col min="10" max="10" width="23.8984375" customWidth="1"/>
+    <col min="6" max="6" width="60.25" customWidth="1"/>
+    <col min="7" max="7" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="23.875" customWidth="1"/>
     <col min="11" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="8.59765625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
     <col min="14" max="14" width="68" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
     <col min="16" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="23.8984375" customWidth="1"/>
+    <col min="19" max="19" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -19217,6 +19229,9 @@
       </c>
       <c r="H20" t="s">
         <v>747</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -19274,22 +19289,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF51896-F2C3-4A8C-8F8A-87F736BAAB5C}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="63.69921875" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" customWidth="1"/>
-    <col min="10" max="10" width="20.69921875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="63.75" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="38" customWidth="1"/>
     <col min="11" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="6.59765625" customWidth="1"/>
-    <col min="14" max="14" width="53.19921875" customWidth="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="53.25" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="20.69921875" style="38" customWidth="1"/>
+    <col min="19" max="19" width="20.75" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -19407,7 +19422,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="26.4">
+    <row r="6" spans="1:18" ht="24.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -19576,6 +19591,9 @@
       </c>
       <c r="H14" t="s">
         <v>688</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -20151,23 +20169,23 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="57.3984375" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="57.375" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" customWidth="1"/>
-    <col min="10" max="10" width="21.3984375" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="21.375" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="8.3984375" customWidth="1"/>
-    <col min="13" max="13" width="6.09765625" customWidth="1"/>
-    <col min="14" max="14" width="51.69921875" customWidth="1"/>
-    <col min="15" max="15" width="8.09765625" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="13" max="13" width="6.125" customWidth="1"/>
+    <col min="14" max="14" width="51.75" customWidth="1"/>
+    <col min="15" max="15" width="8.125" customWidth="1"/>
     <col min="16" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="21.3984375" customWidth="1"/>
+    <col min="19" max="19" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -20538,24 +20556,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABE6EEA-441F-4145-BD21-BED610835A4E}">
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="65.69921875" customWidth="1"/>
-    <col min="7" max="7" width="22.69921875" customWidth="1"/>
-    <col min="8" max="8" width="20.8984375" customWidth="1"/>
-    <col min="10" max="10" width="16.69921875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="65.75" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="38" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9.69921875" customWidth="1"/>
+    <col min="12" max="12" width="9.75" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="51.69921875" customWidth="1"/>
-    <col min="15" max="15" width="16.59765625" customWidth="1"/>
+    <col min="14" max="14" width="51.75" customWidth="1"/>
+    <col min="15" max="15" width="16.625" customWidth="1"/>
     <col min="16" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="22.8984375" style="38" customWidth="1"/>
+    <col min="19" max="19" width="22.875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -22138,20 +22156,20 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="19.19921875" customWidth="1"/>
-    <col min="6" max="6" width="66.69921875" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="66.75" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" customWidth="1"/>
-    <col min="10" max="10" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
     <col min="11" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="52.69921875" customWidth="1"/>
+    <col min="14" max="14" width="52.75" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="18.19921875" customWidth="1"/>
+    <col min="19" max="19" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -22483,15 +22501,15 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="37.59765625" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" customWidth="1"/>
-    <col min="10" max="10" width="15.19921875" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" customWidth="1"/>
-    <col min="13" max="13" width="15.19921875" customWidth="1"/>
-    <col min="14" max="14" width="104.69921875" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="15.25" customWidth="1"/>
+    <col min="14" max="14" width="104.75" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22695,18 +22713,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF294853-A5F1-4462-8BE4-E4D9EF238D75}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="18.69921875" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="6" max="6" width="62" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="14" max="14" width="104.09765625" customWidth="1"/>
+    <col min="14" max="14" width="104.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -23069,6 +23087,9 @@
       </c>
       <c r="H16" t="s">
         <v>691</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -23124,17 +23145,17 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
-    <col min="6" max="6" width="80.09765625" customWidth="1"/>
-    <col min="7" max="7" width="26.19921875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="80.125" customWidth="1"/>
+    <col min="7" max="7" width="26.25" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="105.19921875" customWidth="1"/>
+    <col min="14" max="14" width="105.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -23577,6 +23598,9 @@
       </c>
       <c r="H20" t="s">
         <v>693</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -23631,18 +23655,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91E1F32-C105-4B60-A873-DAA120B7C3B6}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="F13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="12.19921875" customWidth="1"/>
-    <col min="6" max="6" width="57.69921875" customWidth="1"/>
-    <col min="7" max="7" width="24.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="57.75" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="14" max="14" width="105.69921875" customWidth="1"/>
+    <col min="14" max="14" width="105.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -23720,6 +23744,9 @@
       <c r="H2" t="s">
         <v>692</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="K2">
         <v>-1</v>
       </c>
@@ -24007,7 +24034,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1</v>
       </c>
@@ -24027,7 +24054,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1</v>
       </c>
@@ -24047,7 +24074,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1</v>
       </c>
@@ -24067,7 +24094,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1</v>
       </c>
@@ -24084,7 +24111,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>1</v>
       </c>
@@ -24101,7 +24128,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>1</v>
       </c>
@@ -24118,7 +24145,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>1</v>
       </c>
@@ -24135,7 +24162,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>1</v>
       </c>
@@ -24152,7 +24179,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>1</v>
       </c>
@@ -24169,7 +24196,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>1</v>
       </c>
@@ -24186,7 +24213,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>1</v>
       </c>
@@ -24203,7 +24230,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>1</v>
       </c>
@@ -24220,7 +24247,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>1</v>
       </c>
@@ -24237,7 +24264,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>1</v>
       </c>
@@ -24254,7 +24281,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>1</v>
       </c>
@@ -24273,8 +24300,11 @@
       <c r="H31" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>1</v>
       </c>
@@ -24355,6 +24385,9 @@
       </c>
       <c r="H35" t="s">
         <v>693</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -24413,13 +24446,13 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="50.8984375" customWidth="1"/>
-    <col min="7" max="7" width="23.59765625" customWidth="1"/>
-    <col min="8" max="8" width="19.09765625" customWidth="1"/>
-    <col min="10" max="10" width="19.09765625" customWidth="1"/>
+    <col min="6" max="6" width="50.875" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -24509,7 +24542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="28.8">
+    <row r="4" spans="1:18" ht="27.1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -24692,7 +24725,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="26.4">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -24898,7 +24931,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="26.4">
+    <row r="23" spans="1:10" ht="24.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -25158,7 +25191,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="26.4">
+    <row r="36" spans="1:10" ht="24.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -25441,7 +25474,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="31.2">
+    <row r="50" spans="1:8" ht="29.95">
       <c r="A50">
         <v>1</v>
       </c>
@@ -25521,7 +25554,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="26.4">
+    <row r="54" spans="1:8" ht="24.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -25621,7 +25654,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="26.4">
+    <row r="59" spans="1:8" ht="24.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -25641,7 +25674,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="26.4">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>1</v>
       </c>
@@ -25964,7 +25997,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="26.4">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>1</v>
       </c>
@@ -26230,12 +26263,12 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="21.3984375" customWidth="1"/>
-    <col min="6" max="6" width="62.3984375" customWidth="1"/>
-    <col min="7" max="7" width="20.8984375" customWidth="1"/>
-    <col min="10" max="10" width="19.8984375" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="62.375" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -26702,7 +26735,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="26.4">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>1</v>
       </c>
@@ -26787,7 +26820,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="26.4">
+    <row r="31" spans="1:9" ht="24.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -26872,7 +26905,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="312">
+    <row r="36" spans="1:7" ht="299.39999999999998">
       <c r="A36">
         <v>1</v>
       </c>
@@ -26943,7 +26976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="26.4">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>1</v>
       </c>
@@ -26994,7 +27027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="302.39999999999998" customHeight="1">
+    <row r="43" spans="1:7" ht="302.45" customHeight="1">
       <c r="A43">
         <v>1</v>
       </c>
@@ -27412,22 +27445,22 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="14.09765625" customWidth="1"/>
-    <col min="6" max="6" width="91.69921875" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="91.75" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="10" max="10" width="20.59765625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="38" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="10.19921875" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
     <col min="13" max="13" width="8.5" customWidth="1"/>
     <col min="14" max="14" width="81.5" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="20.59765625" style="38" customWidth="1"/>
+    <col min="19" max="19" width="20.625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -27592,6 +27625,9 @@
       </c>
       <c r="H7" t="s">
         <v>675</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7" s="38" t="s">
         <v>771</v>
@@ -28049,21 +28085,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CFF362-6F10-4AE0-BC32-774B7564766B}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="13.69921875" customWidth="1"/>
-    <col min="6" max="6" width="63.69921875" customWidth="1"/>
-    <col min="7" max="7" width="21.8984375" customWidth="1"/>
-    <col min="8" max="8" width="13.19921875" customWidth="1"/>
-    <col min="10" max="10" width="25.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="63.75" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="25.875" customWidth="1"/>
     <col min="11" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="79.8984375" customWidth="1"/>
+    <col min="14" max="14" width="79.875" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="25.8984375" customWidth="1"/>
+    <col min="19" max="19" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -28222,7 +28258,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="26.4">
+    <row r="7" spans="1:18" ht="24.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -28698,17 +28734,17 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="59.8984375" customWidth="1"/>
-    <col min="7" max="7" width="22.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="59.875" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="10" max="10" width="14.69921875" style="38" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="38" customWidth="1"/>
     <col min="11" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="79.8984375" customWidth="1"/>
+    <col min="14" max="14" width="79.875" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="14.69921875" style="38" customWidth="1"/>
+    <col min="19" max="19" width="14.75" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -29188,21 +29224,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29187108-CC33-4637-A601-47A2B875A65F}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="53.69921875" customWidth="1"/>
-    <col min="7" max="7" width="23.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" customWidth="1"/>
-    <col min="10" max="10" width="16.59765625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="53.75" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="16.625" style="38" customWidth="1"/>
     <col min="11" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="81.19921875" customWidth="1"/>
+    <col min="14" max="14" width="81.25" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="16.59765625" style="38" customWidth="1"/>
+    <col min="19" max="19" width="16.625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -29462,6 +29498,9 @@
       </c>
       <c r="H11" t="s">
         <v>669</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -30268,21 +30307,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13023BAD-E986-4D03-80A9-6D8865BF77C8}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="14.69921875" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9.8984375" customWidth="1"/>
-    <col min="13" max="13" width="8.3984375" customWidth="1"/>
-    <col min="14" max="14" width="58.59765625" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="58.625" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
     <col min="19" max="19" width="18.5" customWidth="1"/>
   </cols>
@@ -30366,7 +30405,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="26.4">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -30404,6 +30443,9 @@
       </c>
       <c r="H4" t="s">
         <v>669</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -30562,17 +30604,17 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="15.09765625" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="59.5" customWidth="1"/>
-    <col min="7" max="7" width="27.8984375" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="10" max="10" width="22.09765625" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
     <col min="11" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="58.8984375" customWidth="1"/>
+    <col min="14" max="14" width="58.875" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="22.09765625" customWidth="1"/>
+    <col min="19" max="19" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -30881,21 +30923,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE62B79-AA0F-4591-909D-5913DC2D14C2}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="69.19921875" customWidth="1"/>
-    <col min="7" max="7" width="27.69921875" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" customWidth="1"/>
-    <col min="10" max="10" width="21.09765625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="69.25" customWidth="1"/>
+    <col min="7" max="7" width="27.75" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
     <col min="11" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="55.09765625" customWidth="1"/>
+    <col min="14" max="14" width="55.125" customWidth="1"/>
     <col min="15" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="21.09765625" customWidth="1"/>
+    <col min="19" max="19" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
